--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="242">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -800,9 +800,6 @@
     <t>SSI Clock source, data rate and data width</t>
   </si>
   <si>
-    <t>Delete ond PF1 (RED LED toggle functions through GPIO)</t>
-  </si>
-  <si>
     <t>GPIO mapping and handleing for PA6 and PA7</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
   </si>
   <si>
     <t>Create System Config module and Use SysCtlClockSet and SysCtlClockGet</t>
-  </si>
-  <si>
-    <t>System config, study how to take out more clock speeds</t>
   </si>
   <si>
     <t>Delete old SYSCFG_clock_get function</t>
@@ -957,6 +951,21 @@
   </si>
   <si>
     <t>Backward, left motor</t>
+  </si>
+  <si>
+    <t>System config, study how to obtain more clock speeds</t>
+  </si>
+  <si>
+    <t>Delete ond PF1 (RED LED toggle functions through GPIO), convert to universal toggle function</t>
+  </si>
+  <si>
+    <t>Do not delete function, rather convert it to an universal function to toggle any output pin, ad flag for 1st time running, and include initialization)</t>
+  </si>
+  <si>
+    <t>Low prio</t>
+  </si>
+  <si>
+    <t>High Prio</t>
   </si>
 </sst>
 </file>
@@ -1655,6 +1664,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,15 +1682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4939,13 +4948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5042,7 +5051,7 @@
       <c r="B9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="59" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5052,7 +5061,7 @@
         <v>180</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -5070,7 +5079,7 @@
         <v>180</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E12" s="60"/>
     </row>
@@ -5101,7 +5110,7 @@
         <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -5113,7 +5122,7 @@
         <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,11 +5134,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>196</v>
+      <c r="C18" s="59" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,37 +5147,40 @@
         <v>180</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>195</v>
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="47" t="s">
         <v>180</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>186</v>
+      <c r="C22" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,7 +5189,7 @@
         <v>180</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,10 +5198,7 @@
         <v>180</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,25 +5207,32 @@
         <v>180</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>210</v>
+      <c r="C26" s="61" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>212</v>
+      <c r="C27" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5241,7 +5257,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="66" t="s">
+        <v>241</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>167</v>
       </c>
@@ -5250,7 +5268,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="66" t="s">
+        <v>241</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>167</v>
       </c>
@@ -5259,7 +5279,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="66" t="s">
+        <v>241</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>167</v>
       </c>
@@ -5268,7 +5290,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="66" t="s">
+        <v>241</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>167</v>
       </c>
@@ -5304,7 +5328,9 @@
       <c r="A39" s="66"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
+      <c r="A40" s="66" t="s">
+        <v>241</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>177</v>
       </c>
@@ -5318,7 +5344,7 @@
         <v>177</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,7 +5353,7 @@
         <v>177</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6778,35 +6804,35 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="M2" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" s="77" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,24 +6840,24 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6839,10 +6865,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6875,7 +6901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -6911,7 +6937,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="83" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6923,7 +6949,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
@@ -6933,7 +6959,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6954,7 +6980,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -6975,7 +7001,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -6987,7 +7013,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -7008,7 +7034,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
@@ -7029,7 +7055,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -7050,7 +7076,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="83" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7070,7 +7096,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -7088,7 +7114,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="83" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7108,7 +7134,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -7126,7 +7152,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="83" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7146,7 +7172,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7164,7 +7190,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -7182,7 +7208,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -7200,7 +7226,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7238,58 +7264,58 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>219</v>
+      <c r="B28" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
-        <v>229</v>
+      <c r="B29" s="75" t="s">
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="76" t="s">
         <v>233</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="78" t="s">
-        <v>230</v>
+      <c r="B30" s="75" t="s">
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>234</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="78" t="s">
-        <v>231</v>
+      <c r="B31" s="75" t="s">
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="79" t="s">
-        <v>237</v>
+      <c r="D31" s="76" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="81" t="s">
+      <c r="B32" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="82" t="s">
-        <v>238</v>
+      <c r="D32" s="79" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7317,17 +7343,17 @@
   <sheetData>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7529,7 +7555,7 @@
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
@@ -7546,7 +7572,7 @@
       </c>
       <c r="C7" s="72"/>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -7555,7 +7581,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>16000</v>
@@ -7617,7 +7643,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7726,7 +7752,7 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="84" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="48">
@@ -7749,7 +7775,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="51">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -7782,7 +7808,7 @@
       <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="85" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="51">
@@ -7810,7 +7836,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="51">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -7836,7 +7862,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="51">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -7862,7 +7888,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="51">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -7895,7 +7921,7 @@
       <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="84" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="48">
@@ -7918,7 +7944,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="51">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -7944,7 +7970,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="50">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -7970,7 +7996,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="51">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -7996,7 +8022,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="84" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="51">
@@ -8024,7 +8050,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="51">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -16326,7 +16352,7 @@
       <c r="CE1" s="8"/>
       <c r="CF1" s="9"/>
       <c r="CH1" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="CW1" s="7"/>
       <c r="CX1" s="8"/>
@@ -20986,7 +21012,7 @@
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AQ25" s="12"/>
       <c r="AR25" s="12"/>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -662,9 +662,6 @@
     <t>how to implement DC motor:</t>
   </si>
   <si>
-    <t>Size H x W x L</t>
-  </si>
-  <si>
     <t>mN*m</t>
   </si>
   <si>
@@ -970,6 +967,63 @@
   <si>
     <t>Wire color</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final solution:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+POLOLU 2135
+http://www.tme.eu/ro/details/pololu-2135/drivere-modulare-de-motor/pololu/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Motor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+POLOLU 2368 - MP - 150:1
+http://www.tme.eu/ro/details/pololu-2368/micromotoare-si-accesorii/pololu/150_1-micro-metal-gearmotor-mp/
+https://www.pololu.com/product/2368
+https://www.pololu.com/product/2368/resources</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +1032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1195,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1559,7 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1671,6 +1741,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,11 +1755,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4988,10 +5061,10 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5000,247 +5073,247 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" t="s">
         <v>238</v>
-      </c>
-      <c r="D27" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,72 +5322,72 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>167</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5326,10 +5399,10 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,31 +5410,31 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>177</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="62"/>
       <c r="B42" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,35 +6885,35 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L2" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="N2" s="70" t="s">
         <v>216</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6848,24 +6921,24 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" t="s">
         <v>220</v>
-      </c>
-      <c r="N5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6873,10 +6946,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N6" t="s">
         <v>222</v>
-      </c>
-      <c r="N6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6909,7 +6982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6937,18 +7010,18 @@
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="83" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6957,24 +7030,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="82"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6987,16 +7060,16 @@
       <c r="E4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="79" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="84"/>
+        <v>173</v>
+      </c>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -7009,30 +7082,30 @@
       <c r="E5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="79" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="80" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -7045,16 +7118,16 @@
       <c r="E7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="79" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="85"/>
+        <v>171</v>
+      </c>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
@@ -7067,16 +7140,16 @@
       <c r="E8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="79" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -7089,16 +7162,16 @@
       <c r="E9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="79" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="84" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7113,14 +7186,14 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="79" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -7133,14 +7206,14 @@
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="79" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="84" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7150,19 +7223,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="79" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -7170,19 +7243,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="79" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7197,14 +7270,14 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="79" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7212,19 +7285,19 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="79" t="s">
         <v>151</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>152</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -7232,19 +7305,19 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -7252,19 +7325,19 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="79" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7277,7 +7350,7 @@
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="F21" s="79" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1"/>
@@ -7305,57 +7378,57 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>226</v>
-      </c>
       <c r="D28" s="78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7383,17 +7456,17 @@
   <sheetData>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7668,7 @@
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
@@ -7612,7 +7685,7 @@
       </c>
       <c r="C7" s="68"/>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -7621,7 +7694,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8">
         <v>16000</v>
@@ -7683,7 +7756,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7694,10 +7767,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7709,7 +7782,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
@@ -7729,7 +7802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
@@ -7752,11 +7825,8 @@
       <c r="G2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>114</v>
       </c>
@@ -7784,15 +7854,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="47">
@@ -7813,9 +7883,19 @@
       <c r="G5" s="46" t="s">
         <v>116</v>
       </c>
+      <c r="I5" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -7839,16 +7919,32 @@
       <c r="G6" s="46" t="s">
         <v>117</v>
       </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="50">
@@ -7874,9 +7970,17 @@
       <c r="G8" s="46" t="s">
         <v>119</v>
       </c>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -7900,9 +8004,17 @@
       <c r="G9" s="46" t="s">
         <v>120</v>
       </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -7926,9 +8038,17 @@
       <c r="G10" s="46" t="s">
         <v>121</v>
       </c>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -7952,16 +8072,32 @@
       <c r="G11" s="46" t="s">
         <v>122</v>
       </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="47">
@@ -7982,9 +8118,17 @@
       <c r="G13" s="46" t="s">
         <v>124</v>
       </c>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -8008,9 +8152,17 @@
       <c r="G14" s="46" t="s">
         <v>125</v>
       </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -8032,11 +8184,19 @@
         <v>49.430864</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -8060,9 +8220,17 @@
       <c r="G16" s="46" t="s">
         <v>126</v>
       </c>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="50">
@@ -8088,9 +8256,17 @@
       <c r="G17" s="46" t="s">
         <v>128</v>
       </c>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -8114,8 +8290,16 @@
       <c r="G18" s="46" t="s">
         <v>129</v>
       </c>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>130</v>
       </c>
@@ -8132,22 +8316,22 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -8155,17 +8339,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="I5:P18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1"/>
@@ -16392,7 +16577,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -21052,7 +21237,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -707,12 +707,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>MP motors</t>
-  </si>
-  <si>
-    <t>Motor driver PCB &amp; IC</t>
-  </si>
-  <si>
     <t>M1 PWM0 - Gen 0</t>
   </si>
   <si>
@@ -810,9 +804,6 @@
   </si>
   <si>
     <t>Driver layer</t>
-  </si>
-  <si>
-    <t>Software arhitecture layout</t>
   </si>
   <si>
     <t>Pull down resistors for PA6 and PA7</t>
@@ -1023,6 +1014,33 @@
 https://www.pololu.com/product/2368
 https://www.pololu.com/product/2368/resources</t>
     </r>
+  </si>
+  <si>
+    <t>ADC for temperature measurement, add info to LCD display</t>
+  </si>
+  <si>
+    <t>Mic + Amplifier and filter PCB</t>
+  </si>
+  <si>
+    <t>MP motors order</t>
+  </si>
+  <si>
+    <t>Motor driver PCB &amp; IC order</t>
+  </si>
+  <si>
+    <t>MP motor + driver install</t>
+  </si>
+  <si>
+    <t>Update Software arhitecture layout</t>
+  </si>
+  <si>
+    <t>SSI service for wifi communication through NRF</t>
+  </si>
+  <si>
+    <t>CAN service</t>
+  </si>
+  <si>
+    <t>Toggle PF2 and PF3 with PWM on / off, commanded by 2nd uC through CAN</t>
   </si>
 </sst>
 </file>
@@ -5027,15 +5045,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5061,10 +5079,10 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5073,7 +5091,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>141</v>
@@ -5085,7 +5103,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>142</v>
@@ -5097,7 +5115,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>145</v>
@@ -5109,7 +5127,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>143</v>
@@ -5121,7 +5139,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>152</v>
@@ -5130,7 +5148,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>144</v>
@@ -5139,16 +5157,16 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>149</v>
@@ -5157,294 +5175,328 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="46" t="s">
-        <v>179</v>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="1" t="s">
-        <v>179</v>
+      <c r="B20" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>209</v>
+      <c r="A25" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="D26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>239</v>
-      </c>
+      <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" t="s">
-        <v>238</v>
+        <v>177</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
+      <c r="B28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>167</v>
+        <v>177</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>178</v>
-      </c>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
-        <v>240</v>
-      </c>
+      <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
-        <v>240</v>
-      </c>
+      <c r="A33" s="62"/>
       <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="46" t="s">
         <v>166</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="A35" s="62" t="s">
+        <v>237</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>181</v>
+        <v>164</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="62"/>
+      <c r="B39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>237</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="62"/>
-      <c r="B42" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
+      <c r="B44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
+      <c r="B45" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
@@ -5475,6 +5527,15 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="62"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6885,35 +6946,35 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L2" s="70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6921,24 +6982,24 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6946,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7014,10 +7075,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7064,7 +7125,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="81"/>
     </row>
@@ -7086,7 +7147,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -7122,7 +7183,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" s="82"/>
     </row>
@@ -7144,7 +7205,7 @@
         <v>60</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H8" s="58"/>
     </row>
@@ -7166,7 +7227,7 @@
         <v>56</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7223,7 +7284,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
@@ -7243,7 +7304,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
@@ -7285,7 +7346,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>150</v>
@@ -7305,7 +7366,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -7325,7 +7386,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -7378,57 +7439,57 @@
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C32" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7456,17 +7517,17 @@
   <sheetData>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +7729,7 @@
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
@@ -7685,7 +7746,7 @@
       </c>
       <c r="C7" s="68"/>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -7694,7 +7755,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <v>16000</v>
@@ -7756,7 +7817,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7769,7 +7830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7884,7 +7945,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
@@ -16577,7 +16638,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -21237,7 +21298,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId9"/>
     <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="264">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Level Interrupt</t>
   </si>
   <si>
     <t>PF2 ( Blue LED)</t>
@@ -1042,15 +1039,63 @@
   <si>
     <t>Toggle PF2 and PF3 with PWM on / off, commanded by 2nd uC through CAN</t>
   </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>GPIO for SPI / SSI</t>
+  </si>
+  <si>
+    <t>GPIO for Level Interrupt</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>CAN0Rx</t>
+  </si>
+  <si>
+    <t>CAN0Tx</t>
+  </si>
+  <si>
+    <t>CAN module 0 transmit.</t>
+  </si>
+  <si>
+    <t>CAN module 0 receive.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,13 +2428,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2403,7 +2448,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2423,7 +2468,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4801,7 +4846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4833,10 +4878,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4868,7 +4912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5044,21 +5087,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -5076,465 +5119,465 @@
       <c r="O1" s="62"/>
       <c r="P1" s="62"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>181</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="59"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="62"/>
       <c r="B17" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="62"/>
       <c r="B20" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>233</v>
       </c>
+      <c r="D26" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="62"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="62"/>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>243</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="62"/>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="62"/>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="62"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="62"/>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="62"/>
       <c r="B45" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="62"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="62"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="62"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="62"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="62"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="62"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="62"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="62"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="62"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="62"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="62"/>
     </row>
   </sheetData>
@@ -5544,14 +5587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
@@ -5567,7 +5610,7 @@
     <col min="40" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="66"/>
@@ -5604,7 +5647,7 @@
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67">
@@ -5653,7 +5696,7 @@
       <c r="AL2" s="67"/>
       <c r="AM2" s="66"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="65"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -5712,7 +5755,7 @@
       <c r="AL3" s="67"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="65"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67">
@@ -5773,7 +5816,7 @@
       <c r="AL4" s="67"/>
       <c r="AM4" s="66"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="65"/>
       <c r="B5" s="67">
         <v>1</v>
@@ -5838,7 +5881,7 @@
       </c>
       <c r="AM5" s="66"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="65"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67">
@@ -5903,7 +5946,7 @@
       </c>
       <c r="AM6" s="66"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="65"/>
       <c r="B7" s="67">
         <v>1</v>
@@ -5970,7 +6013,7 @@
       <c r="AL7" s="67"/>
       <c r="AM7" s="66"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67">
@@ -6031,7 +6074,7 @@
       <c r="AL8" s="67"/>
       <c r="AM8" s="65"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="65"/>
       <c r="B9" s="67">
         <v>1</v>
@@ -6092,7 +6135,7 @@
       <c r="AL9" s="67"/>
       <c r="AM9" s="65"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -6129,7 +6172,7 @@
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="64" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -6231,7 +6274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -6268,7 +6311,7 @@
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -6311,7 +6354,7 @@
       <c r="AL15" s="67"/>
       <c r="AM15" s="66"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -6364,7 +6407,7 @@
       <c r="AL16" s="67"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="65"/>
       <c r="B17" s="67">
         <v>1</v>
@@ -6437,7 +6480,7 @@
       </c>
       <c r="AM17" s="66"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="65"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67">
@@ -6500,7 +6543,7 @@
       </c>
       <c r="AM18" s="66"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="65"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -6551,7 +6594,7 @@
       </c>
       <c r="AM19" s="66"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="65"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -6604,7 +6647,7 @@
       </c>
       <c r="AM20" s="66"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="65"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67">
@@ -6663,7 +6706,7 @@
       <c r="AL21" s="67"/>
       <c r="AM21" s="65"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="65"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -6706,7 +6749,7 @@
       <c r="AL22" s="67"/>
       <c r="AM22" s="65"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -6743,7 +6786,7 @@
       <c r="AL23" s="65"/>
       <c r="AM23" s="65"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="B25" s="64" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -6931,104 +6974,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" s="69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="70" t="s">
         <v>210</v>
       </c>
+      <c r="M2" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>197</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>198</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" t="s">
         <v>216</v>
       </c>
-      <c r="N5" t="s">
-        <v>217</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" t="s">
         <v>218</v>
       </c>
-      <c r="N6" t="s">
-        <v>219</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="L8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="L9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="L10">
         <v>7</v>
       </c>
@@ -7040,25 +7083,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7069,24 +7112,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7095,10 +7138,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7107,397 +7150,511 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="82"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="84" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>5</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>39</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="84" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>25</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>25</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="1:8">
+      <c r="A16" s="84"/>
+      <c r="B16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>15</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="84"/>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
+      <c r="B18" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>151</v>
+        <v>260</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="84"/>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
+      <c r="B19" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>31</v>
+        <v>261</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="84" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="84"/>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="84"/>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="A28" s="84"/>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="84"/>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="84"/>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="84"/>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="38" spans="2:4">
+      <c r="B38" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D41" s="72" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="71" t="s">
+    <row r="42" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B42" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C42" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D42" s="75" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A21"/>
+  <mergeCells count="6">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7506,28 +7663,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -7537,14 +7694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -7556,189 +7713,189 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="39">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="44">
         <f>B1*10^3</f>
         <v>1000</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="43">
         <f>D1*10^3</f>
         <v>1000000</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="42">
         <f>D1*10^6</f>
         <v>1000000000</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="45">
         <f>1/B1</f>
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="44">
         <f>B2/10^3</f>
         <v>1E-3</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="43">
         <f>B2/10^6</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="42">
         <f>F2/10^3</f>
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="41">
         <f>(F3*10^6)</f>
         <v>13333333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="40">
         <f>B3/10^3</f>
         <v>13333.333000000001</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="39">
         <f>13333333/1000000</f>
         <v>13.333333</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="37">
         <f>F3/10^3</f>
         <v>1.3333332999999999E-2</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="35">
         <f>1/B3</f>
         <v>7.5000001875000043E-8</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="34">
         <f>B4*10^3</f>
         <v>7.500000187500004E-5</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="33">
         <f>D4*10^3</f>
         <v>7.5000001875000041E-2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="32">
         <f>B4*10^9</f>
         <v>75.000001875000038</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="29">
         <f>(H1/H4)-1</f>
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>DEC2HEX(B6)</f>
@@ -7746,37 +7903,37 @@
       </c>
       <c r="C7" s="68"/>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="D8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -7791,13 +7948,13 @@
         <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -7809,15 +7966,15 @@
         <v>639</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7827,14 +7984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -7843,29 +8000,29 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="46" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>112</v>
       </c>
       <c r="B2" s="47">
         <v>42</v>
@@ -7884,12 +8041,12 @@
         <v>42</v>
       </c>
       <c r="G2" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="46" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>114</v>
       </c>
       <c r="B3" s="50">
         <f>PI()*B2</f>
@@ -7912,19 +8069,19 @@
         <v>131.94689145077132</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="47">
         <v>50</v>
@@ -7942,10 +8099,10 @@
         <v>250</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
@@ -7955,7 +8112,7 @@
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="85"/>
       <c r="B6" s="50">
         <f>B5/60</f>
@@ -7978,7 +8135,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -7989,7 +8146,7 @@
       <c r="O6" s="87"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -8004,9 +8161,9 @@
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="50">
         <f>B3*B6</f>
@@ -8029,7 +8186,7 @@
         <v>549.77871437821386</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="87"/>
       <c r="J8" s="87"/>
@@ -8040,7 +8197,7 @@
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="86"/>
       <c r="B9" s="50">
         <f>B8/10</f>
@@ -8063,7 +8220,7 @@
         <v>54.977871437821385</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="87"/>
       <c r="J9" s="87"/>
@@ -8074,7 +8231,7 @@
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="86"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
@@ -8097,7 +8254,7 @@
         <v>0.54977871437821391</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="87"/>
       <c r="J10" s="87"/>
@@ -8108,7 +8265,7 @@
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="86"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
@@ -8131,7 +8288,7 @@
         <v>1.97920337176157</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
@@ -8142,7 +8299,7 @@
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -8157,9 +8314,9 @@
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="47">
         <v>32</v>
@@ -8177,7 +8334,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
@@ -8188,7 +8345,7 @@
       <c r="O13" s="87"/>
       <c r="P13" s="87"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="85"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
@@ -8211,7 +8368,7 @@
         <v>4.9430863999999998E-2</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
@@ -8222,7 +8379,7 @@
       <c r="O14" s="87"/>
       <c r="P14" s="87"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="85"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
@@ -8245,7 +8402,7 @@
         <v>49.430864</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
@@ -8256,7 +8413,7 @@
       <c r="O15" s="87"/>
       <c r="P15" s="87"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="85"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
@@ -8279,7 +8436,7 @@
         <v>49.430864</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="87"/>
       <c r="J16" s="87"/>
@@ -8290,9 +8447,9 @@
       <c r="O16" s="87"/>
       <c r="P16" s="87"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="50">
         <f>B16/(B2/2)</f>
@@ -8315,7 +8472,7 @@
         <v>2.3538506666666668</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I17" s="87"/>
       <c r="J17" s="87"/>
@@ -8326,7 +8483,7 @@
       <c r="O17" s="87"/>
       <c r="P17" s="87"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="85"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
@@ -8349,7 +8506,7 @@
         <v>0.23994400271831465</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
@@ -8360,49 +8517,49 @@
       <c r="O18" s="87"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="55" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="57" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -8423,14 +8580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -8498,7 +8655,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -8537,21 +8694,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20">
@@ -8561,34 +8718,34 @@
         <v>0</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="48" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20">
@@ -8598,7 +8755,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20">
@@ -8611,25 +8768,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -8638,18 +8795,18 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="48" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="20">
@@ -8662,19 +8819,19 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="F6" s="20"/>
       <c r="H6" s="20"/>
@@ -8684,21 +8841,21 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
       <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24">
@@ -8708,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="24">
         <v>5</v>
@@ -8719,21 +8876,21 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -8801,7 +8958,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8887,10 +9044,10 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -8980,7 +9137,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -9070,7 +9227,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -9194,7 +9351,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9320,7 +9477,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -9438,7 +9595,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -9552,7 +9709,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -9664,7 +9821,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -9778,7 +9935,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -9890,7 +10047,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -10004,7 +10161,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -10164,7 +10321,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -10330,7 +10487,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -10494,7 +10651,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -10648,7 +10805,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -10802,7 +10959,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -10966,7 +11123,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -11134,7 +11291,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -11304,7 +11461,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -11456,7 +11613,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -11586,7 +11743,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -11702,7 +11859,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -11826,7 +11983,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -11950,7 +12107,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12072,7 +12229,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12192,7 +12349,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12310,7 +12467,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12424,7 +12581,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -12538,7 +12695,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12648,7 +12805,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12758,7 +12915,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12868,7 +13025,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12978,7 +13135,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13088,7 +13245,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -13200,7 +13357,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -13314,7 +13471,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -13424,7 +13581,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13534,7 +13691,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13638,10 +13795,10 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13739,7 +13896,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13825,10 +13982,10 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13914,10 +14071,10 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -14003,10 +14160,10 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14092,7 +14249,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -14178,7 +14335,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -14264,7 +14421,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -14350,7 +14507,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -14436,7 +14593,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -14774,7 +14931,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -15112,7 +15269,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -15450,7 +15607,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -15788,7 +15945,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -16126,7 +16283,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -16476,14 +16633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -16552,7 +16709,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -16638,7 +16795,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -16725,7 +16882,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -16899,7 +17056,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -17129,7 +17286,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -17331,7 +17488,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -17533,7 +17690,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -17747,7 +17904,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -17963,7 +18120,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -18175,7 +18332,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -18387,7 +18544,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -18613,7 +18770,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -18787,7 +18944,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -18973,7 +19130,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -19171,7 +19328,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -19365,7 +19522,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -19551,7 +19708,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -19743,7 +19900,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -19937,7 +20094,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -20131,7 +20288,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -20313,7 +20470,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -20495,7 +20652,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -20689,7 +20846,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -20877,7 +21034,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -21071,7 +21228,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -21253,7 +21410,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -21298,7 +21455,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -21437,7 +21594,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -21663,7 +21820,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -21845,7 +22002,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -22027,7 +22184,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -22227,7 +22384,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -22445,7 +22602,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -22633,7 +22790,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -22825,7 +22982,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -23017,7 +23174,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -23207,7 +23364,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -23397,7 +23554,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -23589,7 +23746,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -23781,7 +23938,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -23973,7 +24130,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -24075,7 +24232,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW39" s="10"/>
       <c r="CX39" s="11"/>
@@ -24166,7 +24323,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -24390,7 +24547,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -24490,7 +24647,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CW41" s="10"/>
       <c r="CX41" s="11"/>
@@ -24585,7 +24742,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -24719,7 +24876,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CW42" s="10"/>
       <c r="CX42" s="11"/>
@@ -24818,7 +24975,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24938,7 +25095,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CW43" s="10"/>
       <c r="CX43" s="11"/>
@@ -25041,7 +25198,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -25243,7 +25400,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -25525,7 +25682,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -25703,7 +25860,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -25905,7 +26062,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -26077,7 +26234,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -26415,7 +26572,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -26753,7 +26910,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -27091,7 +27248,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -27429,7 +27586,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -27767,7 +27924,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="242">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -905,42 +905,6 @@
     <t>50 ms timer</t>
   </si>
   <si>
-    <t>Motor Driver</t>
-  </si>
-  <si>
-    <t>uController</t>
-  </si>
-  <si>
-    <t>AIN1</t>
-  </si>
-  <si>
-    <t>AIN2</t>
-  </si>
-  <si>
-    <t>BIN1</t>
-  </si>
-  <si>
-    <t>BIN2</t>
-  </si>
-  <si>
-    <t>PF2</t>
-  </si>
-  <si>
-    <t>PF3</t>
-  </si>
-  <si>
-    <t>Forward, right motor</t>
-  </si>
-  <si>
-    <t>Forward, left motor</t>
-  </si>
-  <si>
-    <t>Backward, right motor</t>
-  </si>
-  <si>
-    <t>Backward, left motor</t>
-  </si>
-  <si>
     <t>System config, study how to obtain more clock speeds</t>
   </si>
   <si>
@@ -1041,6 +1005,21 @@
   </si>
   <si>
     <t>Toggle PF2 and PF3 with PWM on / off, commanded by 2nd uC through CAN</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Ain1</t>
+  </si>
+  <si>
+    <t>Bin1</t>
+  </si>
+  <si>
+    <t>Ain2</t>
+  </si>
+  <si>
+    <t>Bin2</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1510,126 +1489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1647,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1751,19 +1610,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,61 +2226,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6429375" y="4953000"/>
-          <a:ext cx="3295650" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5047,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,27 +5100,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,7 +5129,7 @@
         <v>177</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,7 +5138,7 @@
         <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,7 +5147,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,7 +5156,7 @@
         <v>177</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,7 +5182,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>164</v>
@@ -5397,29 +5193,29 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>164</v>
@@ -5443,18 +5239,18 @@
         <v>164</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,7 +5267,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>174</v>
@@ -5486,7 +5282,7 @@
         <v>174</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7041,10 +6837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7071,18 +6867,18 @@
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>170</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7091,24 +6887,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="79"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -7121,16 +6917,16 @@
       <c r="E4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -7143,7 +6939,7 @@
       <c r="E5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="71" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="46" t="s">
@@ -7152,21 +6948,21 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="72" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -7179,16 +6975,16 @@
       <c r="E7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="71" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
@@ -7196,12 +6992,12 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="71" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="46" t="s">
@@ -7210,7 +7006,7 @@
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -7218,12 +7014,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="71" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="46" t="s">
@@ -7232,7 +7028,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="76" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7247,14 +7043,14 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="71" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -7267,14 +7063,14 @@
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="71" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7289,14 +7085,16 @@
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -7309,14 +7107,16 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7331,14 +7131,14 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="71" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7351,14 +7151,14 @@
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="71" t="s">
         <v>151</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -7371,14 +7171,16 @@
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -7391,14 +7193,16 @@
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7215,7 @@
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1"/>
@@ -7434,62 +7238,6 @@
       </c>
       <c r="D24" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7923,7 +7671,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="77" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="47">
@@ -7944,19 +7692,19 @@
       <c r="G5" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="I5" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -7980,14 +7728,14 @@
       <c r="G6" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
@@ -7995,17 +7743,17 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="78" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="50">
@@ -8031,17 +7779,17 @@
       <c r="G8" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -8065,17 +7813,17 @@
       <c r="G9" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -8099,17 +7847,17 @@
       <c r="G10" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -8133,14 +7881,14 @@
       <c r="G11" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
@@ -8148,17 +7896,17 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="77" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="47">
@@ -8179,17 +7927,17 @@
       <c r="G13" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -8213,17 +7961,17 @@
       <c r="G14" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -8247,17 +7995,17 @@
       <c r="G15" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -8281,17 +8029,17 @@
       <c r="G16" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="77" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="50">
@@ -8317,17 +8065,17 @@
       <c r="G17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -8351,14 +8099,14 @@
       <c r="G18" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="242">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -905,12 +905,6 @@
     <t>50 ms timer</t>
   </si>
   <si>
-    <t>Motor Driver</t>
-  </si>
-  <si>
-    <t>uController</t>
-  </si>
-  <si>
     <t>AIN1</t>
   </si>
   <si>
@@ -921,24 +915,6 @@
   </si>
   <si>
     <t>BIN2</t>
-  </si>
-  <si>
-    <t>PF2</t>
-  </si>
-  <si>
-    <t>PF3</t>
-  </si>
-  <si>
-    <t>Forward, right motor</t>
-  </si>
-  <si>
-    <t>Forward, left motor</t>
-  </si>
-  <si>
-    <t>Backward, right motor</t>
-  </si>
-  <si>
-    <t>Backward, left motor</t>
   </si>
   <si>
     <t>System config, study how to obtain more clock speeds</t>
@@ -1041,6 +1017,9 @@
   </si>
   <si>
     <t>Toggle PF2 and PF3 with PWM on / off, commanded by 2nd uC through CAN</t>
+  </si>
+  <si>
+    <t>GPIO</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1510,126 +1489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1647,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1751,19 +1610,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,61 +2226,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6429375" y="4953000"/>
-          <a:ext cx="3295650" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5047,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5304,27 +5100,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,7 +5129,7 @@
         <v>177</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,7 +5138,7 @@
         <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,7 +5147,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,7 +5156,7 @@
         <v>177</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,7 +5182,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>164</v>
@@ -5397,29 +5193,29 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>164</v>
@@ -5443,18 +5239,18 @@
         <v>164</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,7 +5267,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>174</v>
@@ -5486,7 +5282,7 @@
         <v>174</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7041,10 +6837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7071,18 +6867,18 @@
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>170</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7091,24 +6887,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="79"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -7121,16 +6917,16 @@
       <c r="E4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="71" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -7143,7 +6939,7 @@
       <c r="E5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="71" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="46" t="s">
@@ -7152,21 +6948,21 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="72" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -7179,16 +6975,16 @@
       <c r="E7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="71" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
@@ -7196,12 +6992,12 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="71" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="46" t="s">
@@ -7210,7 +7006,7 @@
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -7218,12 +7014,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="71" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="46" t="s">
@@ -7232,7 +7028,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="76" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7247,14 +7043,14 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="71" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -7267,14 +7063,14 @@
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="71" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7289,14 +7085,16 @@
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -7309,14 +7107,16 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7331,14 +7131,14 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="71" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7351,14 +7151,14 @@
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="71" t="s">
         <v>151</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -7371,14 +7171,16 @@
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -7391,14 +7193,16 @@
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7215,7 @@
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1"/>
@@ -7434,62 +7238,6 @@
       </c>
       <c r="D24" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7923,7 +7671,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="77" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="47">
@@ -7944,19 +7692,19 @@
       <c r="G5" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="I5" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -7980,14 +7728,14 @@
       <c r="G6" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
@@ -7995,17 +7743,17 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="78" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="50">
@@ -8031,17 +7779,17 @@
       <c r="G8" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -8065,17 +7813,17 @@
       <c r="G9" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -8099,17 +7847,17 @@
       <c r="G10" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -8133,14 +7881,14 @@
       <c r="G11" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
@@ -8148,17 +7896,17 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="77" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="47">
@@ -8179,17 +7927,17 @@
       <c r="G13" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -8213,17 +7961,17 @@
       <c r="G14" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -8247,17 +7995,17 @@
       <c r="G15" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -8281,17 +8029,17 @@
       <c r="G16" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="77" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="50">
@@ -8317,17 +8065,17 @@
       <c r="G17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -8351,14 +8099,14 @@
       <c r="G18" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="244">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1020,6 +1020,12 @@
   </si>
   <si>
     <t>Bin2</t>
+  </si>
+  <si>
+    <t>Alternative motors</t>
+  </si>
+  <si>
+    <t>maxon dc motor</t>
   </si>
 </sst>
 </file>
@@ -6839,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -7578,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,6 +7616,9 @@
       <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -7633,6 +7642,9 @@
       </c>
       <c r="G2" s="46" t="s">
         <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Level Interrupt</t>
   </si>
   <si>
     <t>PF2 ( Blue LED)</t>
@@ -905,6 +902,18 @@
     <t>50 ms timer</t>
   </si>
   <si>
+    <t>AIN1</t>
+  </si>
+  <si>
+    <t>AIN2</t>
+  </si>
+  <si>
+    <t>BIN1</t>
+  </si>
+  <si>
+    <t>BIN2</t>
+  </si>
+  <si>
     <t>System config, study how to obtain more clock speeds</t>
   </si>
   <si>
@@ -1010,22 +1019,28 @@
     <t>GPIO</t>
   </si>
   <si>
-    <t>Ain1</t>
+    <t>Eliminate</t>
   </si>
   <si>
-    <t>Bin1</t>
+    <t>Create Analog Comparator Input function for controling movement</t>
   </si>
   <si>
-    <t>Ain2</t>
+    <t>GPIO - Level Interrupt</t>
   </si>
   <si>
-    <t>Bin2</t>
+    <t>PC4</t>
   </si>
   <si>
-    <t>Alternative motors</t>
+    <t>PC5</t>
   </si>
   <si>
-    <t>maxon dc motor</t>
+    <t>Analog Comparator 1-</t>
+  </si>
+  <si>
+    <t>Analog Comparator 1+</t>
+  </si>
+  <si>
+    <t>Photocell input</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,8 +1365,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1507,12 +1528,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1633,6 +1663,15 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2200,16 +2239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>194981</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233081</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445080</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>483180</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>39158</xdr:rowOff>
+      <xdr:rowOff>96308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2226,7 +2265,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12910856" y="0"/>
+          <a:off x="14168156" y="57150"/>
           <a:ext cx="5736499" cy="4801658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4847,10 +4886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4881,10 +4920,10 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4893,418 +4932,431 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>224</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
+      <c r="B31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>165</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
-      <c r="B33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
-        <v>225</v>
-      </c>
+      <c r="A34" s="62"/>
       <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
-        <v>225</v>
-      </c>
+      <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>231</v>
+        <v>163</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>178</v>
+        <v>163</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="62" t="s">
+        <v>228</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="62" t="s">
+        <v>228</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>229</v>
+        <v>163</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>164</v>
+      <c r="A40" s="62"/>
+      <c r="B40" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
-        <v>225</v>
-      </c>
+      <c r="A43" s="62"/>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
-      <c r="B44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="46" t="s">
         <v>174</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
+      <c r="B46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="62"/>
+      <c r="B47" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
@@ -5338,6 +5390,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6748,35 +6806,35 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="N2" s="70" t="s">
         <v>212</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6784,24 +6842,24 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" t="s">
         <v>216</v>
-      </c>
-      <c r="N5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6809,10 +6867,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" t="s">
         <v>218</v>
-      </c>
-      <c r="N6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6843,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,24 +6929,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6900,7 +6958,7 @@
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6912,57 +6970,57 @@
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6970,224 +7028,216 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>34</v>
+      <c r="A11" s="81" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>5</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -7197,61 +7247,103 @@
         <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F21" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D26" t="s">
         <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7271,17 +7363,17 @@
   <sheetData>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -7312,158 +7404,158 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="39">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="44">
         <f>B1*10^3</f>
         <v>1000</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="43">
         <f>D1*10^3</f>
         <v>1000000</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="42">
         <f>D1*10^6</f>
         <v>1000000000</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="45">
         <f>1/B1</f>
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="44">
         <f>B2/10^3</f>
         <v>1E-3</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="43">
         <f>B2/10^6</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="42">
         <f>F2/10^3</f>
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="41">
         <f>(F3*10^6)</f>
         <v>13333333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="40">
         <f>B3/10^3</f>
         <v>13333.333000000001</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="39">
         <f>13333333/1000000</f>
         <v>13.333333</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="37">
         <f>F3/10^3</f>
         <v>1.3333332999999999E-2</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="35">
         <f>1/B3</f>
         <v>7.5000001875000043E-8</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="34">
         <f>B4*10^3</f>
         <v>7.500000187500004E-5</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="33">
         <f>D4*10^3</f>
         <v>7.5000001875000041E-2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="32">
         <f>B4*10^9</f>
         <v>75.000001875000038</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -7476,14 +7568,14 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="29">
         <f>(H1/H4)-1</f>
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
@@ -7492,7 +7584,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>DEC2HEX(B6)</f>
@@ -7500,7 +7592,7 @@
       </c>
       <c r="C7" s="68"/>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -7509,7 +7601,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>16000</v>
@@ -7517,17 +7609,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7545,10 +7637,10 @@
         <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7563,15 +7655,15 @@
         <v>639</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7584,8 +7676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,30 +7691,27 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="47">
         <v>42</v>
@@ -7641,15 +7730,12 @@
         <v>42</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="50">
         <f>PI()*B2</f>
@@ -7672,7 +7758,7 @@
         <v>131.94689145077132</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -7684,7 +7770,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="47">
         <v>50</v>
@@ -7702,10 +7788,10 @@
         <v>250</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J5" s="79"/>
       <c r="K5" s="79"/>
@@ -7738,7 +7824,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="79"/>
       <c r="J6" s="79"/>
@@ -7766,7 +7852,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="50">
         <f>B3*B6</f>
@@ -7789,7 +7875,7 @@
         <v>549.77871437821386</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
@@ -7823,7 +7909,7 @@
         <v>54.977871437821385</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
@@ -7857,7 +7943,7 @@
         <v>0.54977871437821391</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
@@ -7891,7 +7977,7 @@
         <v>1.97920337176157</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="79"/>
       <c r="J11" s="79"/>
@@ -7919,7 +8005,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="47">
         <v>32</v>
@@ -7937,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
@@ -7971,7 +8057,7 @@
         <v>4.9430863999999998E-2</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -8005,7 +8091,7 @@
         <v>49.430864</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
@@ -8039,7 +8125,7 @@
         <v>49.430864</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
@@ -8052,7 +8138,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="50">
         <f>B16/(B2/2)</f>
@@ -8075,7 +8161,7 @@
         <v>2.3538506666666668</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
@@ -8109,7 +8195,7 @@
         <v>0.23994400271831465</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
@@ -8122,47 +8208,47 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -8302,16 +8388,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20">
@@ -8321,17 +8407,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -8339,16 +8425,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20">
@@ -8358,7 +8444,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20">
@@ -8376,20 +8462,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -8403,13 +8489,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="20">
@@ -8425,16 +8511,16 @@
     <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="F6" s="20"/>
       <c r="H6" s="20"/>
@@ -8449,16 +8535,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24">
@@ -8468,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="24">
         <v>5</v>
@@ -8647,7 +8733,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13398,7 +13484,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13585,7 +13671,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13674,7 +13760,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13763,7 +13849,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16398,7 +16484,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -21058,7 +21144,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -23835,7 +23921,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW39" s="10"/>
       <c r="CX39" s="11"/>
@@ -24250,7 +24336,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CW41" s="10"/>
       <c r="CX41" s="11"/>
@@ -24479,7 +24565,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CW42" s="10"/>
       <c r="CX42" s="11"/>
@@ -24698,7 +24784,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CW43" s="10"/>
       <c r="CX43" s="11"/>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="250">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1042,6 +1042,9 @@
   <si>
     <t>Photocell input</t>
   </si>
+  <si>
+    <t>Do not use</t>
+  </si>
 </sst>
 </file>
 
@@ -1050,7 +1053,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,6 +1234,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -1372,7 +1382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1528,21 +1538,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1651,6 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,15 +1665,15 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4985,7 +4987,7 @@
       <c r="C8" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="76" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5284,7 +5286,7 @@
       <c r="B39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="76" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6901,10 +6903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="B11" sqref="B11:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,7 +6944,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6956,7 +6958,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -6968,7 +6970,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
@@ -6990,7 +6992,7 @@
       <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -7012,7 +7014,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
@@ -7026,7 +7028,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -7048,7 +7050,7 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
@@ -7070,7 +7072,7 @@
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
@@ -7092,217 +7094,175 @@
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>248</v>
-      </c>
+      <c r="A12" s="77"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
       <c r="H12" s="83"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E18" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F18" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
+      <c r="A21" s="77"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="71" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -7311,39 +7271,124 @@
         <v>243</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="77"/>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7769,7 +7814,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="47">
@@ -7790,19 +7835,19 @@
       <c r="G5" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -7826,14 +7871,14 @@
       <c r="G6" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
@@ -7841,17 +7886,17 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="50">
@@ -7877,17 +7922,17 @@
       <c r="G8" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -7911,17 +7956,17 @@
       <c r="G9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -7945,17 +7990,17 @@
       <c r="G10" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -7979,14 +8024,14 @@
       <c r="G11" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
@@ -7994,17 +8039,17 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="47">
@@ -8025,17 +8070,17 @@
       <c r="G13" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -8059,17 +8104,17 @@
       <c r="G14" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -8093,17 +8138,17 @@
       <c r="G15" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -8127,17 +8172,17 @@
       <c r="G16" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="78" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="50">
@@ -8163,17 +8208,17 @@
       <c r="G17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -8197,14 +8242,14 @@
       <c r="G18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -10,20 +10,34 @@
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
     <sheet name="Sys setup" sheetId="13" r:id="rId2"/>
     <sheet name="Pin Layout" sheetId="1" r:id="rId3"/>
-    <sheet name="SW layout" sheetId="11" r:id="rId4"/>
-    <sheet name="Timer Reload Value" sheetId="8" r:id="rId5"/>
-    <sheet name="Motor calc" sheetId="9" r:id="rId6"/>
-    <sheet name="LCD text test" sheetId="7" r:id="rId7"/>
-    <sheet name="Images Hex Gen" sheetId="5" r:id="rId8"/>
-    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId9"/>
-    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId10"/>
+    <sheet name="Light sensor #1" sheetId="15" r:id="rId4"/>
+    <sheet name="Light sensor #2" sheetId="16" r:id="rId5"/>
+    <sheet name="SW layout" sheetId="11" r:id="rId6"/>
+    <sheet name="Timer Reload Value" sheetId="8" r:id="rId7"/>
+    <sheet name="Motor calc" sheetId="9" r:id="rId8"/>
+    <sheet name="LCD text test" sheetId="7" r:id="rId9"/>
+    <sheet name="Images Hex Gen" sheetId="5" r:id="rId10"/>
+    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId11"/>
+    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="R_1" localSheetId="4">'Light sensor #2'!$D$1</definedName>
+    <definedName name="R_1">'Light sensor #1'!$D$1</definedName>
+    <definedName name="R_2" localSheetId="4">'Light sensor #2'!$D$2</definedName>
+    <definedName name="R_2">'Light sensor #1'!$D$2</definedName>
+    <definedName name="R_3" localSheetId="4">'Light sensor #2'!$D$3</definedName>
+    <definedName name="R_3">'Light sensor #1'!$D$3</definedName>
+    <definedName name="R_4" localSheetId="4">'Light sensor #2'!$D$4</definedName>
+    <definedName name="R_4">'Light sensor #1'!$D$4</definedName>
+    <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
+    <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1045,6 +1059,189 @@
   <si>
     <t>Do not use</t>
   </si>
+  <si>
+    <t>kΩ</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <t>Photo resistor</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>50 Lux</t>
+  </si>
+  <si>
+    <t>1 Lux</t>
+  </si>
+  <si>
+    <t>Small room light</t>
+  </si>
+  <si>
+    <t>Dark day</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Light intensity</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>Twighlight</t>
+  </si>
+  <si>
+    <t>Very dark day</t>
+  </si>
+  <si>
+    <t>Overcast day</t>
+  </si>
+  <si>
+    <t>Full daylight</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Current photoresistor: A906012</t>
+  </si>
+  <si>
+    <t>Alternative photoresistor: VT93N2</t>
+  </si>
+  <si>
+    <t>A906012</t>
+  </si>
+  <si>
+    <t>VT93N2</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>~= 2fc</t>
+  </si>
+  <si>
+    <t>Output voltage</t>
+  </si>
+  <si>
+    <t>Reliable data</t>
+  </si>
+  <si>
+    <t>Need measured data</t>
+  </si>
+  <si>
+    <t>Pot min</t>
+  </si>
+  <si>
+    <t>Pot max</t>
+  </si>
+  <si>
+    <t>Output voltage VT93N2</t>
+  </si>
+  <si>
+    <t>Pot minimum</t>
+  </si>
+  <si>
+    <t>Pot maximum</t>
+  </si>
+  <si>
+    <r>
+      <t>0 -&gt; 10 k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0 -&gt; 20 k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>Output voltage A906012</t>
+  </si>
+  <si>
+    <t>Recomended</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,7 +1250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,8 +1438,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,8 +1607,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1538,12 +1776,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1653,6 +1961,18 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,14 +1985,89 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2281,6 +2676,1857 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263584</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>129777</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54349</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="Group 30"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12657290" y="876033"/>
+          <a:ext cx="5312252" cy="2865051"/>
+          <a:chOff x="3113768" y="212084"/>
+          <a:chExt cx="4456715" cy="2874016"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="Group 1"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3113768" y="212084"/>
+            <a:ext cx="4456715" cy="2874016"/>
+            <a:chOff x="4486275" y="729155"/>
+            <a:chExt cx="4456715" cy="2797816"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Oval 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4486275" y="1762125"/>
+              <a:ext cx="923925" cy="847725"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>+</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>-</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="Straight Connector 3"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="3" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4948238" y="733425"/>
+              <a:ext cx="4762" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="Straight Connector 4"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4941342" y="729155"/>
+              <a:ext cx="2813978" cy="19707"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="Straight Connector 5"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="3" idx="4"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4947557" y="2609850"/>
+              <a:ext cx="681" cy="917121"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="Straight Connector 6"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4958443" y="3488119"/>
+              <a:ext cx="2836291" cy="27967"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="Group 7"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6653614" y="742293"/>
+              <a:ext cx="2274924" cy="1402386"/>
+              <a:chOff x="6666752" y="742293"/>
+              <a:chExt cx="2280179" cy="1402386"/>
+            </a:xfrm>
+            <a:grpFill/>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="20" name="Straight Connector 19"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="21" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="7454121" y="742293"/>
+                <a:ext cx="330104" cy="418033"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="Rectangle 20"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18774626">
+                <a:off x="6816929" y="1252655"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="1050"/>
+                  <a:t>Photo Resistor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1050"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="22" name="Straight Connector 21"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="23" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7777655" y="742293"/>
+                <a:ext cx="367385" cy="383157"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="23" name="Rectangle 22"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2867613">
+                <a:off x="7974381" y="1221124"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="800"/>
+                  <a:t>Potentiometer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="24" name="Straight Connector 23"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="21" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="6666752" y="1749725"/>
+                <a:ext cx="317715" cy="394954"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="25" name="Straight Connector 24"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="23" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8608450" y="1721538"/>
+                <a:ext cx="338481" cy="380531"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="Group 8"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm rot="10800000">
+              <a:off x="6668066" y="2096817"/>
+              <a:ext cx="2274924" cy="1402385"/>
+              <a:chOff x="6666752" y="742291"/>
+              <a:chExt cx="2280179" cy="1402385"/>
+            </a:xfrm>
+            <a:grpFill/>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="14" name="Straight Connector 13"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="15" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="7440787" y="742291"/>
+                <a:ext cx="343439" cy="404306"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Rectangle 14"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="7797357">
+                <a:off x="6816928" y="1252655"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>R4</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="16" name="Straight Connector 15"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="17" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipH="1" flipV="1">
+                <a:off x="7777653" y="742291"/>
+                <a:ext cx="362424" cy="388517"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="Rectangle 16"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="13600202">
+                <a:off x="7974381" y="1221124"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>R2</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="18" name="Straight Connector 17"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="15" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="6666752" y="1763453"/>
+                <a:ext cx="331047" cy="381223"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="19" name="Straight Connector 18"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="17" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipH="1" flipV="1">
+                <a:off x="8613416" y="1716179"/>
+                <a:ext cx="333515" cy="385890"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="10" name="Straight Connector 9"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6672942" y="2133600"/>
+              <a:ext cx="691244" cy="1"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:tailEnd type="oval"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="Straight Connector 10"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8360229" y="2100943"/>
+              <a:ext cx="582386" cy="10886"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:tailEnd type="oval"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4554675" y="2024686"/>
+              <a:ext cx="376898" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400"/>
+                <a:t>V</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                <a:t>in</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7641771" y="1981201"/>
+              <a:ext cx="535724" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400"/>
+                <a:t>Vout</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" baseline="-25000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="Group 29"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5194514" y="317500"/>
+            <a:ext cx="596900" cy="609600"/>
+            <a:chOff x="4896064" y="298450"/>
+            <a:chExt cx="596900" cy="609600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4896064" y="641350"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5023064" y="463550"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5150064" y="298450"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>430493</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>634932</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="430493" y="2909049"/>
+          <a:ext cx="5303115" cy="2048163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115483</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5927912" y="2454088"/>
+          <a:ext cx="5371042" cy="2975106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59018</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>716174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3716618" y="2767295"/>
+          <a:ext cx="5333931" cy="2048163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>543763</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26634</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Group 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13677900" y="2695575"/>
+          <a:ext cx="2896438" cy="2931759"/>
+          <a:chOff x="11405494" y="2126015"/>
+          <a:chExt cx="2896438" cy="2931759"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="58" name="Group 57"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11405494" y="2228850"/>
+            <a:ext cx="2896438" cy="2828924"/>
+            <a:chOff x="6278562" y="728322"/>
+            <a:chExt cx="2411564" cy="2762537"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="Oval 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6278562" y="1762125"/>
+              <a:ext cx="923925" cy="847725"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>+</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>-</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="64" name="Straight Connector 63"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="63" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="6740529" y="733425"/>
+              <a:ext cx="4762" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="65" name="Straight Connector 64"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="6743073" y="729155"/>
+              <a:ext cx="1012247" cy="8468"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="66" name="Straight Connector 65"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="63" idx="4"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740524" y="2609851"/>
+              <a:ext cx="10479" cy="862406"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="67" name="Straight Connector 66"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="6751003" y="3472257"/>
+              <a:ext cx="983381" cy="9301"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="68" name="Group 67"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7559116" y="728322"/>
+              <a:ext cx="403807" cy="1144389"/>
+              <a:chOff x="7574348" y="728322"/>
+              <a:chExt cx="404740" cy="1144389"/>
+            </a:xfrm>
+            <a:grpFill/>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="77" name="Straight Connector 76"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="78" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7781816" y="728322"/>
+                <a:ext cx="292" cy="339709"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="78" name="Rectangle 77"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16253888">
+                <a:off x="7374353" y="1267976"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="1050"/>
+                  <a:t>Photo Resistor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1050"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="69" name="Group 68"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm rot="10800000">
+              <a:off x="7550520" y="1872661"/>
+              <a:ext cx="403807" cy="1618198"/>
+              <a:chOff x="7657704" y="750634"/>
+              <a:chExt cx="404740" cy="1618198"/>
+            </a:xfrm>
+            <a:grpFill/>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="74" name="Straight Connector 73"/>
+              <xdr:cNvCxnSpPr>
+                <a:endCxn id="75" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="7860775" y="750634"/>
+                <a:ext cx="1483" cy="344913"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="75" name="Rectangle 74"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16207008">
+                <a:off x="7457709" y="1295541"/>
+                <a:ext cx="804730" cy="404740"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="1100"/>
+                  <a:t>Potentiometer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="76" name="Straight Connector 75"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="75" idx="1"/>
+                <a:endCxn id="78" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="7856848" y="1900275"/>
+                <a:ext cx="2525" cy="468557"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:grpFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="Straight Connector 69"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="7759418" y="2124299"/>
+              <a:ext cx="691244" cy="1"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:tailEnd type="oval"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="71" name="Straight Connector 70"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7750244" y="3462955"/>
+              <a:ext cx="689952" cy="18604"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:tailEnd type="oval"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="TextBox 71"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6318071" y="2044930"/>
+              <a:ext cx="376898" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400"/>
+                <a:t>V</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                <a:t>in</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="TextBox 72"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8154402" y="2692490"/>
+              <a:ext cx="535724" cy="311496"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400"/>
+                <a:t>Vout</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" baseline="-25000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="Group 58"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="6611840">
+            <a:off x="13323234" y="2182391"/>
+            <a:ext cx="720449" cy="607698"/>
+            <a:chOff x="4896064" y="298450"/>
+            <a:chExt cx="596900" cy="609600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4896064" y="641350"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5023064" y="463550"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5150064" y="298450"/>
+              <a:ext cx="342900" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193419</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="2390775"/>
+          <a:ext cx="2908044" cy="3048264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208971</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="4886325"/>
+          <a:ext cx="4628571" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5407,3217 +7653,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AY48" sqref="AY48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
-    <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="63"/>
-    <col min="9" max="9" width="3.28515625" style="63" customWidth="1"/>
-    <col min="10" max="15" width="3.7109375" style="63" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="63"/>
-    <col min="17" max="23" width="4" style="63" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="63"/>
-    <col min="25" max="31" width="3.42578125" style="63" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="63"/>
-    <col min="33" max="39" width="3.42578125" style="63" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="63"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67">
-        <v>1</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67">
-        <v>1</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
-        <v>1</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67">
-        <v>1</v>
-      </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="66"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="66"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="67">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67">
-        <v>1</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67">
-        <v>1</v>
-      </c>
-      <c r="L3" s="67">
-        <v>1</v>
-      </c>
-      <c r="M3" s="67">
-        <v>1</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="66"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67">
-        <v>1</v>
-      </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="66"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="66"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="66"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67">
-        <v>1</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67">
-        <v>1</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="66"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67">
-        <v>1</v>
-      </c>
-      <c r="L4" s="67">
-        <v>1</v>
-      </c>
-      <c r="M4" s="67">
-        <v>1</v>
-      </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="66"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67">
-        <v>1</v>
-      </c>
-      <c r="T4" s="67">
-        <v>1</v>
-      </c>
-      <c r="U4" s="67">
-        <v>1</v>
-      </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="66"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="66"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="66"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67">
-        <v>1</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67">
-        <v>1</v>
-      </c>
-      <c r="L5" s="67">
-        <v>1</v>
-      </c>
-      <c r="M5" s="67">
-        <v>1</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67">
-        <v>1</v>
-      </c>
-      <c r="T5" s="67">
-        <v>1</v>
-      </c>
-      <c r="U5" s="67">
-        <v>1</v>
-      </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="66"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="66"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="66"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67">
-        <v>1</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67">
-        <v>1</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="67">
-        <v>1</v>
-      </c>
-      <c r="K6" s="67">
-        <v>1</v>
-      </c>
-      <c r="L6" s="67">
-        <v>1</v>
-      </c>
-      <c r="M6" s="67">
-        <v>1</v>
-      </c>
-      <c r="N6" s="67">
-        <v>1</v>
-      </c>
-      <c r="O6" s="66"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67">
-        <v>1</v>
-      </c>
-      <c r="T6" s="67">
-        <v>1</v>
-      </c>
-      <c r="U6" s="67">
-        <v>1</v>
-      </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="66"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="66"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="66"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67">
-        <v>1</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
-        <v>1</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
-        <v>1</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="67">
-        <v>1</v>
-      </c>
-      <c r="K7" s="67">
-        <v>1</v>
-      </c>
-      <c r="L7" s="67">
-        <v>1</v>
-      </c>
-      <c r="M7" s="67">
-        <v>1</v>
-      </c>
-      <c r="N7" s="67">
-        <v>1</v>
-      </c>
-      <c r="O7" s="66"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67">
-        <v>1</v>
-      </c>
-      <c r="T7" s="67">
-        <v>1</v>
-      </c>
-      <c r="U7" s="67">
-        <v>1</v>
-      </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="66"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="66"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="66"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67">
-        <v>1</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
-        <v>1</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="67">
-        <v>1</v>
-      </c>
-      <c r="K8" s="67">
-        <v>1</v>
-      </c>
-      <c r="L8" s="67">
-        <v>1</v>
-      </c>
-      <c r="M8" s="67">
-        <v>1</v>
-      </c>
-      <c r="N8" s="67">
-        <v>1</v>
-      </c>
-      <c r="O8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67">
-        <v>1</v>
-      </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="65"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67">
-        <v>1</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67">
-        <v>1</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67">
-        <v>1</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67">
-        <v>1</v>
-      </c>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67">
-        <v>1</v>
-      </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67">
-        <v>1</v>
-      </c>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="65"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="str">
-        <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
-        <v>AA</v>
-      </c>
-      <c r="C12" s="64" t="str">
-        <f>DEC2HEX(128*(C9&gt;0)+64*(C8&gt;0)+32*(C7&gt;0)+16*(C6&gt;0)+8*(C5&gt;0)+4*(C4&gt;0)+2*(C3&gt;0)+1*(C2&gt;0),2)</f>
-        <v>55</v>
-      </c>
-      <c r="D12" s="64" t="str">
-        <f>DEC2HEX(128*(D9&gt;0)+64*(D8&gt;0)+32*(D7&gt;0)+16*(D6&gt;0)+8*(D5&gt;0)+4*(D4&gt;0)+2*(D3&gt;0)+1*(D2&gt;0),2)</f>
-        <v>AA</v>
-      </c>
-      <c r="E12" s="64" t="str">
-        <f>DEC2HEX(128*(E9&gt;0)+64*(E8&gt;0)+32*(E7&gt;0)+16*(E6&gt;0)+8*(E5&gt;0)+4*(E4&gt;0)+2*(E3&gt;0)+1*(E2&gt;0),2)</f>
-        <v>55</v>
-      </c>
-      <c r="F12" s="64" t="str">
-        <f>DEC2HEX(128*(F9&gt;0)+64*(F8&gt;0)+32*(F7&gt;0)+16*(F6&gt;0)+8*(F5&gt;0)+4*(F4&gt;0)+2*(F3&gt;0)+1*(F2&gt;0),2)</f>
-        <v>AA</v>
-      </c>
-      <c r="J12" s="64" t="str">
-        <f>DEC2HEX(128*(J9&gt;0)+64*(J8&gt;0)+32*(J7&gt;0)+16*(J6&gt;0)+8*(J5&gt;0)+4*(J4&gt;0)+2*(J3&gt;0)+1*(J2&gt;0),2)</f>
-        <v>70</v>
-      </c>
-      <c r="K12" s="64" t="str">
-        <f>DEC2HEX(128*(K9&gt;0)+64*(K8&gt;0)+32*(K7&gt;0)+16*(K6&gt;0)+8*(K5&gt;0)+4*(K4&gt;0)+2*(K3&gt;0)+1*(K2&gt;0),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="L12" s="64" t="str">
-        <f>DEC2HEX(128*(L9&gt;0)+64*(L8&gt;0)+32*(L7&gt;0)+16*(L6&gt;0)+8*(L5&gt;0)+4*(L4&gt;0)+2*(L3&gt;0)+1*(L2&gt;0),2)</f>
-        <v>7F</v>
-      </c>
-      <c r="M12" s="64" t="str">
-        <f>DEC2HEX(128*(M9&gt;0)+64*(M8&gt;0)+32*(M7&gt;0)+16*(M6&gt;0)+8*(M5&gt;0)+4*(M4&gt;0)+2*(M3&gt;0)+1*(M2&gt;0),2)</f>
-        <v>FE</v>
-      </c>
-      <c r="N12" s="64" t="str">
-        <f>DEC2HEX(128*(N9&gt;0)+64*(N8&gt;0)+32*(N7&gt;0)+16*(N6&gt;0)+8*(N5&gt;0)+4*(N4&gt;0)+2*(N3&gt;0)+1*(N2&gt;0),2)</f>
-        <v>70</v>
-      </c>
-      <c r="R12" s="64" t="str">
-        <f>DEC2HEX(128*(R9&gt;0)+64*(R8&gt;0)+32*(R7&gt;0)+16*(R6&gt;0)+8*(R5&gt;0)+4*(R4&gt;0)+2*(R3&gt;0)+1*(R2&gt;0),2)</f>
-        <v>00</v>
-      </c>
-      <c r="S12" s="64" t="str">
-        <f>DEC2HEX(128*(S9&gt;0)+64*(S8&gt;0)+32*(S7&gt;0)+16*(S6&gt;0)+8*(S5&gt;0)+4*(S4&gt;0)+2*(S3&gt;0)+1*(S2&gt;0),2)</f>
-        <v>3C</v>
-      </c>
-      <c r="T12" s="64" t="str">
-        <f>DEC2HEX(128*(T9&gt;0)+64*(T8&gt;0)+32*(T7&gt;0)+16*(T6&gt;0)+8*(T5&gt;0)+4*(T4&gt;0)+2*(T3&gt;0)+1*(T2&gt;0),2)</f>
-        <v>FF</v>
-      </c>
-      <c r="U12" s="64" t="str">
-        <f>DEC2HEX(128*(U9&gt;0)+64*(U8&gt;0)+32*(U7&gt;0)+16*(U6&gt;0)+8*(U5&gt;0)+4*(U4&gt;0)+2*(U3&gt;0)+1*(U2&gt;0),2)</f>
-        <v>3C</v>
-      </c>
-      <c r="V12" s="64" t="str">
-        <f>DEC2HEX(128*(V9&gt;0)+64*(V8&gt;0)+32*(V7&gt;0)+16*(V6&gt;0)+8*(V5&gt;0)+4*(V4&gt;0)+2*(V3&gt;0)+1*(V2&gt;0),2)</f>
-        <v>00</v>
-      </c>
-      <c r="Z12" s="64" t="str">
-        <f>DEC2HEX(128*(Z9&gt;0)+64*(Z8&gt;0)+32*(Z7&gt;0)+16*(Z6&gt;0)+8*(Z5&gt;0)+4*(Z4&gt;0)+2*(Z3&gt;0)+1*(Z2&gt;0),2)</f>
-        <v>F4</v>
-      </c>
-      <c r="AA12" s="64" t="str">
-        <f>DEC2HEX(128*(AA9&gt;0)+64*(AA8&gt;0)+32*(AA7&gt;0)+16*(AA6&gt;0)+8*(AA5&gt;0)+4*(AA4&gt;0)+2*(AA3&gt;0)+1*(AA2&gt;0),2)</f>
-        <v>8A</v>
-      </c>
-      <c r="AB12" s="64" t="str">
-        <f>DEC2HEX(128*(AB9&gt;0)+64*(AB8&gt;0)+32*(AB7&gt;0)+16*(AB6&gt;0)+8*(AB5&gt;0)+4*(AB4&gt;0)+2*(AB3&gt;0)+1*(AB2&gt;0),2)</f>
-        <v>89</v>
-      </c>
-      <c r="AC12" s="64" t="str">
-        <f>DEC2HEX(128*(AC9&gt;0)+64*(AC8&gt;0)+32*(AC7&gt;0)+16*(AC6&gt;0)+8*(AC5&gt;0)+4*(AC4&gt;0)+2*(AC3&gt;0)+1*(AC2&gt;0),2)</f>
-        <v>8A</v>
-      </c>
-      <c r="AD12" s="64" t="str">
-        <f>DEC2HEX(128*(AD9&gt;0)+64*(AD8&gt;0)+32*(AD7&gt;0)+16*(AD6&gt;0)+8*(AD5&gt;0)+4*(AD4&gt;0)+2*(AD3&gt;0)+1*(AD2&gt;0),2)</f>
-        <v>F4</v>
-      </c>
-      <c r="AH12" s="64" t="str">
-        <f>DEC2HEX(128*(AH9&gt;0)+64*(AH8&gt;0)+32*(AH7&gt;0)+16*(AH6&gt;0)+8*(AH5&gt;0)+4*(AH4&gt;0)+2*(AH3&gt;0)+1*(AH2&gt;0),2)</f>
-        <v>18</v>
-      </c>
-      <c r="AI12" s="64" t="str">
-        <f>DEC2HEX(128*(AI9&gt;0)+64*(AI8&gt;0)+32*(AI7&gt;0)+16*(AI6&gt;0)+8*(AI5&gt;0)+4*(AI4&gt;0)+2*(AI3&gt;0)+1*(AI2&gt;0),2)</f>
-        <v>66</v>
-      </c>
-      <c r="AJ12" s="64" t="str">
-        <f>DEC2HEX(128*(AJ9&gt;0)+64*(AJ8&gt;0)+32*(AJ7&gt;0)+16*(AJ6&gt;0)+8*(AJ5&gt;0)+4*(AJ4&gt;0)+2*(AJ3&gt;0)+1*(AJ2&gt;0),2)</f>
-        <v>81</v>
-      </c>
-      <c r="AK12" s="64" t="str">
-        <f>DEC2HEX(128*(AK9&gt;0)+64*(AK8&gt;0)+32*(AK7&gt;0)+16*(AK6&gt;0)+8*(AK5&gt;0)+4*(AK4&gt;0)+2*(AK3&gt;0)+1*(AK2&gt;0),2)</f>
-        <v>66</v>
-      </c>
-      <c r="AL12" s="64" t="str">
-        <f>DEC2HEX(128*(AL9&gt;0)+64*(AL8&gt;0)+32*(AL7&gt;0)+16*(AL6&gt;0)+8*(AL5&gt;0)+4*(AL4&gt;0)+2*(AL3&gt;0)+1*(AL2&gt;0),2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="66"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67">
-        <v>1</v>
-      </c>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67">
-        <v>1</v>
-      </c>
-      <c r="W15" s="66"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="66"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="66"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67">
-        <v>1</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67">
-        <v>1</v>
-      </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="66"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="67">
-        <v>1</v>
-      </c>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67">
-        <v>1</v>
-      </c>
-      <c r="V16" s="67"/>
-      <c r="W16" s="66"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="66"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="66"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67">
-        <v>1</v>
-      </c>
-      <c r="C17" s="67">
-        <v>1</v>
-      </c>
-      <c r="D17" s="67">
-        <v>1</v>
-      </c>
-      <c r="E17" s="67">
-        <v>1</v>
-      </c>
-      <c r="F17" s="67">
-        <v>1</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67">
-        <v>1</v>
-      </c>
-      <c r="L17" s="67">
-        <v>1</v>
-      </c>
-      <c r="M17" s="67">
-        <v>1</v>
-      </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="66"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67">
-        <v>1</v>
-      </c>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="66"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="66"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="66"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67">
-        <v>1</v>
-      </c>
-      <c r="D18" s="67">
-        <v>1</v>
-      </c>
-      <c r="E18" s="67">
-        <v>1</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="67">
-        <v>1</v>
-      </c>
-      <c r="K18" s="67">
-        <v>1</v>
-      </c>
-      <c r="L18" s="67">
-        <v>1</v>
-      </c>
-      <c r="M18" s="67">
-        <v>1</v>
-      </c>
-      <c r="N18" s="67">
-        <v>1</v>
-      </c>
-      <c r="O18" s="66"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67">
-        <v>1</v>
-      </c>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67">
-        <v>1</v>
-      </c>
-      <c r="W18" s="66"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="66"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="66"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67">
-        <v>1</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67">
-        <v>1</v>
-      </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="66"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="67">
-        <v>1</v>
-      </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67">
-        <v>1</v>
-      </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="66"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="66"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="66"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67">
-        <v>1</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67">
-        <v>1</v>
-      </c>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="66"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67">
-        <v>1</v>
-      </c>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="66"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="66"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="66"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67">
-        <v>1</v>
-      </c>
-      <c r="D21" s="67">
-        <v>1</v>
-      </c>
-      <c r="E21" s="67">
-        <v>1</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67">
-        <v>1</v>
-      </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67">
-        <v>1</v>
-      </c>
-      <c r="N21" s="67"/>
-      <c r="O21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67">
-        <v>1</v>
-      </c>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67">
-        <v>1</v>
-      </c>
-      <c r="W21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="65"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="67">
-        <v>1</v>
-      </c>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67">
-        <v>1</v>
-      </c>
-      <c r="V22" s="67"/>
-      <c r="W22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="65"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B25" s="64" t="str">
-        <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="C25" s="64" t="str">
-        <f>DEC2HEX(128*(C22&gt;0)+64*(C21&gt;0)+32*(C20&gt;0)+16*(C19&gt;0)+8*(C18&gt;0)+4*(C17&gt;0)+2*(C16&gt;0)+1*(C15&gt;0),2)</f>
-        <v>4C</v>
-      </c>
-      <c r="D25" s="64" t="str">
-        <f>DEC2HEX(128*(D22&gt;0)+64*(D21&gt;0)+32*(D20&gt;0)+16*(D19&gt;0)+8*(D18&gt;0)+4*(D17&gt;0)+2*(D16&gt;0)+1*(D15&gt;0),2)</f>
-        <v>7E</v>
-      </c>
-      <c r="E25" s="64" t="str">
-        <f>DEC2HEX(128*(E22&gt;0)+64*(E21&gt;0)+32*(E20&gt;0)+16*(E19&gt;0)+8*(E18&gt;0)+4*(E17&gt;0)+2*(E16&gt;0)+1*(E15&gt;0),2)</f>
-        <v>4C</v>
-      </c>
-      <c r="F25" s="64" t="str">
-        <f>DEC2HEX(128*(F22&gt;0)+64*(F21&gt;0)+32*(F20&gt;0)+16*(F19&gt;0)+8*(F18&gt;0)+4*(F17&gt;0)+2*(F16&gt;0)+1*(F15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="J25" s="64" t="str">
-        <f>DEC2HEX(128*(J22&gt;0)+64*(J21&gt;0)+32*(J20&gt;0)+16*(J19&gt;0)+8*(J18&gt;0)+4*(J17&gt;0)+2*(J16&gt;0)+1*(J15&gt;0),2)</f>
-        <v>08</v>
-      </c>
-      <c r="K25" s="64" t="str">
-        <f>DEC2HEX(128*(K22&gt;0)+64*(K21&gt;0)+32*(K20&gt;0)+16*(K19&gt;0)+8*(K18&gt;0)+4*(K17&gt;0)+2*(K16&gt;0)+1*(K15&gt;0),2)</f>
-        <v>4C</v>
-      </c>
-      <c r="L25" s="64" t="str">
-        <f>DEC2HEX(128*(L22&gt;0)+64*(L21&gt;0)+32*(L20&gt;0)+16*(L19&gt;0)+8*(L18&gt;0)+4*(L17&gt;0)+2*(L16&gt;0)+1*(L15&gt;0),2)</f>
-        <v>3E</v>
-      </c>
-      <c r="M25" s="64" t="str">
-        <f>DEC2HEX(128*(M22&gt;0)+64*(M21&gt;0)+32*(M20&gt;0)+16*(M19&gt;0)+8*(M18&gt;0)+4*(M17&gt;0)+2*(M16&gt;0)+1*(M15&gt;0),2)</f>
-        <v>4C</v>
-      </c>
-      <c r="N25" s="64" t="str">
-        <f>DEC2HEX(128*(N22&gt;0)+64*(N21&gt;0)+32*(N20&gt;0)+16*(N19&gt;0)+8*(N18&gt;0)+4*(N17&gt;0)+2*(N16&gt;0)+1*(N15&gt;0),2)</f>
-        <v>08</v>
-      </c>
-      <c r="R25" s="64" t="str">
-        <f>DEC2HEX(128*(R22&gt;0)+64*(R21&gt;0)+32*(R20&gt;0)+16*(R19&gt;0)+8*(R18&gt;0)+4*(R17&gt;0)+2*(R16&gt;0)+1*(R15&gt;0),2)</f>
-        <v>92</v>
-      </c>
-      <c r="S25" s="64" t="str">
-        <f>DEC2HEX(128*(S22&gt;0)+64*(S21&gt;0)+32*(S20&gt;0)+16*(S19&gt;0)+8*(S18&gt;0)+4*(S17&gt;0)+2*(S16&gt;0)+1*(S15&gt;0),2)</f>
-        <v>49</v>
-      </c>
-      <c r="T25" s="64" t="str">
-        <f>DEC2HEX(128*(T22&gt;0)+64*(T21&gt;0)+32*(T20&gt;0)+16*(T19&gt;0)+8*(T18&gt;0)+4*(T17&gt;0)+2*(T16&gt;0)+1*(T15&gt;0),2)</f>
-        <v>24</v>
-      </c>
-      <c r="U25" s="64" t="str">
-        <f>DEC2HEX(128*(U22&gt;0)+64*(U21&gt;0)+32*(U20&gt;0)+16*(U19&gt;0)+8*(U18&gt;0)+4*(U17&gt;0)+2*(U16&gt;0)+1*(U15&gt;0),2)</f>
-        <v>92</v>
-      </c>
-      <c r="V25" s="64" t="str">
-        <f>DEC2HEX(128*(V22&gt;0)+64*(V21&gt;0)+32*(V20&gt;0)+16*(V19&gt;0)+8*(V18&gt;0)+4*(V17&gt;0)+2*(V16&gt;0)+1*(V15&gt;0),2)</f>
-        <v>49</v>
-      </c>
-      <c r="Z25" s="64" t="str">
-        <f>DEC2HEX(128*(Z22&gt;0)+64*(Z21&gt;0)+32*(Z20&gt;0)+16*(Z19&gt;0)+8*(Z18&gt;0)+4*(Z17&gt;0)+2*(Z16&gt;0)+1*(Z15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="AA25" s="64" t="str">
-        <f>DEC2HEX(128*(AA22&gt;0)+64*(AA21&gt;0)+32*(AA20&gt;0)+16*(AA19&gt;0)+8*(AA18&gt;0)+4*(AA17&gt;0)+2*(AA16&gt;0)+1*(AA15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="AB25" s="64" t="str">
-        <f>DEC2HEX(128*(AB22&gt;0)+64*(AB21&gt;0)+32*(AB20&gt;0)+16*(AB19&gt;0)+8*(AB18&gt;0)+4*(AB17&gt;0)+2*(AB16&gt;0)+1*(AB15&gt;0),2)</f>
-        <v>FF</v>
-      </c>
-      <c r="AC25" s="64" t="str">
-        <f>DEC2HEX(128*(AC22&gt;0)+64*(AC21&gt;0)+32*(AC20&gt;0)+16*(AC19&gt;0)+8*(AC18&gt;0)+4*(AC17&gt;0)+2*(AC16&gt;0)+1*(AC15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="AD25" s="64" t="str">
-        <f>DEC2HEX(128*(AD22&gt;0)+64*(AD21&gt;0)+32*(AD20&gt;0)+16*(AD19&gt;0)+8*(AD18&gt;0)+4*(AD17&gt;0)+2*(AD16&gt;0)+1*(AD15&gt;0),2)</f>
-        <v>04</v>
-      </c>
-      <c r="AH25" s="64" t="str">
-        <f>DEC2HEX(128*(AH22&gt;0)+64*(AH21&gt;0)+32*(AH20&gt;0)+16*(AH19&gt;0)+8*(AH18&gt;0)+4*(AH17&gt;0)+2*(AH16&gt;0)+1*(AH15&gt;0),2)</f>
-        <v>3C</v>
-      </c>
-      <c r="AI25" s="64" t="str">
-        <f>DEC2HEX(128*(AI22&gt;0)+64*(AI21&gt;0)+32*(AI20&gt;0)+16*(AI19&gt;0)+8*(AI18&gt;0)+4*(AI17&gt;0)+2*(AI16&gt;0)+1*(AI15&gt;0),2)</f>
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="64" t="str">
-        <f>DEC2HEX(128*(AJ22&gt;0)+64*(AJ21&gt;0)+32*(AJ20&gt;0)+16*(AJ19&gt;0)+8*(AJ18&gt;0)+4*(AJ17&gt;0)+2*(AJ16&gt;0)+1*(AJ15&gt;0),2)</f>
-        <v>42</v>
-      </c>
-      <c r="AK25" s="64" t="str">
-        <f>DEC2HEX(128*(AK22&gt;0)+64*(AK21&gt;0)+32*(AK20&gt;0)+16*(AK19&gt;0)+8*(AK18&gt;0)+4*(AK17&gt;0)+2*(AK16&gt;0)+1*(AK15&gt;0),2)</f>
-        <v>66</v>
-      </c>
-      <c r="AL25" s="64" t="str">
-        <f>DEC2HEX(128*(AL22&gt;0)+64*(AL21&gt;0)+32*(AL20&gt;0)+16*(AL19&gt;0)+8*(AL18&gt;0)+4*(AL17&gt;0)+2*(AL16&gt;0)+1*(AL15&gt;0),2)</f>
-        <v>3C</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B8:F9 B2:G7 C1:G1">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:F22 B15:G20 C14:G14">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:N9 K1:O1 J2:O7">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>LEN(TRIM(J1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:N22 J15:O20 K14:O14 K20:M21">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>LEN(TRIM(J14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:V9 S1:W1 R2:W7">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(R1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:W14 R15:W15 W19:W20 U22:V22 U19:U21 R16:S22 U16:W18">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>LEN(TRIM(R14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19:V21">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>LEN(TRIM(V19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16:T22">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(T16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AE1 Z2:AE5 AE6:AE7 Z6:AD9">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(Z1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA14:AE14 Z15:AE15 AE19:AE20 AC22:AD22 AC19:AC21 Z16:AA22 AC16:AE18">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>LEN(TRIM(Z14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD19:AD21">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>LEN(TRIM(AD19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB16:AB22">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>LEN(TRIM(AB16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AM1 AH2:AM5 AM6:AM7 AH6:AL9">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(AH1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI14:AM14 AH15:AM15 AM19:AM20 AK22:AL22 AK19:AK21 AH16:AI22 AK16:AM18">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(AH14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL19:AL21">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>LEN(TRIM(AL19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ16:AJ22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(AJ16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>215</v>
-      </c>
-      <c r="N5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L10">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B11:H14"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:A36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="39">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="44">
-        <f>B1*10^3</f>
-        <v>1000</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="43">
-        <f>D1*10^3</f>
-        <v>1000000</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="42">
-        <f>D1*10^6</f>
-        <v>1000000000</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="45">
-        <f>1/B1</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="44">
-        <f>B2/10^3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="43">
-        <f>B2/10^6</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="42">
-        <f>F2/10^3</f>
-        <v>9.9999999999999986E-10</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="41">
-        <f>(F3*10^6)</f>
-        <v>13333333</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="40">
-        <f>B3/10^3</f>
-        <v>13333.333000000001</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="39">
-        <f>13333333/1000000</f>
-        <v>13.333333</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="37">
-        <f>F3/10^3</f>
-        <v>1.3333332999999999E-2</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="35">
-        <f>1/B3</f>
-        <v>7.5000001875000043E-8</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="34">
-        <f>B4*10^3</f>
-        <v>7.500000187500004E-5</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="33">
-        <f>D4*10^3</f>
-        <v>7.5000001875000041E-2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="32">
-        <f>B4*10^9</f>
-        <v>75.000001875000038</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H5">
-        <f>1/B3*10^9</f>
-        <v>75.000001875000038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="29">
-        <f>(H1/H4)-1</f>
-        <v>13333332.000000002</v>
-      </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6">
-        <f>E7*1000/E8</f>
-        <v>312.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="29" t="str">
-        <f>DEC2HEX(B6)</f>
-        <v>CB7354</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7">
-        <v>5000</v>
-      </c>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7999999</v>
-      </c>
-      <c r="C18">
-        <v>16000000</v>
-      </c>
-      <c r="D18">
-        <f>C18/1000000</f>
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>319</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1599999</v>
-      </c>
-      <c r="C19">
-        <f>C18/6</f>
-        <v>2666666.6666666665</v>
-      </c>
-      <c r="G19">
-        <v>639</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="47">
-        <v>42</v>
-      </c>
-      <c r="C2" s="48">
-        <v>42</v>
-      </c>
-      <c r="D2" s="48">
-        <v>42</v>
-      </c>
-      <c r="E2" s="48">
-        <v>42</v>
-      </c>
-      <c r="F2" s="49">
-        <f>B2</f>
-        <v>42</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="50">
-        <f>PI()*B2</f>
-        <v>131.94689145077132</v>
-      </c>
-      <c r="C3" s="51">
-        <f>PI()*C2</f>
-        <v>131.94689145077132</v>
-      </c>
-      <c r="D3" s="51">
-        <f>PI()*D2</f>
-        <v>131.94689145077132</v>
-      </c>
-      <c r="E3" s="51">
-        <f>PI()*E2</f>
-        <v>131.94689145077132</v>
-      </c>
-      <c r="F3" s="49">
-        <f>B3</f>
-        <v>131.94689145077132</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="47">
-        <v>50</v>
-      </c>
-      <c r="C5" s="48">
-        <v>150</v>
-      </c>
-      <c r="D5" s="48">
-        <v>75</v>
-      </c>
-      <c r="E5" s="48">
-        <v>120</v>
-      </c>
-      <c r="F5" s="53">
-        <v>250</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="50">
-        <f>B5/60</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C6" s="51">
-        <f>C5/60</f>
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="51">
-        <f>D5/60</f>
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="51">
-        <f>E5/60</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="49">
-        <f>F5/60</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="50">
-        <f>B3*B6</f>
-        <v>109.95574287564277</v>
-      </c>
-      <c r="C8" s="51">
-        <f>C3*C6</f>
-        <v>329.86722862692829</v>
-      </c>
-      <c r="D8" s="51">
-        <f>D3*D6</f>
-        <v>164.93361431346415</v>
-      </c>
-      <c r="E8" s="51">
-        <f>E3*E6</f>
-        <v>263.89378290154264</v>
-      </c>
-      <c r="F8" s="49">
-        <f>F3*F6</f>
-        <v>549.77871437821386</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="50">
-        <f>B8/10</f>
-        <v>10.995574287564278</v>
-      </c>
-      <c r="C9" s="51">
-        <f>C8/10</f>
-        <v>32.986722862692829</v>
-      </c>
-      <c r="D9" s="51">
-        <f>D8/10</f>
-        <v>16.493361431346415</v>
-      </c>
-      <c r="E9" s="51">
-        <f>E8/10</f>
-        <v>26.389378290154262</v>
-      </c>
-      <c r="F9" s="49">
-        <f>F8/10</f>
-        <v>54.977871437821385</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="50">
-        <f>B8/1000</f>
-        <v>0.10995574287564278</v>
-      </c>
-      <c r="C10" s="51">
-        <f>C8/1000</f>
-        <v>0.3298672286269283</v>
-      </c>
-      <c r="D10" s="51">
-        <f>D8/1000</f>
-        <v>0.16493361431346415</v>
-      </c>
-      <c r="E10" s="51">
-        <f>E8/1000</f>
-        <v>0.26389378290154264</v>
-      </c>
-      <c r="F10" s="49">
-        <f>F8/1000</f>
-        <v>0.54977871437821391</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="50">
-        <f>B10*3.6</f>
-        <v>0.39584067435231401</v>
-      </c>
-      <c r="C11" s="51">
-        <f>C10*3.6</f>
-        <v>1.1875220230569419</v>
-      </c>
-      <c r="D11" s="51">
-        <f>D10*3.6</f>
-        <v>0.59376101152847094</v>
-      </c>
-      <c r="E11" s="51">
-        <f>E10*3.6</f>
-        <v>0.95001761844555355</v>
-      </c>
-      <c r="F11" s="49">
-        <f>F10*3.6</f>
-        <v>1.97920337176157</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="47">
-        <v>32</v>
-      </c>
-      <c r="C13" s="48">
-        <v>24</v>
-      </c>
-      <c r="D13" s="48">
-        <v>46</v>
-      </c>
-      <c r="E13" s="48">
-        <v>60</v>
-      </c>
-      <c r="F13" s="53">
-        <v>7</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="50">
-        <f>B13*0.007061552</f>
-        <v>0.22596966399999999</v>
-      </c>
-      <c r="C14" s="51">
-        <f>C13*0.007061552</f>
-        <v>0.169477248</v>
-      </c>
-      <c r="D14" s="51">
-        <f>D13*0.007061552</f>
-        <v>0.324831392</v>
-      </c>
-      <c r="E14" s="51">
-        <f>E13*0.007061552</f>
-        <v>0.42369311999999998</v>
-      </c>
-      <c r="F14" s="49">
-        <f>F13*0.007061552</f>
-        <v>4.9430863999999998E-2</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="49">
-        <f t="shared" ref="B15:E15" si="0">B16</f>
-        <v>225.96966399999999</v>
-      </c>
-      <c r="C15" s="49">
-        <f t="shared" si="0"/>
-        <v>169.477248</v>
-      </c>
-      <c r="D15" s="49">
-        <f t="shared" si="0"/>
-        <v>324.83139199999999</v>
-      </c>
-      <c r="E15" s="49">
-        <f t="shared" si="0"/>
-        <v>423.69311999999996</v>
-      </c>
-      <c r="F15" s="49">
-        <f>F16</f>
-        <v>49.430864</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="50">
-        <f>B14*1000</f>
-        <v>225.96966399999999</v>
-      </c>
-      <c r="C16" s="51">
-        <f>C14*1000</f>
-        <v>169.477248</v>
-      </c>
-      <c r="D16" s="51">
-        <f>D14*1000</f>
-        <v>324.83139199999999</v>
-      </c>
-      <c r="E16" s="51">
-        <f>E14*1000</f>
-        <v>423.69311999999996</v>
-      </c>
-      <c r="F16" s="49">
-        <f>F14*1000</f>
-        <v>49.430864</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="50">
-        <f>B16/(B2/2)</f>
-        <v>10.76046019047619</v>
-      </c>
-      <c r="C17" s="51">
-        <f>C16/(C2/2)</f>
-        <v>8.0703451428571427</v>
-      </c>
-      <c r="D17" s="51">
-        <f>D16/(D2/2)</f>
-        <v>15.468161523809524</v>
-      </c>
-      <c r="E17" s="51">
-        <f>E16/(E2/2)</f>
-        <v>20.175862857142857</v>
-      </c>
-      <c r="F17" s="49">
-        <f>F16/(F2/2)</f>
-        <v>2.3538506666666668</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="50">
-        <f>B17/9.81</f>
-        <v>1.0968868695694383</v>
-      </c>
-      <c r="C18" s="51">
-        <f>C17/9.81</f>
-        <v>0.8226651521770787</v>
-      </c>
-      <c r="D18" s="51">
-        <f>D17/9.81</f>
-        <v>1.5767748750060675</v>
-      </c>
-      <c r="E18" s="51">
-        <f>E17/9.81</f>
-        <v>2.0566628804426967</v>
-      </c>
-      <c r="F18" s="49">
-        <f>F17/9.81</f>
-        <v>0.23994400271831465</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="I5:P18"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="F2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="13" width="8.140625" customWidth="1"/>
-    <col min="258" max="269" width="8.140625" customWidth="1"/>
-    <col min="514" max="525" width="8.140625" customWidth="1"/>
-    <col min="770" max="781" width="8.140625" customWidth="1"/>
-    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
-    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
-    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
-    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
-    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
-    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
-    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
-    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
-    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
-    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
-    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
-    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
-    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
-    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
-    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
-    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
-    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
-    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
-    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
-    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
-    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
-    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
-    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
-    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
-    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
-    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
-    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
-    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
-    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
-    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
-    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
-    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
-    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
-    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
-    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
-    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
-    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
-    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
-    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
-    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
-    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
-    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
-    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
-    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
-    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
-    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
-    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
-    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
-    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
-    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
-    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
-    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
-    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
-    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
-    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
-    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
-    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
-    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
-    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
-    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18">
-        <v>10</v>
-      </c>
-      <c r="M1" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="24">
-        <v>5</v>
-      </c>
-      <c r="K7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -16366,11 +15401,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
@@ -28300,4 +27335,4062 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AY48" sqref="AY48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
+    <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="63"/>
+    <col min="9" max="9" width="3.28515625" style="63" customWidth="1"/>
+    <col min="10" max="15" width="3.7109375" style="63" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="63"/>
+    <col min="17" max="23" width="4" style="63" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="63"/>
+    <col min="25" max="31" width="3.42578125" style="63" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="63"/>
+    <col min="33" max="39" width="3.42578125" style="63" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67">
+        <v>1</v>
+      </c>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67">
+        <v>1</v>
+      </c>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="66"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="66"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="67">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67">
+        <v>1</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67">
+        <v>1</v>
+      </c>
+      <c r="L3" s="67">
+        <v>1</v>
+      </c>
+      <c r="M3" s="67">
+        <v>1</v>
+      </c>
+      <c r="N3" s="67"/>
+      <c r="O3" s="66"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67">
+        <v>1</v>
+      </c>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="66"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="66"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="66"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67">
+        <v>1</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67">
+        <v>1</v>
+      </c>
+      <c r="L4" s="67">
+        <v>1</v>
+      </c>
+      <c r="M4" s="67">
+        <v>1</v>
+      </c>
+      <c r="N4" s="67"/>
+      <c r="O4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67">
+        <v>1</v>
+      </c>
+      <c r="T4" s="67">
+        <v>1</v>
+      </c>
+      <c r="U4" s="67">
+        <v>1</v>
+      </c>
+      <c r="V4" s="67"/>
+      <c r="W4" s="66"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="66"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="66"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67">
+        <v>1</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67">
+        <v>1</v>
+      </c>
+      <c r="L5" s="67">
+        <v>1</v>
+      </c>
+      <c r="M5" s="67">
+        <v>1</v>
+      </c>
+      <c r="N5" s="67"/>
+      <c r="O5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67">
+        <v>1</v>
+      </c>
+      <c r="T5" s="67">
+        <v>1</v>
+      </c>
+      <c r="U5" s="67">
+        <v>1</v>
+      </c>
+      <c r="V5" s="67"/>
+      <c r="W5" s="66"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="67">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="66"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="66"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67">
+        <v>1</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="67">
+        <v>1</v>
+      </c>
+      <c r="K6" s="67">
+        <v>1</v>
+      </c>
+      <c r="L6" s="67">
+        <v>1</v>
+      </c>
+      <c r="M6" s="67">
+        <v>1</v>
+      </c>
+      <c r="N6" s="67">
+        <v>1</v>
+      </c>
+      <c r="O6" s="66"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67">
+        <v>1</v>
+      </c>
+      <c r="T6" s="67">
+        <v>1</v>
+      </c>
+      <c r="U6" s="67">
+        <v>1</v>
+      </c>
+      <c r="V6" s="67"/>
+      <c r="W6" s="66"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="66"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="66"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67">
+        <v>1</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67">
+        <v>1</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="67">
+        <v>1</v>
+      </c>
+      <c r="K7" s="67">
+        <v>1</v>
+      </c>
+      <c r="L7" s="67">
+        <v>1</v>
+      </c>
+      <c r="M7" s="67">
+        <v>1</v>
+      </c>
+      <c r="N7" s="67">
+        <v>1</v>
+      </c>
+      <c r="O7" s="66"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67">
+        <v>1</v>
+      </c>
+      <c r="T7" s="67">
+        <v>1</v>
+      </c>
+      <c r="U7" s="67">
+        <v>1</v>
+      </c>
+      <c r="V7" s="67"/>
+      <c r="W7" s="66"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="66"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="66"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67">
+        <v>1</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="67">
+        <v>1</v>
+      </c>
+      <c r="K8" s="67">
+        <v>1</v>
+      </c>
+      <c r="L8" s="67">
+        <v>1</v>
+      </c>
+      <c r="M8" s="67">
+        <v>1</v>
+      </c>
+      <c r="N8" s="67">
+        <v>1</v>
+      </c>
+      <c r="O8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67">
+        <v>1</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="65"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="67">
+        <v>1</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67">
+        <v>1</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67">
+        <v>1</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67">
+        <v>1</v>
+      </c>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67">
+        <v>1</v>
+      </c>
+      <c r="N9" s="67"/>
+      <c r="O9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67">
+        <v>1</v>
+      </c>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="65"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="str">
+        <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="C12" s="64" t="str">
+        <f>DEC2HEX(128*(C9&gt;0)+64*(C8&gt;0)+32*(C7&gt;0)+16*(C6&gt;0)+8*(C5&gt;0)+4*(C4&gt;0)+2*(C3&gt;0)+1*(C2&gt;0),2)</f>
+        <v>55</v>
+      </c>
+      <c r="D12" s="64" t="str">
+        <f>DEC2HEX(128*(D9&gt;0)+64*(D8&gt;0)+32*(D7&gt;0)+16*(D6&gt;0)+8*(D5&gt;0)+4*(D4&gt;0)+2*(D3&gt;0)+1*(D2&gt;0),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E12" s="64" t="str">
+        <f>DEC2HEX(128*(E9&gt;0)+64*(E8&gt;0)+32*(E7&gt;0)+16*(E6&gt;0)+8*(E5&gt;0)+4*(E4&gt;0)+2*(E3&gt;0)+1*(E2&gt;0),2)</f>
+        <v>55</v>
+      </c>
+      <c r="F12" s="64" t="str">
+        <f>DEC2HEX(128*(F9&gt;0)+64*(F8&gt;0)+32*(F7&gt;0)+16*(F6&gt;0)+8*(F5&gt;0)+4*(F4&gt;0)+2*(F3&gt;0)+1*(F2&gt;0),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="J12" s="64" t="str">
+        <f>DEC2HEX(128*(J9&gt;0)+64*(J8&gt;0)+32*(J7&gt;0)+16*(J6&gt;0)+8*(J5&gt;0)+4*(J4&gt;0)+2*(J3&gt;0)+1*(J2&gt;0),2)</f>
+        <v>70</v>
+      </c>
+      <c r="K12" s="64" t="str">
+        <f>DEC2HEX(128*(K9&gt;0)+64*(K8&gt;0)+32*(K7&gt;0)+16*(K6&gt;0)+8*(K5&gt;0)+4*(K4&gt;0)+2*(K3&gt;0)+1*(K2&gt;0),2)</f>
+        <v>FE</v>
+      </c>
+      <c r="L12" s="64" t="str">
+        <f>DEC2HEX(128*(L9&gt;0)+64*(L8&gt;0)+32*(L7&gt;0)+16*(L6&gt;0)+8*(L5&gt;0)+4*(L4&gt;0)+2*(L3&gt;0)+1*(L2&gt;0),2)</f>
+        <v>7F</v>
+      </c>
+      <c r="M12" s="64" t="str">
+        <f>DEC2HEX(128*(M9&gt;0)+64*(M8&gt;0)+32*(M7&gt;0)+16*(M6&gt;0)+8*(M5&gt;0)+4*(M4&gt;0)+2*(M3&gt;0)+1*(M2&gt;0),2)</f>
+        <v>FE</v>
+      </c>
+      <c r="N12" s="64" t="str">
+        <f>DEC2HEX(128*(N9&gt;0)+64*(N8&gt;0)+32*(N7&gt;0)+16*(N6&gt;0)+8*(N5&gt;0)+4*(N4&gt;0)+2*(N3&gt;0)+1*(N2&gt;0),2)</f>
+        <v>70</v>
+      </c>
+      <c r="R12" s="64" t="str">
+        <f>DEC2HEX(128*(R9&gt;0)+64*(R8&gt;0)+32*(R7&gt;0)+16*(R6&gt;0)+8*(R5&gt;0)+4*(R4&gt;0)+2*(R3&gt;0)+1*(R2&gt;0),2)</f>
+        <v>00</v>
+      </c>
+      <c r="S12" s="64" t="str">
+        <f>DEC2HEX(128*(S9&gt;0)+64*(S8&gt;0)+32*(S7&gt;0)+16*(S6&gt;0)+8*(S5&gt;0)+4*(S4&gt;0)+2*(S3&gt;0)+1*(S2&gt;0),2)</f>
+        <v>3C</v>
+      </c>
+      <c r="T12" s="64" t="str">
+        <f>DEC2HEX(128*(T9&gt;0)+64*(T8&gt;0)+32*(T7&gt;0)+16*(T6&gt;0)+8*(T5&gt;0)+4*(T4&gt;0)+2*(T3&gt;0)+1*(T2&gt;0),2)</f>
+        <v>FF</v>
+      </c>
+      <c r="U12" s="64" t="str">
+        <f>DEC2HEX(128*(U9&gt;0)+64*(U8&gt;0)+32*(U7&gt;0)+16*(U6&gt;0)+8*(U5&gt;0)+4*(U4&gt;0)+2*(U3&gt;0)+1*(U2&gt;0),2)</f>
+        <v>3C</v>
+      </c>
+      <c r="V12" s="64" t="str">
+        <f>DEC2HEX(128*(V9&gt;0)+64*(V8&gt;0)+32*(V7&gt;0)+16*(V6&gt;0)+8*(V5&gt;0)+4*(V4&gt;0)+2*(V3&gt;0)+1*(V2&gt;0),2)</f>
+        <v>00</v>
+      </c>
+      <c r="Z12" s="64" t="str">
+        <f>DEC2HEX(128*(Z9&gt;0)+64*(Z8&gt;0)+32*(Z7&gt;0)+16*(Z6&gt;0)+8*(Z5&gt;0)+4*(Z4&gt;0)+2*(Z3&gt;0)+1*(Z2&gt;0),2)</f>
+        <v>F4</v>
+      </c>
+      <c r="AA12" s="64" t="str">
+        <f>DEC2HEX(128*(AA9&gt;0)+64*(AA8&gt;0)+32*(AA7&gt;0)+16*(AA6&gt;0)+8*(AA5&gt;0)+4*(AA4&gt;0)+2*(AA3&gt;0)+1*(AA2&gt;0),2)</f>
+        <v>8A</v>
+      </c>
+      <c r="AB12" s="64" t="str">
+        <f>DEC2HEX(128*(AB9&gt;0)+64*(AB8&gt;0)+32*(AB7&gt;0)+16*(AB6&gt;0)+8*(AB5&gt;0)+4*(AB4&gt;0)+2*(AB3&gt;0)+1*(AB2&gt;0),2)</f>
+        <v>89</v>
+      </c>
+      <c r="AC12" s="64" t="str">
+        <f>DEC2HEX(128*(AC9&gt;0)+64*(AC8&gt;0)+32*(AC7&gt;0)+16*(AC6&gt;0)+8*(AC5&gt;0)+4*(AC4&gt;0)+2*(AC3&gt;0)+1*(AC2&gt;0),2)</f>
+        <v>8A</v>
+      </c>
+      <c r="AD12" s="64" t="str">
+        <f>DEC2HEX(128*(AD9&gt;0)+64*(AD8&gt;0)+32*(AD7&gt;0)+16*(AD6&gt;0)+8*(AD5&gt;0)+4*(AD4&gt;0)+2*(AD3&gt;0)+1*(AD2&gt;0),2)</f>
+        <v>F4</v>
+      </c>
+      <c r="AH12" s="64" t="str">
+        <f>DEC2HEX(128*(AH9&gt;0)+64*(AH8&gt;0)+32*(AH7&gt;0)+16*(AH6&gt;0)+8*(AH5&gt;0)+4*(AH4&gt;0)+2*(AH3&gt;0)+1*(AH2&gt;0),2)</f>
+        <v>18</v>
+      </c>
+      <c r="AI12" s="64" t="str">
+        <f>DEC2HEX(128*(AI9&gt;0)+64*(AI8&gt;0)+32*(AI7&gt;0)+16*(AI6&gt;0)+8*(AI5&gt;0)+4*(AI4&gt;0)+2*(AI3&gt;0)+1*(AI2&gt;0),2)</f>
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="64" t="str">
+        <f>DEC2HEX(128*(AJ9&gt;0)+64*(AJ8&gt;0)+32*(AJ7&gt;0)+16*(AJ6&gt;0)+8*(AJ5&gt;0)+4*(AJ4&gt;0)+2*(AJ3&gt;0)+1*(AJ2&gt;0),2)</f>
+        <v>81</v>
+      </c>
+      <c r="AK12" s="64" t="str">
+        <f>DEC2HEX(128*(AK9&gt;0)+64*(AK8&gt;0)+32*(AK7&gt;0)+16*(AK6&gt;0)+8*(AK5&gt;0)+4*(AK4&gt;0)+2*(AK3&gt;0)+1*(AK2&gt;0),2)</f>
+        <v>66</v>
+      </c>
+      <c r="AL12" s="64" t="str">
+        <f>DEC2HEX(128*(AL9&gt;0)+64*(AL8&gt;0)+32*(AL7&gt;0)+16*(AL6&gt;0)+8*(AL5&gt;0)+4*(AL4&gt;0)+2*(AL3&gt;0)+1*(AL2&gt;0),2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="66"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67">
+        <v>1</v>
+      </c>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67">
+        <v>1</v>
+      </c>
+      <c r="W15" s="66"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="66"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="66"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67">
+        <v>1</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67">
+        <v>1</v>
+      </c>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="66"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="67">
+        <v>1</v>
+      </c>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67">
+        <v>1</v>
+      </c>
+      <c r="V16" s="67"/>
+      <c r="W16" s="66"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="66"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="66"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67">
+        <v>1</v>
+      </c>
+      <c r="C17" s="67">
+        <v>1</v>
+      </c>
+      <c r="D17" s="67">
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <v>1</v>
+      </c>
+      <c r="F17" s="67">
+        <v>1</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67">
+        <v>1</v>
+      </c>
+      <c r="L17" s="67">
+        <v>1</v>
+      </c>
+      <c r="M17" s="67">
+        <v>1</v>
+      </c>
+      <c r="N17" s="67"/>
+      <c r="O17" s="66"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67">
+        <v>1</v>
+      </c>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="66"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="66"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67">
+        <v>1</v>
+      </c>
+      <c r="D18" s="67">
+        <v>1</v>
+      </c>
+      <c r="E18" s="67">
+        <v>1</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="67">
+        <v>1</v>
+      </c>
+      <c r="K18" s="67">
+        <v>1</v>
+      </c>
+      <c r="L18" s="67">
+        <v>1</v>
+      </c>
+      <c r="M18" s="67">
+        <v>1</v>
+      </c>
+      <c r="N18" s="67">
+        <v>1</v>
+      </c>
+      <c r="O18" s="66"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67">
+        <v>1</v>
+      </c>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67">
+        <v>1</v>
+      </c>
+      <c r="W18" s="66"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="66"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="66"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67">
+        <v>1</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67">
+        <v>1</v>
+      </c>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="66"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="67">
+        <v>1</v>
+      </c>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67">
+        <v>1</v>
+      </c>
+      <c r="V19" s="67"/>
+      <c r="W19" s="66"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="66"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="66"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67">
+        <v>1</v>
+      </c>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="66"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67">
+        <v>1</v>
+      </c>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="66"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="66"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="66"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67">
+        <v>1</v>
+      </c>
+      <c r="D21" s="67">
+        <v>1</v>
+      </c>
+      <c r="E21" s="67">
+        <v>1</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67">
+        <v>1</v>
+      </c>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67">
+        <v>1</v>
+      </c>
+      <c r="N21" s="67"/>
+      <c r="O21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67">
+        <v>1</v>
+      </c>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67">
+        <v>1</v>
+      </c>
+      <c r="W21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="65"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="67">
+        <v>1</v>
+      </c>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67">
+        <v>1</v>
+      </c>
+      <c r="V22" s="67"/>
+      <c r="W22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="65"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B25" s="64" t="str">
+        <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="C25" s="64" t="str">
+        <f>DEC2HEX(128*(C22&gt;0)+64*(C21&gt;0)+32*(C20&gt;0)+16*(C19&gt;0)+8*(C18&gt;0)+4*(C17&gt;0)+2*(C16&gt;0)+1*(C15&gt;0),2)</f>
+        <v>4C</v>
+      </c>
+      <c r="D25" s="64" t="str">
+        <f>DEC2HEX(128*(D22&gt;0)+64*(D21&gt;0)+32*(D20&gt;0)+16*(D19&gt;0)+8*(D18&gt;0)+4*(D17&gt;0)+2*(D16&gt;0)+1*(D15&gt;0),2)</f>
+        <v>7E</v>
+      </c>
+      <c r="E25" s="64" t="str">
+        <f>DEC2HEX(128*(E22&gt;0)+64*(E21&gt;0)+32*(E20&gt;0)+16*(E19&gt;0)+8*(E18&gt;0)+4*(E17&gt;0)+2*(E16&gt;0)+1*(E15&gt;0),2)</f>
+        <v>4C</v>
+      </c>
+      <c r="F25" s="64" t="str">
+        <f>DEC2HEX(128*(F22&gt;0)+64*(F21&gt;0)+32*(F20&gt;0)+16*(F19&gt;0)+8*(F18&gt;0)+4*(F17&gt;0)+2*(F16&gt;0)+1*(F15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="J25" s="64" t="str">
+        <f>DEC2HEX(128*(J22&gt;0)+64*(J21&gt;0)+32*(J20&gt;0)+16*(J19&gt;0)+8*(J18&gt;0)+4*(J17&gt;0)+2*(J16&gt;0)+1*(J15&gt;0),2)</f>
+        <v>08</v>
+      </c>
+      <c r="K25" s="64" t="str">
+        <f>DEC2HEX(128*(K22&gt;0)+64*(K21&gt;0)+32*(K20&gt;0)+16*(K19&gt;0)+8*(K18&gt;0)+4*(K17&gt;0)+2*(K16&gt;0)+1*(K15&gt;0),2)</f>
+        <v>4C</v>
+      </c>
+      <c r="L25" s="64" t="str">
+        <f>DEC2HEX(128*(L22&gt;0)+64*(L21&gt;0)+32*(L20&gt;0)+16*(L19&gt;0)+8*(L18&gt;0)+4*(L17&gt;0)+2*(L16&gt;0)+1*(L15&gt;0),2)</f>
+        <v>3E</v>
+      </c>
+      <c r="M25" s="64" t="str">
+        <f>DEC2HEX(128*(M22&gt;0)+64*(M21&gt;0)+32*(M20&gt;0)+16*(M19&gt;0)+8*(M18&gt;0)+4*(M17&gt;0)+2*(M16&gt;0)+1*(M15&gt;0),2)</f>
+        <v>4C</v>
+      </c>
+      <c r="N25" s="64" t="str">
+        <f>DEC2HEX(128*(N22&gt;0)+64*(N21&gt;0)+32*(N20&gt;0)+16*(N19&gt;0)+8*(N18&gt;0)+4*(N17&gt;0)+2*(N16&gt;0)+1*(N15&gt;0),2)</f>
+        <v>08</v>
+      </c>
+      <c r="R25" s="64" t="str">
+        <f>DEC2HEX(128*(R22&gt;0)+64*(R21&gt;0)+32*(R20&gt;0)+16*(R19&gt;0)+8*(R18&gt;0)+4*(R17&gt;0)+2*(R16&gt;0)+1*(R15&gt;0),2)</f>
+        <v>92</v>
+      </c>
+      <c r="S25" s="64" t="str">
+        <f>DEC2HEX(128*(S22&gt;0)+64*(S21&gt;0)+32*(S20&gt;0)+16*(S19&gt;0)+8*(S18&gt;0)+4*(S17&gt;0)+2*(S16&gt;0)+1*(S15&gt;0),2)</f>
+        <v>49</v>
+      </c>
+      <c r="T25" s="64" t="str">
+        <f>DEC2HEX(128*(T22&gt;0)+64*(T21&gt;0)+32*(T20&gt;0)+16*(T19&gt;0)+8*(T18&gt;0)+4*(T17&gt;0)+2*(T16&gt;0)+1*(T15&gt;0),2)</f>
+        <v>24</v>
+      </c>
+      <c r="U25" s="64" t="str">
+        <f>DEC2HEX(128*(U22&gt;0)+64*(U21&gt;0)+32*(U20&gt;0)+16*(U19&gt;0)+8*(U18&gt;0)+4*(U17&gt;0)+2*(U16&gt;0)+1*(U15&gt;0),2)</f>
+        <v>92</v>
+      </c>
+      <c r="V25" s="64" t="str">
+        <f>DEC2HEX(128*(V22&gt;0)+64*(V21&gt;0)+32*(V20&gt;0)+16*(V19&gt;0)+8*(V18&gt;0)+4*(V17&gt;0)+2*(V16&gt;0)+1*(V15&gt;0),2)</f>
+        <v>49</v>
+      </c>
+      <c r="Z25" s="64" t="str">
+        <f>DEC2HEX(128*(Z22&gt;0)+64*(Z21&gt;0)+32*(Z20&gt;0)+16*(Z19&gt;0)+8*(Z18&gt;0)+4*(Z17&gt;0)+2*(Z16&gt;0)+1*(Z15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="AA25" s="64" t="str">
+        <f>DEC2HEX(128*(AA22&gt;0)+64*(AA21&gt;0)+32*(AA20&gt;0)+16*(AA19&gt;0)+8*(AA18&gt;0)+4*(AA17&gt;0)+2*(AA16&gt;0)+1*(AA15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="AB25" s="64" t="str">
+        <f>DEC2HEX(128*(AB22&gt;0)+64*(AB21&gt;0)+32*(AB20&gt;0)+16*(AB19&gt;0)+8*(AB18&gt;0)+4*(AB17&gt;0)+2*(AB16&gt;0)+1*(AB15&gt;0),2)</f>
+        <v>FF</v>
+      </c>
+      <c r="AC25" s="64" t="str">
+        <f>DEC2HEX(128*(AC22&gt;0)+64*(AC21&gt;0)+32*(AC20&gt;0)+16*(AC19&gt;0)+8*(AC18&gt;0)+4*(AC17&gt;0)+2*(AC16&gt;0)+1*(AC15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="AD25" s="64" t="str">
+        <f>DEC2HEX(128*(AD22&gt;0)+64*(AD21&gt;0)+32*(AD20&gt;0)+16*(AD19&gt;0)+8*(AD18&gt;0)+4*(AD17&gt;0)+2*(AD16&gt;0)+1*(AD15&gt;0),2)</f>
+        <v>04</v>
+      </c>
+      <c r="AH25" s="64" t="str">
+        <f>DEC2HEX(128*(AH22&gt;0)+64*(AH21&gt;0)+32*(AH20&gt;0)+16*(AH19&gt;0)+8*(AH18&gt;0)+4*(AH17&gt;0)+2*(AH16&gt;0)+1*(AH15&gt;0),2)</f>
+        <v>3C</v>
+      </c>
+      <c r="AI25" s="64" t="str">
+        <f>DEC2HEX(128*(AI22&gt;0)+64*(AI21&gt;0)+32*(AI20&gt;0)+16*(AI19&gt;0)+8*(AI18&gt;0)+4*(AI17&gt;0)+2*(AI16&gt;0)+1*(AI15&gt;0),2)</f>
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="64" t="str">
+        <f>DEC2HEX(128*(AJ22&gt;0)+64*(AJ21&gt;0)+32*(AJ20&gt;0)+16*(AJ19&gt;0)+8*(AJ18&gt;0)+4*(AJ17&gt;0)+2*(AJ16&gt;0)+1*(AJ15&gt;0),2)</f>
+        <v>42</v>
+      </c>
+      <c r="AK25" s="64" t="str">
+        <f>DEC2HEX(128*(AK22&gt;0)+64*(AK21&gt;0)+32*(AK20&gt;0)+16*(AK19&gt;0)+8*(AK18&gt;0)+4*(AK17&gt;0)+2*(AK16&gt;0)+1*(AK15&gt;0),2)</f>
+        <v>66</v>
+      </c>
+      <c r="AL25" s="64" t="str">
+        <f>DEC2HEX(128*(AL22&gt;0)+64*(AL21&gt;0)+32*(AL20&gt;0)+16*(AL19&gt;0)+8*(AL18&gt;0)+4*(AL17&gt;0)+2*(AL16&gt;0)+1*(AL15&gt;0),2)</f>
+        <v>3C</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B8:F9 B2:G7 C1:G1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F22 B15:G20 C14:G14">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:N9 K1:O1 J2:O7">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>LEN(TRIM(J1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:N22 J15:O20 K14:O14 K20:M21">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(J14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:V9 S1:W1 R2:W7">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(R1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:W14 R15:W15 W19:W20 U22:V22 U19:U21 R16:S22 U16:W18">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>LEN(TRIM(R14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:V21">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(V19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T22">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>LEN(TRIM(T16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AE1 Z2:AE5 AE6:AE7 Z6:AD9">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(Z1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AE14 Z15:AE15 AE19:AE20 AC22:AD22 AC19:AC21 Z16:AA22 AC16:AE18">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>LEN(TRIM(Z14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19:AD21">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(AD19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB16:AB22">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(AB16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI1:AM1 AH2:AM5 AM6:AM7 AH6:AL9">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(AH1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14:AM14 AH15:AM15 AM19:AM20 AK22:AL22 AK19:AK21 AH16:AI22 AK16:AM18">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(AH14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL19:AL21">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>LEN(TRIM(AL19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ16:AJ22">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(AJ16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="85">
+        <v>1</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="87">
+        <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
+        <v>1000</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="85">
+        <v>300</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="87">
+        <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
+        <v>300000</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="85">
+        <v>5</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="87">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="94"/>
+      <c r="P3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="87">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0</v>
+      </c>
+      <c r="I4" s="106">
+        <v>500</v>
+      </c>
+      <c r="J4" s="106">
+        <v>500</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="96">
+        <f>((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>0.6875</v>
+      </c>
+      <c r="M4" s="96">
+        <f>((R_2/((J4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>0.6875</v>
+      </c>
+      <c r="P4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="85">
+        <v>3.3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="77">
+        <v>1</v>
+      </c>
+      <c r="I5" s="106">
+        <v>500</v>
+      </c>
+      <c r="J5" s="102">
+        <v>500</v>
+      </c>
+      <c r="K5" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="96">
+        <f>((R_2/((I5*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>0.6875</v>
+      </c>
+      <c r="M5" s="96">
+        <f>((R_2/((J5*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" s="77">
+        <v>10.75</v>
+      </c>
+      <c r="I6" s="102">
+        <f>(16+33)/2</f>
+        <v>24.5</v>
+      </c>
+      <c r="J6" s="102">
+        <v>48</v>
+      </c>
+      <c r="K6" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="96">
+        <f>((R_2/((I6*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.5008474576271187</v>
+      </c>
+      <c r="M6" s="96">
+        <f>((R_2/((J6*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.2948275862068965</v>
+      </c>
+      <c r="P6" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q6" s="104"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="89">
+        <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.7390365448504981</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="77">
+        <v>21.52</v>
+      </c>
+      <c r="I7" s="106">
+        <v>10</v>
+      </c>
+      <c r="J7" s="102">
+        <v>24</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="96">
+        <f>((R_2/((I7*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.6435483870967742</v>
+      </c>
+      <c r="M7" s="96">
+        <f>((R_2/((J7*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.5055555555555555</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q7" s="105"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="77">
+        <v>107.53</v>
+      </c>
+      <c r="I8" s="102">
+        <v>5</v>
+      </c>
+      <c r="J8" s="106">
+        <v>0</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="96">
+        <f>((R_2/((I8*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.6959016393442621</v>
+      </c>
+      <c r="M8" s="96">
+        <f>((R_2/((J8*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="77">
+        <v>1075.3</v>
+      </c>
+      <c r="I9" s="106">
+        <v>0</v>
+      </c>
+      <c r="J9" s="106">
+        <v>0</v>
+      </c>
+      <c r="K9" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="96">
+        <f>((R_2/((I9*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+      <c r="M9" s="96">
+        <f>((R_2/((J9*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="H10" s="77">
+        <v>10752.7</v>
+      </c>
+      <c r="I10" s="106">
+        <v>0</v>
+      </c>
+      <c r="J10" s="106">
+        <v>0</v>
+      </c>
+      <c r="K10" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="96">
+        <f>((R_2/((I10*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+      <c r="M10" s="96">
+        <f>((R_2/((J10*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H11" s="77">
+        <v>107527</v>
+      </c>
+      <c r="I11" s="106">
+        <v>0</v>
+      </c>
+      <c r="J11" s="106">
+        <v>0</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="96">
+        <f>((R_2/((I11*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+      <c r="M11" s="96">
+        <f>((R_2/((J11*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>2.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Ω, kΩ, MΩ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="107">
+        <v>0</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="87">
+        <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="O1" s="101"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="107">
+        <v>0</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="87">
+        <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="111">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="87">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="94"/>
+      <c r="T3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="111">
+        <v>15</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="87">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0</v>
+      </c>
+      <c r="I4" s="106">
+        <v>500</v>
+      </c>
+      <c r="J4" s="106">
+        <v>500</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
+        <v>4.613541042540443E-3</v>
+      </c>
+      <c r="M4" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I4*1000+'Light sensor #2'!R_4)</f>
+        <v>9.6116504854368928E-2</v>
+      </c>
+      <c r="N4" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J4*1000+'Light sensor #2'!R_3)</f>
+        <v>4.613541042540443E-3</v>
+      </c>
+      <c r="O4" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J4*1000+'Light sensor #2'!R_4)</f>
+        <v>9.6116504854368928E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="85">
+        <v>3.3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="77">
+        <v>1</v>
+      </c>
+      <c r="I5" s="106">
+        <v>500</v>
+      </c>
+      <c r="J5" s="102">
+        <v>500</v>
+      </c>
+      <c r="K5" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
+        <v>4.613541042540443E-3</v>
+      </c>
+      <c r="M5" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I5*1000+'Light sensor #2'!R_4)</f>
+        <v>9.6116504854368928E-2</v>
+      </c>
+      <c r="N5" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J5*1000+'Light sensor #2'!R_3)</f>
+        <v>4.613541042540443E-3</v>
+      </c>
+      <c r="O5" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J5*1000+'Light sensor #2'!R_4)</f>
+        <v>9.6116504854368928E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H6" s="77">
+        <v>10.75</v>
+      </c>
+      <c r="I6" s="102">
+        <f>(16+33)/2</f>
+        <v>24.5</v>
+      </c>
+      <c r="J6" s="102">
+        <v>48</v>
+      </c>
+      <c r="K6" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="M6" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I6*1000+'Light sensor #2'!R_4)</f>
+        <v>1.2531645569620253</v>
+      </c>
+      <c r="N6" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J6*1000+'Light sensor #2'!R_3)</f>
+        <v>4.7433264887063654E-2</v>
+      </c>
+      <c r="O6" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J6*1000+'Light sensor #2'!R_4)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="T6" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="U6" s="104"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="89" t="e">
+        <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="77">
+        <v>21.52</v>
+      </c>
+      <c r="I7" s="106">
+        <v>10</v>
+      </c>
+      <c r="J7" s="102">
+        <v>24</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
+        <v>0.21588785046728973</v>
+      </c>
+      <c r="M7" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I7*1000+'Light sensor #2'!R_4)</f>
+        <v>1.98</v>
+      </c>
+      <c r="N7" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J7*1000+'Light sensor #2'!R_3)</f>
+        <v>9.352226720647773E-2</v>
+      </c>
+      <c r="O7" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J7*1000+'Light sensor #2'!R_4)</f>
+        <v>1.2692307692307692</v>
+      </c>
+      <c r="T7" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="U7" s="105"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H8" s="77">
+        <v>107.53</v>
+      </c>
+      <c r="I8" s="102">
+        <v>5</v>
+      </c>
+      <c r="J8" s="106">
+        <v>2</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
+        <v>0.40526315789473683</v>
+      </c>
+      <c r="M8" s="109">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I8*1000+'Light sensor #2'!R_4)</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="N8" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J8*1000+'Light sensor #2'!R_3)</f>
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="O8" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J8*1000+'Light sensor #2'!R_4)</f>
+        <v>2.9117647058823528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="77">
+        <v>1075.3</v>
+      </c>
+      <c r="I9" s="106">
+        <v>1</v>
+      </c>
+      <c r="J9" s="106">
+        <v>1</v>
+      </c>
+      <c r="K9" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
+        <v>1.3588235294117648</v>
+      </c>
+      <c r="M9" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I9*1000+'Light sensor #2'!R_4)</f>
+        <v>3.09375</v>
+      </c>
+      <c r="N9" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J9*1000+'Light sensor #2'!R_3)</f>
+        <v>1.3588235294117648</v>
+      </c>
+      <c r="O9" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J9*1000+'Light sensor #2'!R_4)</f>
+        <v>3.09375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="H10" s="77">
+        <v>10752.7</v>
+      </c>
+      <c r="I10" s="106">
+        <v>0</v>
+      </c>
+      <c r="J10" s="106">
+        <v>0</v>
+      </c>
+      <c r="K10" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M10" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I10*1000+'Light sensor #2'!R_4)</f>
+        <v>3.3</v>
+      </c>
+      <c r="N10" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J10*1000+'Light sensor #2'!R_3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="O10" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J10*1000+'Light sensor #2'!R_4)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="77">
+        <v>107527</v>
+      </c>
+      <c r="I11" s="106">
+        <v>0</v>
+      </c>
+      <c r="J11" s="106">
+        <v>0</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M11" s="96">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I11*1000+'Light sensor #2'!R_4)</f>
+        <v>3.3</v>
+      </c>
+      <c r="N11" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J11*1000+'Light sensor #2'!R_3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="O11" s="110">
+        <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J11*1000+'Light sensor #2'!R_4)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L12" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="M12" s="113" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" s="114" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Ω, kΩ, MΩ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="39">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="44">
+        <f>B1*10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="43">
+        <f>D1*10^3</f>
+        <v>1000000</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="42">
+        <f>D1*10^6</f>
+        <v>1000000000</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="45">
+        <f>1/B1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="44">
+        <f>B2/10^3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="43">
+        <f>B2/10^6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="42">
+        <f>F2/10^3</f>
+        <v>9.9999999999999986E-10</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="41">
+        <f>(F3*10^6)</f>
+        <v>13333333</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="40">
+        <f>B3/10^3</f>
+        <v>13333.333000000001</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="39">
+        <f>13333333/1000000</f>
+        <v>13.333333</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="37">
+        <f>F3/10^3</f>
+        <v>1.3333332999999999E-2</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="35">
+        <f>1/B3</f>
+        <v>7.5000001875000043E-8</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="34">
+        <f>B4*10^3</f>
+        <v>7.500000187500004E-5</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="33">
+        <f>D4*10^3</f>
+        <v>7.5000001875000041E-2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="32">
+        <f>B4*10^9</f>
+        <v>75.000001875000038</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>1/B3*10^9</f>
+        <v>75.000001875000038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="29">
+        <f>(H1/H4)-1</f>
+        <v>13333332.000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <f>E7*1000/E8</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="29" t="str">
+        <f>DEC2HEX(B6)</f>
+        <v>CB7354</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7999999</v>
+      </c>
+      <c r="C18">
+        <v>16000000</v>
+      </c>
+      <c r="D18">
+        <f>C18/1000000</f>
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>319</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1599999</v>
+      </c>
+      <c r="C19">
+        <f>C18/6</f>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="G19">
+        <v>639</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="47">
+        <v>42</v>
+      </c>
+      <c r="C2" s="48">
+        <v>42</v>
+      </c>
+      <c r="D2" s="48">
+        <v>42</v>
+      </c>
+      <c r="E2" s="48">
+        <v>42</v>
+      </c>
+      <c r="F2" s="49">
+        <f>B2</f>
+        <v>42</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="50">
+        <f>PI()*B2</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="C3" s="51">
+        <f>PI()*C2</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="D3" s="51">
+        <f>PI()*D2</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="E3" s="51">
+        <f>PI()*E2</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="F3" s="49">
+        <f>B3</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="47">
+        <v>50</v>
+      </c>
+      <c r="C5" s="48">
+        <v>150</v>
+      </c>
+      <c r="D5" s="48">
+        <v>75</v>
+      </c>
+      <c r="E5" s="48">
+        <v>120</v>
+      </c>
+      <c r="F5" s="53">
+        <v>250</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
+      <c r="B6" s="50">
+        <f>B5/60</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C6" s="51">
+        <f>C5/60</f>
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="51">
+        <f>D5/60</f>
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="51">
+        <f>E5/60</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="49">
+        <f>F5/60</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="50">
+        <f>B3*B6</f>
+        <v>109.95574287564277</v>
+      </c>
+      <c r="C8" s="51">
+        <f>C3*C6</f>
+        <v>329.86722862692829</v>
+      </c>
+      <c r="D8" s="51">
+        <f>D3*D6</f>
+        <v>164.93361431346415</v>
+      </c>
+      <c r="E8" s="51">
+        <f>E3*E6</f>
+        <v>263.89378290154264</v>
+      </c>
+      <c r="F8" s="49">
+        <f>F3*F6</f>
+        <v>549.77871437821386</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="50">
+        <f>B8/10</f>
+        <v>10.995574287564278</v>
+      </c>
+      <c r="C9" s="51">
+        <f>C8/10</f>
+        <v>32.986722862692829</v>
+      </c>
+      <c r="D9" s="51">
+        <f>D8/10</f>
+        <v>16.493361431346415</v>
+      </c>
+      <c r="E9" s="51">
+        <f>E8/10</f>
+        <v>26.389378290154262</v>
+      </c>
+      <c r="F9" s="49">
+        <f>F8/10</f>
+        <v>54.977871437821385</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="50">
+        <f>B8/1000</f>
+        <v>0.10995574287564278</v>
+      </c>
+      <c r="C10" s="51">
+        <f>C8/1000</f>
+        <v>0.3298672286269283</v>
+      </c>
+      <c r="D10" s="51">
+        <f>D8/1000</f>
+        <v>0.16493361431346415</v>
+      </c>
+      <c r="E10" s="51">
+        <f>E8/1000</f>
+        <v>0.26389378290154264</v>
+      </c>
+      <c r="F10" s="49">
+        <f>F8/1000</f>
+        <v>0.54977871437821391</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="50">
+        <f>B10*3.6</f>
+        <v>0.39584067435231401</v>
+      </c>
+      <c r="C11" s="51">
+        <f>C10*3.6</f>
+        <v>1.1875220230569419</v>
+      </c>
+      <c r="D11" s="51">
+        <f>D10*3.6</f>
+        <v>0.59376101152847094</v>
+      </c>
+      <c r="E11" s="51">
+        <f>E10*3.6</f>
+        <v>0.95001761844555355</v>
+      </c>
+      <c r="F11" s="49">
+        <f>F10*3.6</f>
+        <v>1.97920337176157</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="47">
+        <v>32</v>
+      </c>
+      <c r="C13" s="48">
+        <v>24</v>
+      </c>
+      <c r="D13" s="48">
+        <v>46</v>
+      </c>
+      <c r="E13" s="48">
+        <v>60</v>
+      </c>
+      <c r="F13" s="53">
+        <v>7</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="50">
+        <f>B13*0.007061552</f>
+        <v>0.22596966399999999</v>
+      </c>
+      <c r="C14" s="51">
+        <f>C13*0.007061552</f>
+        <v>0.169477248</v>
+      </c>
+      <c r="D14" s="51">
+        <f>D13*0.007061552</f>
+        <v>0.324831392</v>
+      </c>
+      <c r="E14" s="51">
+        <f>E13*0.007061552</f>
+        <v>0.42369311999999998</v>
+      </c>
+      <c r="F14" s="49">
+        <f>F13*0.007061552</f>
+        <v>4.9430863999999998E-2</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
+      <c r="B15" s="49">
+        <f t="shared" ref="B15:E15" si="0">B16</f>
+        <v>225.96966399999999</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="0"/>
+        <v>169.477248</v>
+      </c>
+      <c r="D15" s="49">
+        <f t="shared" si="0"/>
+        <v>324.83139199999999</v>
+      </c>
+      <c r="E15" s="49">
+        <f t="shared" si="0"/>
+        <v>423.69311999999996</v>
+      </c>
+      <c r="F15" s="49">
+        <f>F16</f>
+        <v>49.430864</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="82"/>
+      <c r="B16" s="50">
+        <f>B14*1000</f>
+        <v>225.96966399999999</v>
+      </c>
+      <c r="C16" s="51">
+        <f>C14*1000</f>
+        <v>169.477248</v>
+      </c>
+      <c r="D16" s="51">
+        <f>D14*1000</f>
+        <v>324.83139199999999</v>
+      </c>
+      <c r="E16" s="51">
+        <f>E14*1000</f>
+        <v>423.69311999999996</v>
+      </c>
+      <c r="F16" s="49">
+        <f>F14*1000</f>
+        <v>49.430864</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="50">
+        <f>B16/(B2/2)</f>
+        <v>10.76046019047619</v>
+      </c>
+      <c r="C17" s="51">
+        <f>C16/(C2/2)</f>
+        <v>8.0703451428571427</v>
+      </c>
+      <c r="D17" s="51">
+        <f>D16/(D2/2)</f>
+        <v>15.468161523809524</v>
+      </c>
+      <c r="E17" s="51">
+        <f>E16/(E2/2)</f>
+        <v>20.175862857142857</v>
+      </c>
+      <c r="F17" s="49">
+        <f>F16/(F2/2)</f>
+        <v>2.3538506666666668</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
+      <c r="B18" s="50">
+        <f>B17/9.81</f>
+        <v>1.0968868695694383</v>
+      </c>
+      <c r="C18" s="51">
+        <f>C17/9.81</f>
+        <v>0.8226651521770787</v>
+      </c>
+      <c r="D18" s="51">
+        <f>D17/9.81</f>
+        <v>1.5767748750060675</v>
+      </c>
+      <c r="E18" s="51">
+        <f>E17/9.81</f>
+        <v>2.0566628804426967</v>
+      </c>
+      <c r="F18" s="49">
+        <f>F17/9.81</f>
+        <v>0.23994400271831465</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="I5:P18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="F2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="8.140625" customWidth="1"/>
+    <col min="258" max="269" width="8.140625" customWidth="1"/>
+    <col min="514" max="525" width="8.140625" customWidth="1"/>
+    <col min="770" max="781" width="8.140625" customWidth="1"/>
+    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
+    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
+    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
+    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
+    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
+    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
+    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
+    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
+    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
+    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
+    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
+    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
+    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
+    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
+    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
+    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
+    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
+    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
+    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
+    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
+    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
+    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
+    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
+    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
+    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
+    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
+    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
+    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
+    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
+    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
+    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
+    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
+    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
+    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
+    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
+    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
+    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
+    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
+    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
+    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
+    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
+    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
+    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
+    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
+    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
+    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
+    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
+    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
+    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
+    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
+    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
+    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
+    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
+    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
+    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
+    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
+    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
+    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
+    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
+    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="295">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1242,6 +1242,21 @@
   <si>
     <t>Recomended</t>
   </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor driver mode select </t>
+  </si>
+  <si>
+    <t>(0 = In/In, 1 = Phase / Enable)</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>Motor mode select function and invocation, arrange code</t>
+  </si>
 </sst>
 </file>
 
@@ -1970,21 +1985,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1997,38 +1997,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,6 +2041,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7136,8 +7151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7469,7 +7484,9 @@
       <c r="B32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="46" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
@@ -28835,10 +28852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28846,7 +28863,7 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -28876,7 +28893,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="104" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -28890,7 +28907,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -28902,7 +28919,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
@@ -28924,7 +28941,7 @@
       <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -28946,7 +28963,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
@@ -28960,7 +28977,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -28982,7 +28999,7 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
@@ -29004,7 +29021,7 @@
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
@@ -29026,51 +29043,51 @@
       <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="78" t="s">
         <v>244</v>
       </c>
@@ -29086,7 +29103,7 @@
       <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="78" t="s">
         <v>245</v>
       </c>
@@ -29104,7 +29121,7 @@
       <c r="H16" s="79"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="78" t="s">
         <v>34</v>
       </c>
@@ -29124,7 +29141,7 @@
       <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="78" t="s">
         <v>35</v>
       </c>
@@ -29144,7 +29161,7 @@
       <c r="H18" s="78"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="104" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -29168,7 +29185,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
@@ -29189,136 +29206,158 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
+      <c r="A24" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
+      <c r="A26" s="104"/>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="71" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
+      <c r="A27" s="104"/>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
       <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B11:H14"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A18"/>
   </mergeCells>
@@ -29349,63 +29388,63 @@
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="85">
-        <v>1</v>
-      </c>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="80">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="87">
+      <c r="D1" s="82">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>1000</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="91" t="s">
+      <c r="J1" s="112"/>
+      <c r="K1" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="101"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="80">
         <v>300</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="82">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>300000</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="90" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="85" t="s">
         <v>275</v>
       </c>
     </row>
@@ -29413,31 +29452,31 @@
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="80">
         <v>5</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="82">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="93" t="s">
+      <c r="J3" s="112"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="94"/>
+      <c r="M3" s="112"/>
       <c r="P3" t="s">
         <v>272</v>
       </c>
@@ -29446,37 +29485,37 @@
       <c r="A4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="85">
-        <v>1</v>
-      </c>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="80">
+        <v>1</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="82">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="82" t="s">
         <v>251</v>
       </c>
       <c r="H4" s="77">
         <v>0</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="92">
         <v>500</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="92">
         <v>500</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="L4" s="96">
-        <f>((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L4" s="86">
+        <f t="shared" ref="L4:M11" si="1">((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>0.6875</v>
       </c>
-      <c r="M4" s="96">
-        <f>((R_2/((J4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M4" s="86">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
       <c r="P4" t="s">
@@ -29487,10 +29526,10 @@
       <c r="A5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="80">
         <v>3.3</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="83" t="s">
         <v>256</v>
       </c>
       <c r="D5" s="1"/>
@@ -29498,21 +29537,21 @@
       <c r="H5" s="77">
         <v>1</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="92">
         <v>500</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="88">
         <v>500</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="96">
-        <f>((R_2/((I5*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L5" s="86">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="M5" s="96">
-        <f>((R_2/((J5*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M5" s="86">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
     </row>
@@ -29520,84 +29559,84 @@
       <c r="H6" s="77">
         <v>10.75</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="88">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="102">
+      <c r="J6" s="88">
         <v>48</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="L6" s="96">
-        <f>((R_2/((I6*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L6" s="86">
+        <f t="shared" si="1"/>
         <v>2.5008474576271187</v>
       </c>
-      <c r="M6" s="96">
-        <f>((R_2/((J6*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M6" s="86">
+        <f t="shared" si="1"/>
         <v>2.2948275862068965</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="Q6" s="104"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="84">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>2.7390365448504981</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>256</v>
       </c>
       <c r="H7" s="77">
         <v>21.52</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="92">
         <v>10</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="88">
         <v>24</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="L7" s="96">
-        <f>((R_2/((I7*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L7" s="86">
+        <f t="shared" si="1"/>
         <v>2.6435483870967742</v>
       </c>
-      <c r="M7" s="96">
-        <f>((R_2/((J7*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M7" s="86">
+        <f t="shared" si="1"/>
         <v>2.5055555555555555</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="Q7" s="105"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" s="77">
         <v>107.53</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="88">
         <v>5</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="92">
         <v>0</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="L8" s="96">
-        <f>((R_2/((I8*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L8" s="86">
+        <f t="shared" si="1"/>
         <v>2.6959016393442621</v>
       </c>
-      <c r="M8" s="96">
-        <f>((R_2/((J8*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M8" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
@@ -29614,21 +29653,21 @@
       <c r="H9" s="77">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="92">
         <v>0</v>
       </c>
-      <c r="J9" s="106">
+      <c r="J9" s="92">
         <v>0</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="96">
-        <f>((R_2/((I9*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L9" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M9" s="96">
-        <f>((R_2/((J9*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M9" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
@@ -29645,21 +29684,21 @@
       <c r="H10" s="77">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="92">
         <v>0</v>
       </c>
-      <c r="J10" s="106">
+      <c r="J10" s="92">
         <v>0</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="L10" s="96">
-        <f>((R_2/((I10*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L10" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M10" s="96">
-        <f>((R_2/((J10*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M10" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
@@ -29667,21 +29706,21 @@
       <c r="H11" s="77">
         <v>107527</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="92">
         <v>0</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="92">
         <v>0</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="L11" s="96">
-        <f>((R_2/((I11*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="L11" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M11" s="96">
-        <f>((R_2/((J11*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
+      <c r="M11" s="86">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
@@ -29726,73 +29765,73 @@
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="107">
+      <c r="B1" s="93">
         <v>0</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="87">
+      <c r="D1" s="82">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="91" t="s">
+      <c r="J1" s="112"/>
+      <c r="K1" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101" t="s">
+      <c r="M1" s="110"/>
+      <c r="N1" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="101"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="93">
         <v>0</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="82">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="90" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="85" t="s">
         <v>282</v>
       </c>
     </row>
@@ -29800,33 +29839,33 @@
       <c r="A3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="97">
         <v>0.7</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="82">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="93" t="s">
+      <c r="J3" s="112"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="94"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="112"/>
       <c r="T3" t="s">
         <v>272</v>
       </c>
@@ -29835,44 +29874,44 @@
       <c r="A4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="97">
         <v>15</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="82">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="82" t="s">
         <v>251</v>
       </c>
       <c r="H4" s="77">
         <v>0</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="92">
         <v>500</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="92">
         <v>500</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
@@ -29884,10 +29923,10 @@
       <c r="A5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="80">
         <v>3.3</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="83" t="s">
         <v>256</v>
       </c>
       <c r="D5" s="1"/>
@@ -29895,28 +29934,28 @@
       <c r="H5" s="77">
         <v>1</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="92">
         <v>500</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="88">
         <v>500</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M5" s="109">
+      <c r="M5" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
@@ -29925,107 +29964,107 @@
       <c r="H6" s="77">
         <v>10.75</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="88">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="102">
+      <c r="J6" s="88">
         <v>48</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="M6" s="109">
+      <c r="M6" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I6*1000+'Light sensor #2'!R_4)</f>
         <v>1.2531645569620253</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J6*1000+'Light sensor #2'!R_3)</f>
         <v>4.7433264887063654E-2</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J6*1000+'Light sensor #2'!R_4)</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="T6" s="103" t="s">
+      <c r="T6" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="U6" s="104"/>
+      <c r="U6" s="90"/>
     </row>
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="89" t="e">
+      <c r="B7" s="84" t="e">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="82" t="s">
         <v>256</v>
       </c>
       <c r="H7" s="77">
         <v>21.52</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="92">
         <v>10</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="88">
         <v>24</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
         <v>0.21588785046728973</v>
       </c>
-      <c r="M7" s="109">
+      <c r="M7" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I7*1000+'Light sensor #2'!R_4)</f>
         <v>1.98</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J7*1000+'Light sensor #2'!R_3)</f>
         <v>9.352226720647773E-2</v>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J7*1000+'Light sensor #2'!R_4)</f>
         <v>1.2692307692307692</v>
       </c>
-      <c r="T7" s="105" t="s">
+      <c r="T7" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="U7" s="105"/>
+      <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H8" s="77">
         <v>107.53</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="88">
         <v>5</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="92">
         <v>2</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
         <v>0.40526315789473683</v>
       </c>
-      <c r="M8" s="109">
+      <c r="M8" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I8*1000+'Light sensor #2'!R_4)</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="N8" s="110">
+      <c r="N8" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J8*1000+'Light sensor #2'!R_3)</f>
         <v>0.85555555555555551</v>
       </c>
-      <c r="O8" s="110">
+      <c r="O8" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J8*1000+'Light sensor #2'!R_4)</f>
         <v>2.9117647058823528</v>
       </c>
@@ -30043,28 +30082,28 @@
       <c r="H9" s="77">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="106">
-        <v>1</v>
-      </c>
-      <c r="J9" s="106">
-        <v>1</v>
-      </c>
-      <c r="K9" s="96" t="s">
+      <c r="I9" s="92">
+        <v>1</v>
+      </c>
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
+      <c r="K9" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="96">
+      <c r="L9" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="M9" s="96">
+      <c r="M9" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="O9" s="110">
+      <c r="O9" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
@@ -30082,28 +30121,28 @@
       <c r="H10" s="77">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="92">
         <v>0</v>
       </c>
-      <c r="J10" s="106">
+      <c r="J10" s="92">
         <v>0</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="L10" s="96">
+      <c r="L10" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M10" s="96">
+      <c r="M10" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N10" s="110">
+      <c r="N10" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O10" s="110">
+      <c r="O10" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
@@ -30112,45 +30151,45 @@
       <c r="H11" s="77">
         <v>107527</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="92">
         <v>0</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="92">
         <v>0</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="L11" s="96">
+      <c r="L11" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="86">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N11" s="110">
+      <c r="N11" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O11" s="110">
+      <c r="O11" s="96">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L12" s="116" t="s">
+      <c r="L12" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="M12" s="113" t="s">
+      <c r="M12" s="99" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="O13" s="114" t="s">
+      <c r="O13" s="100" t="s">
         <v>287</v>
       </c>
     </row>
@@ -30593,7 +30632,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="114" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="47">
@@ -30614,19 +30653,19 @@
       <c r="G5" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -30650,14 +30689,14 @@
       <c r="G6" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
@@ -30665,17 +30704,17 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="115" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="50">
@@ -30701,17 +30740,17 @@
       <c r="G8" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -30735,17 +30774,17 @@
       <c r="G9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -30769,17 +30808,17 @@
       <c r="G10" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -30803,14 +30842,14 @@
       <c r="G11" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
@@ -30818,17 +30857,17 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="114" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="47">
@@ -30849,17 +30888,17 @@
       <c r="G13" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -30883,17 +30922,17 @@
       <c r="G14" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -30917,17 +30956,17 @@
       <c r="G15" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -30951,17 +30990,17 @@
       <c r="G16" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="114" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="50">
@@ -30987,17 +31026,17 @@
       <c r="G17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31021,14 +31060,14 @@
       <c r="G18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
@@ -32,12 +32,12 @@
     <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="312">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Go Right</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Type</t>
@@ -1054,9 +1051,6 @@
     <t>Analog Comparator 1+</t>
   </si>
   <si>
-    <t>Photocell input</t>
-  </si>
-  <si>
     <t>Do not use</t>
   </si>
   <si>
@@ -1257,15 +1251,72 @@
   <si>
     <t>Motor mode select function and invocation, arrange code</t>
   </si>
+  <si>
+    <t>Photocell input right</t>
+  </si>
+  <si>
+    <t>Photocell input left</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>Analog In 0</t>
+  </si>
+  <si>
+    <t>Analog In 2</t>
+  </si>
+  <si>
+    <t>Analog In 1</t>
+  </si>
+  <si>
+    <t>Left photocell input</t>
+  </si>
+  <si>
+    <t>Right photocell input</t>
+  </si>
+  <si>
+    <t>Center photocell input (reference)</t>
+  </si>
+  <si>
+    <t>Test adc</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>Left LED</t>
+  </si>
+  <si>
+    <t>Right LED</t>
+  </si>
+  <si>
+    <t>Center LED</t>
+  </si>
+  <si>
+    <t>Create port and pin mapping defines</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,6 +1532,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1866,7 +1924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1971,7 +2029,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2042,6 +2099,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,6 +2144,16 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6905,7 +6976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6937,10 +7008,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6972,7 +7042,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7148,21 +7217,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -7180,486 +7249,490 @@
       <c r="O1" s="62"/>
       <c r="P1" s="62"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>180</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>241</v>
+        <v>150</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="59"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="62"/>
       <c r="B17" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="62"/>
       <c r="B20" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>224</v>
       </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="62"/>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="62"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="62"/>
       <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>234</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="62"/>
       <c r="B40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="62"/>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="62"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="62"/>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="62"/>
       <c r="B47" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="62"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="62"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="62"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="62"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="62"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="62"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="62"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="62"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="62"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="62"/>
     </row>
   </sheetData>
@@ -7669,14 +7742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7744,7 +7817,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7830,10 +7903,10 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7923,7 +7996,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8013,7 +8086,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8137,7 +8210,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8263,7 +8336,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8381,7 +8454,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8495,7 +8568,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8607,7 +8680,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8721,7 +8794,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8833,7 +8906,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8947,7 +9020,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9107,7 +9180,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9273,7 +9346,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9437,7 +9510,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9591,7 +9664,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9745,7 +9818,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9909,7 +9982,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10077,7 +10150,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10247,7 +10320,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10399,7 +10472,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10529,7 +10602,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10645,7 +10718,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10769,7 +10842,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10893,7 +10966,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11015,7 +11088,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11135,7 +11208,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11253,7 +11326,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11367,7 +11440,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11481,7 +11554,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11591,7 +11664,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11701,7 +11774,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11811,7 +11884,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11921,7 +11994,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12031,7 +12104,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12143,7 +12216,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12257,7 +12330,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12367,7 +12440,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12477,7 +12550,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12581,10 +12654,10 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12682,7 +12755,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12768,10 +12841,10 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12857,10 +12930,10 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -12946,10 +13019,10 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13035,7 +13108,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13121,7 +13194,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13207,7 +13280,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13293,7 +13366,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13379,7 +13452,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13717,7 +13790,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14055,7 +14128,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14393,7 +14466,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14731,7 +14804,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15069,7 +15142,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15419,14 +15492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15495,7 +15568,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15581,7 +15654,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -15668,7 +15741,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15842,7 +15915,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16072,7 +16145,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16274,7 +16347,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16476,7 +16549,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16690,7 +16763,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16906,7 +16979,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17118,7 +17191,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17330,7 +17403,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17556,7 +17629,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17730,7 +17803,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17916,7 +17989,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18114,7 +18187,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18308,7 +18381,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18494,7 +18567,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18686,7 +18759,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18880,7 +18953,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19074,7 +19147,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19256,7 +19329,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19438,7 +19511,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19632,7 +19705,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19820,7 +19893,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20014,7 +20087,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20196,7 +20269,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20241,7 +20314,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -20380,7 +20453,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20606,7 +20679,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20788,7 +20861,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -20970,7 +21043,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21170,7 +21243,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21388,7 +21461,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21576,7 +21649,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21768,7 +21841,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -21960,7 +22033,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22150,7 +22223,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22340,7 +22413,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22532,7 +22605,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22724,7 +22797,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22916,7 +22989,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23018,7 +23091,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CW39" s="10"/>
       <c r="CX39" s="11"/>
@@ -23109,7 +23182,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23333,7 +23406,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23433,7 +23506,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW41" s="10"/>
       <c r="CX41" s="11"/>
@@ -23528,7 +23601,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23662,7 +23735,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CW42" s="10"/>
       <c r="CX42" s="11"/>
@@ -23761,7 +23834,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -23881,7 +23954,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CW43" s="10"/>
       <c r="CX43" s="11"/>
@@ -23984,7 +24057,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24186,7 +24259,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24468,7 +24541,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24646,7 +24719,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24848,7 +24921,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25020,7 +25093,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25358,7 +25431,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25696,7 +25769,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26034,7 +26107,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26372,7 +26445,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26710,7 +26783,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27355,14 +27428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
@@ -27378,7 +27451,7 @@
     <col min="40" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="66"/>
@@ -27415,7 +27488,7 @@
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67">
@@ -27464,7 +27537,7 @@
       <c r="AL2" s="67"/>
       <c r="AM2" s="66"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="65"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -27523,7 +27596,7 @@
       <c r="AL3" s="67"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="65"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67">
@@ -27584,7 +27657,7 @@
       <c r="AL4" s="67"/>
       <c r="AM4" s="66"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="65"/>
       <c r="B5" s="67">
         <v>1</v>
@@ -27649,7 +27722,7 @@
       </c>
       <c r="AM5" s="66"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="65"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67">
@@ -27714,7 +27787,7 @@
       </c>
       <c r="AM6" s="66"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="65"/>
       <c r="B7" s="67">
         <v>1</v>
@@ -27781,7 +27854,7 @@
       <c r="AL7" s="67"/>
       <c r="AM7" s="66"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67">
@@ -27842,7 +27915,7 @@
       <c r="AL8" s="67"/>
       <c r="AM8" s="65"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="65"/>
       <c r="B9" s="67">
         <v>1</v>
@@ -27903,7 +27976,7 @@
       <c r="AL9" s="67"/>
       <c r="AM9" s="65"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -27940,7 +28013,7 @@
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="64" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28042,7 +28115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -28079,7 +28152,7 @@
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -28122,7 +28195,7 @@
       <c r="AL15" s="67"/>
       <c r="AM15" s="66"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -28175,7 +28248,7 @@
       <c r="AL16" s="67"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="65"/>
       <c r="B17" s="67">
         <v>1</v>
@@ -28248,7 +28321,7 @@
       </c>
       <c r="AM17" s="66"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="65"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67">
@@ -28311,7 +28384,7 @@
       </c>
       <c r="AM18" s="66"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="65"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -28362,7 +28435,7 @@
       </c>
       <c r="AM19" s="66"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="65"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -28415,7 +28488,7 @@
       </c>
       <c r="AM20" s="66"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="65"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67">
@@ -28474,7 +28547,7 @@
       <c r="AL21" s="67"/>
       <c r="AM21" s="65"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="65"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -28517,7 +28590,7 @@
       <c r="AL22" s="67"/>
       <c r="AM22" s="65"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -28554,7 +28627,7 @@
       <c r="AL23" s="65"/>
       <c r="AM23" s="65"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="B25" s="64" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28742,104 +28815,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L1" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="70" t="s">
         <v>209</v>
       </c>
+      <c r="M2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>196</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>197</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5" t="s">
         <v>215</v>
       </c>
-      <c r="N5" t="s">
-        <v>216</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" t="s">
         <v>217</v>
       </c>
-      <c r="N6" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="L8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="L9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="L10">
         <v>7</v>
       </c>
@@ -28851,14 +28924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -28869,35 +28942,35 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -28906,10 +28979,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="105"/>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -28918,464 +28991,594 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="105"/>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="105"/>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="60" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>53</v>
-      </c>
       <c r="F5" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="105"/>
+      <c r="B6" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="119"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="105"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="105"/>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="58"/>
+        <v>167</v>
+      </c>
+      <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="105"/>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="58"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="105"/>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="105"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="105"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="78" t="s">
+      <c r="C18" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="78"/>
+      <c r="E18" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="78"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="105"/>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="F22" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" s="1"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="105"/>
+      <c r="B23" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="119"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="105"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="105"/>
+      <c r="B25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="1"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="119"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>15</v>
-      </c>
+    <row r="28" spans="1:8">
+      <c r="A28" s="105"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="105"/>
+      <c r="B29" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="105"/>
+      <c r="B30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="105"/>
+      <c r="B31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="A33" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="105"/>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="75"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="105"/>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="102"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="105"/>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D40" t="s">
         <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B11:H14"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A18"/>
+  <mergeCells count="9">
+    <mergeCell ref="B12:H15"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29384,342 +29587,342 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="80">
-        <v>1</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="82">
+        <v>256</v>
+      </c>
+      <c r="B1" s="79">
+        <v>1</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="81">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>1000</v>
       </c>
-      <c r="E1" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="105" t="s">
+      <c r="E1" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="113"/>
+      <c r="K1" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="110" t="s">
-        <v>278</v>
-      </c>
-      <c r="M1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="80">
+        <v>250</v>
+      </c>
+      <c r="B2" s="79">
         <v>300</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="82">
+      <c r="C2" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="81">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>300000</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="110"/>
+      <c r="I2" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="107"/>
+      <c r="L2" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="80">
+      <c r="B3" s="79">
         <v>5</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="82">
+      <c r="C3" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="81">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E3" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="85" t="s">
+      <c r="E3" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="111" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="M3" s="113"/>
       <c r="P3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="80">
-        <v>1</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="82">
+        <v>252</v>
+      </c>
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="81">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="77">
+      <c r="E4" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="76">
         <v>0</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="91">
         <v>500</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="91">
         <v>500</v>
       </c>
-      <c r="K4" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" s="86">
+      <c r="K4" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="85">
         <f t="shared" ref="L4:M11" si="1">((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>0.6875</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="85">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
       <c r="P4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="80">
+        <v>253</v>
+      </c>
+      <c r="B5" s="79">
         <v>3.3</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>256</v>
+      <c r="C5" s="82" t="s">
+        <v>254</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="77">
-        <v>1</v>
-      </c>
-      <c r="I5" s="92">
+      <c r="H5" s="76">
+        <v>1</v>
+      </c>
+      <c r="I5" s="91">
         <v>500</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="87">
         <v>500</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="L5" s="86">
+      <c r="K5" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="85">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="85">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H6" s="77">
+    <row r="6" spans="1:17">
+      <c r="H6" s="76">
         <v>10.75</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="87">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="87">
         <v>48</v>
       </c>
-      <c r="K6" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="86">
+      <c r="K6" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="85">
         <f t="shared" si="1"/>
         <v>2.5008474576271187</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="85">
         <f t="shared" si="1"/>
         <v>2.2948275862068965</v>
       </c>
-      <c r="P6" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q6" s="90"/>
+      <c r="P6" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q6" s="89"/>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="84">
+        <v>255</v>
+      </c>
+      <c r="B7" s="83">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>2.7390365448504981</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="77">
+      <c r="C7" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="76">
         <v>21.52</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <v>10</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="87">
         <v>24</v>
       </c>
-      <c r="K7" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="86">
+      <c r="K7" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="85">
         <f t="shared" si="1"/>
         <v>2.6435483870967742</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="85">
         <f t="shared" si="1"/>
         <v>2.5055555555555555</v>
       </c>
-      <c r="P7" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q7" s="91"/>
+      <c r="P7" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H8" s="77">
+    <row r="8" spans="1:17">
+      <c r="H8" s="76">
         <v>107.53</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="87">
         <v>5</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="91">
         <v>0</v>
       </c>
-      <c r="K8" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="86">
+      <c r="K8" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="85">
         <f t="shared" si="1"/>
         <v>2.6959016393442621</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="77">
+        <v>261</v>
+      </c>
+      <c r="H9" s="76">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="91">
         <v>0</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="91">
         <v>0</v>
       </c>
-      <c r="K9" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="L9" s="86">
+      <c r="K9" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="91">
         <v>0</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="91">
         <v>0</v>
       </c>
-      <c r="K10" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="86">
+      <c r="K10" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="77">
+    <row r="11" spans="1:17">
+      <c r="H11" s="76">
         <v>107527</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="91">
         <v>0</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="91">
         <v>0</v>
       </c>
-      <c r="K11" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="86">
+      <c r="K11" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="85">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
@@ -29745,14 +29948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29761,436 +29964,436 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="93">
+        <v>256</v>
+      </c>
+      <c r="B1" s="92">
         <v>0</v>
       </c>
-      <c r="C1" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="82">
+      <c r="C1" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="81">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>288</v>
-      </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110" t="s">
-        <v>283</v>
-      </c>
-      <c r="O1" s="110"/>
+      <c r="E1" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="113"/>
+      <c r="K1" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="111"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="93">
+        <v>250</v>
+      </c>
+      <c r="B2" s="92">
         <v>0</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="82">
+      <c r="C2" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="81">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="M2" s="85" t="s">
+      <c r="E2" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="110"/>
+      <c r="I2" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="107"/>
+      <c r="L2" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N2" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="85" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="97">
+      <c r="B3" s="96">
         <v>0.7</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="82">
+      <c r="C3" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="81">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E3" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="85" t="s">
+      <c r="E3" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="111" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="113"/>
       <c r="T3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="97">
+        <v>283</v>
+      </c>
+      <c r="B4" s="96">
         <v>15</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="82">
+      <c r="C4" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="81">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="77">
+      <c r="E4" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="76">
         <v>0</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="91">
         <v>500</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="91">
         <v>500</v>
       </c>
-      <c r="K4" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" s="95">
+      <c r="K4" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
       <c r="T4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18">
       <c r="A5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="80">
+        <v>253</v>
+      </c>
+      <c r="B5" s="79">
         <v>3.3</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>256</v>
+      <c r="C5" s="82" t="s">
+        <v>254</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="77">
-        <v>1</v>
-      </c>
-      <c r="I5" s="92">
+      <c r="H5" s="76">
+        <v>1</v>
+      </c>
+      <c r="I5" s="91">
         <v>500</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="87">
         <v>500</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="L5" s="95">
+      <c r="K5" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N5" s="95">
+      <c r="N5" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H6" s="77">
+    <row r="6" spans="1:21">
+      <c r="H6" s="76">
         <v>10.75</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="87">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="87">
         <v>48</v>
       </c>
-      <c r="K6" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="95">
+      <c r="K6" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I6*1000+'Light sensor #2'!R_4)</f>
         <v>1.2531645569620253</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J6*1000+'Light sensor #2'!R_3)</f>
         <v>4.7433264887063654E-2</v>
       </c>
-      <c r="O6" s="95">
+      <c r="O6" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J6*1000+'Light sensor #2'!R_4)</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="T6" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="U6" s="90"/>
+      <c r="T6" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="U6" s="89"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18">
       <c r="A7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="84" t="e">
+        <v>255</v>
+      </c>
+      <c r="B7" s="83" t="e">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="77">
+      <c r="C7" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="76">
         <v>21.52</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <v>10</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="87">
         <v>24</v>
       </c>
-      <c r="K7" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="95">
+      <c r="K7" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
         <v>0.21588785046728973</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I7*1000+'Light sensor #2'!R_4)</f>
         <v>1.98</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J7*1000+'Light sensor #2'!R_3)</f>
         <v>9.352226720647773E-2</v>
       </c>
-      <c r="O7" s="95">
+      <c r="O7" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J7*1000+'Light sensor #2'!R_4)</f>
         <v>1.2692307692307692</v>
       </c>
-      <c r="T7" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="U7" s="91"/>
+      <c r="T7" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="U7" s="90"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H8" s="77">
+    <row r="8" spans="1:21">
+      <c r="H8" s="76">
         <v>107.53</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="87">
         <v>5</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="91">
         <v>2</v>
       </c>
-      <c r="K8" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="95">
+      <c r="K8" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
         <v>0.40526315789473683</v>
       </c>
-      <c r="M8" s="95">
+      <c r="M8" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I8*1000+'Light sensor #2'!R_4)</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J8*1000+'Light sensor #2'!R_3)</f>
         <v>0.85555555555555551</v>
       </c>
-      <c r="O8" s="96">
+      <c r="O8" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J8*1000+'Light sensor #2'!R_4)</f>
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="77">
+        <v>261</v>
+      </c>
+      <c r="H9" s="76">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="92">
-        <v>1</v>
-      </c>
-      <c r="J9" s="92">
-        <v>1</v>
-      </c>
-      <c r="K9" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="L9" s="86">
+      <c r="I9" s="91">
+        <v>1</v>
+      </c>
+      <c r="J9" s="91">
+        <v>1</v>
+      </c>
+      <c r="K9" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="O9" s="96">
+      <c r="O9" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="91">
         <v>0</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="91">
         <v>0</v>
       </c>
-      <c r="K10" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="86">
+      <c r="K10" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N10" s="96">
+      <c r="N10" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O10" s="96">
+      <c r="O10" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H11" s="77">
+    <row r="11" spans="1:21">
+      <c r="H11" s="76">
         <v>107527</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="91">
         <v>0</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="91">
         <v>0</v>
       </c>
-      <c r="K11" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="86">
+      <c r="K11" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="95">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L12" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="M12" s="99" t="s">
-        <v>286</v>
+    <row r="12" spans="1:21">
+      <c r="L12" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="O13" s="100" t="s">
+    <row r="13" spans="1:21">
+      <c r="N13" s="100" t="s">
         <v>287</v>
+      </c>
+      <c r="O13" s="99" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30418,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -30246,14 +30449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30265,189 +30468,189 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="39">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="44">
         <f>B1*10^3</f>
         <v>1000</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="43">
         <f>D1*10^3</f>
         <v>1000000</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="42">
         <f>D1*10^6</f>
         <v>1000000000</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="45">
         <f>1/B1</f>
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="44">
         <f>B2/10^3</f>
         <v>1E-3</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="43">
         <f>B2/10^6</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="42">
         <f>F2/10^3</f>
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="41">
         <f>(F3*10^6)</f>
         <v>13333333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="40">
         <f>B3/10^3</f>
         <v>13333.333000000001</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="39">
         <f>13333333/1000000</f>
         <v>13.333333</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="37">
         <f>F3/10^3</f>
         <v>1.3333332999999999E-2</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="35">
         <f>1/B3</f>
         <v>7.5000001875000043E-8</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="34">
         <f>B4*10^3</f>
         <v>7.500000187500004E-5</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="33">
         <f>D4*10^3</f>
         <v>7.5000001875000041E-2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="32">
         <f>B4*10^9</f>
         <v>75.000001875000038</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="29">
         <f>(H1/H4)-1</f>
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>DEC2HEX(B6)</f>
@@ -30455,37 +30658,37 @@
       </c>
       <c r="C7" s="68"/>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8">
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30500,13 +30703,13 @@
         <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30518,15 +30721,15 @@
         <v>639</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -30536,14 +30739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -30552,29 +30755,29 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="46" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>111</v>
       </c>
       <c r="B2" s="47">
         <v>42</v>
@@ -30593,12 +30796,12 @@
         <v>42</v>
       </c>
       <c r="G2" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="46" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="B3" s="50">
         <f>PI()*B2</f>
@@ -30621,19 +30824,19 @@
         <v>131.94689145077132</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
-        <v>114</v>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="115" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="47">
         <v>50</v>
@@ -30651,21 +30854,21 @@
         <v>250</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="116" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
+        <v>114</v>
+      </c>
+      <c r="I5" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="115"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -30687,35 +30890,35 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
+        <v>115</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
-        <v>117</v>
+    <row r="8" spans="1:16">
+      <c r="A8" s="116" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="50">
         <f>B3*B6</f>
@@ -30738,19 +30941,19 @@
         <v>549.77871437821386</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
+        <v>117</v>
+      </c>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="116"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -30772,19 +30975,19 @@
         <v>54.977871437821385</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
+        <v>118</v>
+      </c>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="116"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -30806,19 +31009,19 @@
         <v>0.54977871437821391</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
+        <v>119</v>
+      </c>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="116"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -30840,35 +31043,35 @@
         <v>1.97920337176157</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
+        <v>120</v>
+      </c>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
-        <v>122</v>
+    <row r="13" spans="1:16">
+      <c r="A13" s="115" t="s">
+        <v>121</v>
       </c>
       <c r="B13" s="47">
         <v>32</v>
@@ -30886,19 +31089,19 @@
         <v>7</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
+        <v>122</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="115"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -30920,19 +31123,19 @@
         <v>4.9430863999999998E-2</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
+        <v>123</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="115"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -30954,19 +31157,19 @@
         <v>49.430864</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
+        <v>138</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="115"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -30988,20 +31191,20 @@
         <v>49.430864</v>
       </c>
       <c r="G16" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="115" t="s">
         <v>125</v>
-      </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
-        <v>126</v>
       </c>
       <c r="B17" s="50">
         <f>B16/(B2/2)</f>
@@ -31024,19 +31227,19 @@
         <v>2.3538506666666668</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
+        <v>126</v>
+      </c>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="115"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31058,60 +31261,60 @@
         <v>0.23994400271831465</v>
       </c>
       <c r="G18" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -31132,14 +31335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -31207,7 +31410,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -31246,21 +31449,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20">
@@ -31270,34 +31473,34 @@
         <v>0</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="48" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20">
@@ -31307,7 +31510,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20">
@@ -31320,25 +31523,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -31347,18 +31550,18 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="48" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="20">
@@ -31371,19 +31574,19 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="20"/>
       <c r="H6" s="20"/>
@@ -31393,21 +31596,21 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
       <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24">
@@ -31417,7 +31620,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="24">
         <v>5</v>
@@ -31428,7 +31631,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1312,11 +1312,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,11 +2103,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2144,16 +2154,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6976,7 +6976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7008,9 +7008,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7042,6 +7043,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7217,21 +7219,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -7249,7 +7251,7 @@
       <c r="O1" s="62"/>
       <c r="P1" s="62"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
         <v>178</v>
@@ -7258,10 +7260,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
@@ -7273,7 +7275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
         <v>175</v>
@@ -7285,7 +7287,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
         <v>175</v>
@@ -7297,7 +7299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
         <v>175</v>
@@ -7309,7 +7311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
         <v>175</v>
@@ -7321,7 +7323,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
         <v>175</v>
@@ -7330,7 +7332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
         <v>175</v>
@@ -7339,7 +7341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
         <v>175</v>
@@ -7348,7 +7350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
         <v>175</v>
@@ -7358,7 +7360,7 @@
       </c>
       <c r="E12" s="59"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
         <v>175</v>
@@ -7367,7 +7369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
         <v>175</v>
@@ -7376,7 +7378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
@@ -7388,7 +7390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
         <v>175</v>
@@ -7400,7 +7402,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="46" t="s">
         <v>175</v>
@@ -7409,7 +7411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
         <v>175</v>
@@ -7418,7 +7420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
         <v>175</v>
@@ -7430,7 +7432,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="46" t="s">
         <v>175</v>
@@ -7439,7 +7441,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
         <v>175</v>
@@ -7451,7 +7453,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
         <v>175</v>
@@ -7460,7 +7462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
         <v>175</v>
@@ -7469,7 +7471,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
         <v>175</v>
@@ -7478,7 +7480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>226</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>226</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
         <v>175</v>
@@ -7512,7 +7514,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
         <v>175</v>
@@ -7521,7 +7523,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
         <v>175</v>
@@ -7530,7 +7532,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -7539,7 +7541,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="1" t="s">
         <v>175</v>
@@ -7548,7 +7550,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
         <v>175</v>
@@ -7557,10 +7559,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="62"/>
       <c r="B34" s="1" t="s">
         <v>162</v>
@@ -7569,7 +7571,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
         <v>162</v>
@@ -7578,7 +7580,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
         <v>227</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>227</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
         <v>227</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>227</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="1" t="s">
         <v>162</v>
@@ -7631,7 +7633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
         <v>162</v>
@@ -7640,7 +7642,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>227</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="62"/>
       <c r="B43" s="1" t="s">
         <v>165</v>
@@ -7660,10 +7662,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>227</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="1" t="s">
         <v>172</v>
@@ -7683,7 +7685,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="62"/>
       <c r="B47" s="46" t="s">
         <v>172</v>
@@ -7692,47 +7694,47 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="62"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="62"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="62"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="62"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
     </row>
   </sheetData>
@@ -7742,14 +7744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7817,7 +7819,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7906,7 +7908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7996,7 +7998,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8086,7 +8088,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8336,7 +8338,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8454,7 +8456,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8568,7 +8570,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8680,7 +8682,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8794,7 +8796,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8906,7 +8908,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -9020,7 +9022,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9180,7 +9182,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9346,7 +9348,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9510,7 +9512,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9664,7 +9666,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9818,7 +9820,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9982,7 +9984,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10150,7 +10152,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10320,7 +10322,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10472,7 +10474,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10602,7 +10604,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10718,7 +10720,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10842,7 +10844,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10966,7 +10968,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11088,7 +11090,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11208,7 +11210,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11326,7 +11328,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11440,7 +11442,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11554,7 +11556,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11664,7 +11666,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11774,7 +11776,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11884,7 +11886,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11994,7 +11996,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12104,7 +12106,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12216,7 +12218,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12330,7 +12332,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12440,7 +12442,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12550,7 +12552,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12657,7 +12659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12755,7 +12757,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12844,7 +12846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12933,7 +12935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13022,7 +13024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13108,7 +13110,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13194,7 +13196,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13280,7 +13282,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13366,7 +13368,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13452,7 +13454,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13790,7 +13792,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14128,7 +14130,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14466,7 +14468,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14804,7 +14806,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15142,7 +15144,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15492,14 +15494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15568,7 +15570,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15741,7 +15743,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15915,7 +15917,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16145,7 +16147,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16347,7 +16349,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16549,7 +16551,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16763,7 +16765,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16979,7 +16981,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17191,7 +17193,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17403,7 +17405,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17629,7 +17631,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17803,7 +17805,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17989,7 +17991,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18187,7 +18189,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18381,7 +18383,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18567,7 +18569,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18759,7 +18761,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18953,7 +18955,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19147,7 +19149,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19329,7 +19331,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19511,7 +19513,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19705,7 +19707,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19893,7 +19895,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20087,7 +20089,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20269,7 +20271,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20453,7 +20455,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20679,7 +20681,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20861,7 +20863,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -21043,7 +21045,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21243,7 +21245,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21461,7 +21463,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21649,7 +21651,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21841,7 +21843,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -22033,7 +22035,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22223,7 +22225,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22413,7 +22415,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22605,7 +22607,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22797,7 +22799,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22989,7 +22991,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23182,7 +23184,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23406,7 +23408,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23601,7 +23603,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23834,7 +23836,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24057,7 +24059,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24259,7 +24261,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24541,7 +24543,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24719,7 +24721,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24921,7 +24923,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25093,7 +25095,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25431,7 +25433,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25769,7 +25771,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26107,7 +26109,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26445,7 +26447,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26783,7 +26785,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27428,14 +27430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
@@ -27451,7 +27453,7 @@
     <col min="40" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="66"/>
@@ -27488,7 +27490,7 @@
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67">
@@ -27537,7 +27539,7 @@
       <c r="AL2" s="67"/>
       <c r="AM2" s="66"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -27596,7 +27598,7 @@
       <c r="AL3" s="67"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67">
@@ -27657,7 +27659,7 @@
       <c r="AL4" s="67"/>
       <c r="AM4" s="66"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="67">
         <v>1</v>
@@ -27722,7 +27724,7 @@
       </c>
       <c r="AM5" s="66"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67">
@@ -27787,7 +27789,7 @@
       </c>
       <c r="AM6" s="66"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="67">
         <v>1</v>
@@ -27854,7 +27856,7 @@
       <c r="AL7" s="67"/>
       <c r="AM7" s="66"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67">
@@ -27915,7 +27917,7 @@
       <c r="AL8" s="67"/>
       <c r="AM8" s="65"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="67">
         <v>1</v>
@@ -27976,7 +27978,7 @@
       <c r="AL9" s="67"/>
       <c r="AM9" s="65"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -28013,7 +28015,7 @@
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28115,7 +28117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -28152,7 +28154,7 @@
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -28195,7 +28197,7 @@
       <c r="AL15" s="67"/>
       <c r="AM15" s="66"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -28248,7 +28250,7 @@
       <c r="AL16" s="67"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="67">
         <v>1</v>
@@ -28321,7 +28323,7 @@
       </c>
       <c r="AM17" s="66"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67">
@@ -28384,7 +28386,7 @@
       </c>
       <c r="AM18" s="66"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -28435,7 +28437,7 @@
       </c>
       <c r="AM19" s="66"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -28488,7 +28490,7 @@
       </c>
       <c r="AM20" s="66"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67">
@@ -28547,7 +28549,7 @@
       <c r="AL21" s="67"/>
       <c r="AM21" s="65"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -28590,7 +28592,7 @@
       <c r="AL22" s="67"/>
       <c r="AM22" s="65"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -28627,7 +28629,7 @@
       <c r="AL23" s="65"/>
       <c r="AM23" s="65"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="64" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28815,20 +28817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>190</v>
       </c>
@@ -28836,7 +28838,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -28850,7 +28852,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -28861,7 +28863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -28872,7 +28874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>191</v>
       </c>
@@ -28886,7 +28888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L6">
         <v>3</v>
       </c>
@@ -28897,22 +28899,22 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L10">
         <v>7</v>
       </c>
@@ -28924,14 +28926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -28942,7 +28944,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -28965,8 +28967,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -28979,8 +28981,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -28991,8 +28993,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -29013,8 +29015,8 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="105"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -29035,9 +29037,9 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="120" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="75" t="s">
@@ -29047,13 +29049,13 @@
       <c r="E6" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="F6" s="119"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="121"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29063,8 +29065,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="105"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -29085,8 +29087,8 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -29107,8 +29109,8 @@
       </c>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="105"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -29129,52 +29131,52 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="105"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="105"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="105"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="105"/>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
       <c r="B16" s="77" t="s">
         <v>243</v>
       </c>
@@ -29189,8 +29191,8 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="105"/>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
       <c r="B17" s="77" t="s">
         <v>244</v>
       </c>
@@ -29200,15 +29202,15 @@
       <c r="D17" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="104" t="s">
         <v>293</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="105"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
       <c r="B18" s="77" t="s">
         <v>33</v>
       </c>
@@ -29218,15 +29220,15 @@
       <c r="D18" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="104" t="s">
         <v>294</v>
       </c>
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
       <c r="H18" s="78"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="A19" s="105"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
       <c r="B19" s="77" t="s">
         <v>34</v>
       </c>
@@ -29245,8 +29247,8 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="105" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="107" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -29269,8 +29271,8 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="105"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -29291,9 +29293,9 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="105"/>
-      <c r="B23" s="120" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108" t="s">
         <v>307</v>
       </c>
       <c r="C23" s="75" t="s">
@@ -29303,13 +29305,13 @@
       <c r="E23" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="F23" s="119"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="75"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="105"/>
-      <c r="B24" s="121"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -29317,8 +29319,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="105"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
       <c r="B25" s="1" t="s">
         <v>288</v>
       </c>
@@ -29339,11 +29341,11 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="105" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="108" t="s">
         <v>296</v>
       </c>
       <c r="C27" s="75" t="s">
@@ -29353,13 +29355,13 @@
       <c r="E27" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="F27" s="119"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="75"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="105"/>
-      <c r="B28" s="121"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="107"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -29367,8 +29369,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="105"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="107"/>
       <c r="B29" s="1" t="s">
         <v>297</v>
       </c>
@@ -29387,8 +29389,8 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="105"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
       <c r="B30" s="1" t="s">
         <v>298</v>
       </c>
@@ -29407,8 +29409,8 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="105"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="107"/>
       <c r="B31" s="1" t="s">
         <v>299</v>
       </c>
@@ -29427,8 +29429,8 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
-      <c r="A33" s="105" t="s">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="107" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -29449,8 +29451,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="105"/>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="107"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -29469,8 +29471,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="105"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="107"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
@@ -29491,8 +29493,8 @@
       </c>
       <c r="H35" s="75"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="105"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="107"/>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -29513,8 +29515,8 @@
       </c>
       <c r="H36" s="102"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="105"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -29533,7 +29535,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -29544,7 +29546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -29571,14 +29573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29587,7 +29589,7 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29604,22 +29606,22 @@
       <c r="E1" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="106" t="s">
+      <c r="J1" s="117"/>
+      <c r="K1" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="111"/>
+      <c r="M1" s="115"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -29636,14 +29638,14 @@
       <c r="E2" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="84" t="s">
         <v>272</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="107"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="84" t="s">
         <v>272</v>
       </c>
@@ -29651,7 +29653,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
@@ -29671,20 +29673,20 @@
       <c r="H3" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="116" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="112" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="117"/>
       <c r="P3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -29725,7 +29727,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -29758,7 +29760,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -29785,7 +29787,7 @@
       </c>
       <c r="Q6" s="89"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -29821,7 +29823,7 @@
       </c>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -29843,7 +29845,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -29874,7 +29876,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -29905,7 +29907,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -29948,14 +29950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29964,7 +29966,7 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29981,26 +29983,26 @@
       <c r="E1" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="106" t="s">
+      <c r="J1" s="117"/>
+      <c r="K1" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111" t="s">
+      <c r="M1" s="115"/>
+      <c r="N1" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="111"/>
+      <c r="O1" s="115"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -30017,14 +30019,14 @@
       <c r="E2" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="84" t="s">
         <v>272</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="107"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="84" t="s">
         <v>279</v>
       </c>
@@ -30038,7 +30040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
@@ -30058,22 +30060,22 @@
       <c r="H3" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="116" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="112" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="113"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="117"/>
       <c r="T3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
@@ -30122,7 +30124,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -30163,7 +30165,7 @@
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -30198,7 +30200,7 @@
       </c>
       <c r="U6" s="89"/>
     </row>
-    <row r="7" spans="1:21" ht="18">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -30242,7 +30244,7 @@
       </c>
       <c r="U7" s="90"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -30272,7 +30274,7 @@
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -30311,7 +30313,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -30350,7 +30352,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -30380,7 +30382,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="101" t="s">
         <v>287</v>
       </c>
@@ -30388,7 +30390,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N13" s="100" t="s">
         <v>287</v>
       </c>
@@ -30418,26 +30420,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -30449,14 +30451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30468,7 +30470,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>104</v>
       </c>
@@ -30503,7 +30505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
@@ -30544,7 +30546,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
@@ -30585,7 +30587,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>92</v>
       </c>
@@ -30626,13 +30628,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>85</v>
       </c>
@@ -30648,7 +30650,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>83</v>
       </c>
@@ -30665,7 +30667,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>194</v>
       </c>
@@ -30673,22 +30675,22 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30709,7 +30711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30727,7 +30729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>187</v>
       </c>
@@ -30739,14 +30741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -30755,7 +30757,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
@@ -30775,7 +30777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>110</v>
       </c>
@@ -30799,7 +30801,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>112</v>
       </c>
@@ -30827,15 +30829,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="115" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="47">
@@ -30856,19 +30858,19 @@
       <c r="G5" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="119"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -30892,32 +30894,32 @@
       <c r="G6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="120" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="50">
@@ -30943,17 +30945,17 @@
       <c r="G8" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -30977,17 +30979,17 @@
       <c r="G9" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -31011,17 +31013,17 @@
       <c r="G10" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="120"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -31045,32 +31047,32 @@
       <c r="G11" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="115" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="119" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="47">
@@ -31091,17 +31093,17 @@
       <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="115"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="119"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -31125,17 +31127,17 @@
       <c r="G14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="115"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="119"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -31159,17 +31161,17 @@
       <c r="G15" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="115"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -31193,17 +31195,17 @@
       <c r="G16" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="115" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="50">
@@ -31229,17 +31231,17 @@
       <c r="G17" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="115"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="119"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31263,16 +31265,16 @@
       <c r="G18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -31289,22 +31291,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -31312,7 +31314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>136</v>
       </c>
@@ -31335,14 +31337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -31410,7 +31412,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -31449,7 +31451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -31486,7 +31488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1">
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -31523,7 +31525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1">
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -31550,7 +31552,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -31574,7 +31576,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1">
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>69</v>
@@ -31596,7 +31598,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -31631,7 +31633,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
@@ -32,12 +32,12 @@
     <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="311">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1291,45 +1291,34 @@
     <t>Center photocell input (reference)</t>
   </si>
   <si>
-    <t>Test adc</t>
-  </si>
-  <si>
     <t>PD6</t>
   </si>
   <si>
-    <t>Left LED</t>
+    <t>Create port and pin mapping defines</t>
   </si>
   <si>
-    <t>Right LED</t>
+    <t>ADC1 - Sequencer 3 - Chanel 0</t>
   </si>
   <si>
-    <t>Center LED</t>
+    <t>ADC1 - Sequencer 2 - Chanel 2</t>
   </si>
   <si>
-    <t>Create port and pin mapping defines</t>
+    <t>ADC1 - Sequencer 1 - Chanel 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1922,26 +1911,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1951,62 +1940,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
@@ -2019,19 +2008,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2045,13 +2034,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2076,7 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,7 +2077,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -2099,18 +2088,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2119,31 +2107,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2152,7 +2140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6976,7 +6964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7008,10 +6996,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7043,7 +7030,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7219,21 +7205,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -7251,7 +7237,7 @@
       <c r="O1" s="62"/>
       <c r="P1" s="62"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
         <v>178</v>
@@ -7260,10 +7246,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
@@ -7275,7 +7261,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
         <v>175</v>
@@ -7287,7 +7273,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
         <v>175</v>
@@ -7299,7 +7285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
         <v>175</v>
@@ -7311,7 +7297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
         <v>175</v>
@@ -7323,7 +7309,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
         <v>175</v>
@@ -7332,7 +7318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
         <v>175</v>
@@ -7341,7 +7327,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
         <v>175</v>
@@ -7350,7 +7336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="62"/>
       <c r="B12" s="1" t="s">
         <v>175</v>
@@ -7360,7 +7346,7 @@
       </c>
       <c r="E12" s="59"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
         <v>175</v>
@@ -7369,7 +7355,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
         <v>175</v>
@@ -7378,7 +7364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
@@ -7390,7 +7376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
         <v>175</v>
@@ -7402,7 +7388,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="62"/>
       <c r="B17" s="46" t="s">
         <v>175</v>
@@ -7411,7 +7397,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
         <v>175</v>
@@ -7420,7 +7406,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="62"/>
       <c r="B19" s="1" t="s">
         <v>175</v>
@@ -7432,7 +7418,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="62"/>
       <c r="B20" s="46" t="s">
         <v>175</v>
@@ -7441,7 +7427,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
         <v>175</v>
@@ -7453,7 +7439,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
         <v>175</v>
@@ -7462,7 +7448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
         <v>175</v>
@@ -7471,7 +7457,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
         <v>175</v>
@@ -7480,7 +7466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="62" t="s">
         <v>226</v>
       </c>
@@ -7491,7 +7477,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="62" t="s">
         <v>226</v>
       </c>
@@ -7505,7 +7491,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
         <v>175</v>
@@ -7514,7 +7500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
         <v>175</v>
@@ -7523,7 +7509,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
         <v>175</v>
@@ -7532,7 +7518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -7541,7 +7527,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="62"/>
       <c r="B31" s="1" t="s">
         <v>175</v>
@@ -7550,7 +7536,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
         <v>175</v>
@@ -7559,10 +7545,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="62"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="62"/>
       <c r="B34" s="1" t="s">
         <v>162</v>
@@ -7571,7 +7557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
         <v>162</v>
@@ -7580,7 +7566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="62" t="s">
         <v>227</v>
       </c>
@@ -7591,7 +7577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="62" t="s">
         <v>227</v>
       </c>
@@ -7602,7 +7588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="62" t="s">
         <v>227</v>
       </c>
@@ -7613,7 +7599,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="62" t="s">
         <v>227</v>
       </c>
@@ -7624,7 +7610,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="62"/>
       <c r="B40" s="1" t="s">
         <v>162</v>
@@ -7633,7 +7619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="62"/>
       <c r="B41" s="1" t="s">
         <v>162</v>
@@ -7642,7 +7628,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="62" t="s">
         <v>227</v>
       </c>
@@ -7653,7 +7639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="62"/>
       <c r="B43" s="1" t="s">
         <v>165</v>
@@ -7662,10 +7648,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="62"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="62" t="s">
         <v>227</v>
       </c>
@@ -7676,7 +7662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="62"/>
       <c r="B46" s="1" t="s">
         <v>172</v>
@@ -7685,7 +7671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="62"/>
       <c r="B47" s="46" t="s">
         <v>172</v>
@@ -7694,47 +7680,47 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="62"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="62"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="62"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="62"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="62"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="62"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="62"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="62"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="62"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="62"/>
     </row>
   </sheetData>
@@ -7744,14 +7730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7819,7 +7805,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7908,7 +7894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7998,7 +7984,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8088,7 +8074,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8212,7 +8198,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8338,7 +8324,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8456,7 +8442,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8570,7 +8556,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8682,7 +8668,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8796,7 +8782,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8908,7 +8894,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -9022,7 +9008,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9182,7 +9168,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9348,7 +9334,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9512,7 +9498,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9666,7 +9652,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9820,7 +9806,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9984,7 +9970,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10152,7 +10138,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10322,7 +10308,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10474,7 +10460,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10604,7 +10590,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10720,7 +10706,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10844,7 +10830,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10968,7 +10954,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11090,7 +11076,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11210,7 +11196,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11328,7 +11314,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11442,7 +11428,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11556,7 +11542,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11666,7 +11652,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11776,7 +11762,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11886,7 +11872,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11996,7 +11982,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12106,7 +12092,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12218,7 +12204,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12332,7 +12318,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12442,7 +12428,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12552,7 +12538,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12659,7 +12645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12757,7 +12743,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12846,7 +12832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12935,7 +12921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13024,7 +13010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13110,7 +13096,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13196,7 +13182,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13282,7 +13268,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13368,7 +13354,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13454,7 +13440,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13792,7 +13778,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14130,7 +14116,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14468,7 +14454,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14806,7 +14792,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15144,7 +15130,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15494,14 +15480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15570,7 +15556,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15743,7 +15729,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15917,7 +15903,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16147,7 +16133,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16349,7 +16335,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16551,7 +16537,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16765,7 +16751,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16981,7 +16967,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17193,7 +17179,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17405,7 +17391,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17631,7 +17617,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17805,7 +17791,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17991,7 +17977,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18189,7 +18175,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18383,7 +18369,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18569,7 +18555,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18761,7 +18747,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18955,7 +18941,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19149,7 +19135,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19331,7 +19317,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19513,7 +19499,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19707,7 +19693,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19895,7 +19881,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20089,7 +20075,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20271,7 +20257,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20455,7 +20441,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20681,7 +20667,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20863,7 +20849,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -21045,7 +21031,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21245,7 +21231,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21463,7 +21449,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21651,7 +21637,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21843,7 +21829,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -22035,7 +22021,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22225,7 +22211,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22415,7 +22401,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22607,7 +22593,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22799,7 +22785,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22991,7 +22977,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23184,7 +23170,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23408,7 +23394,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23603,7 +23589,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23836,7 +23822,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24059,7 +24045,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24261,7 +24247,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24543,7 +24529,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24721,7 +24707,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24923,7 +24909,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25095,7 +25081,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25433,7 +25419,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25771,7 +25757,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26109,7 +26095,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26447,7 +26433,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26785,7 +26771,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27430,14 +27416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
@@ -27453,7 +27439,7 @@
     <col min="40" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="66"/>
@@ -27490,7 +27476,7 @@
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67">
@@ -27539,7 +27525,7 @@
       <c r="AL2" s="67"/>
       <c r="AM2" s="66"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="65"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -27598,7 +27584,7 @@
       <c r="AL3" s="67"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="65"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67">
@@ -27659,7 +27645,7 @@
       <c r="AL4" s="67"/>
       <c r="AM4" s="66"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="65"/>
       <c r="B5" s="67">
         <v>1</v>
@@ -27724,7 +27710,7 @@
       </c>
       <c r="AM5" s="66"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="65"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67">
@@ -27789,7 +27775,7 @@
       </c>
       <c r="AM6" s="66"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="65"/>
       <c r="B7" s="67">
         <v>1</v>
@@ -27856,7 +27842,7 @@
       <c r="AL7" s="67"/>
       <c r="AM7" s="66"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67">
@@ -27917,7 +27903,7 @@
       <c r="AL8" s="67"/>
       <c r="AM8" s="65"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="65"/>
       <c r="B9" s="67">
         <v>1</v>
@@ -27978,7 +27964,7 @@
       <c r="AL9" s="67"/>
       <c r="AM9" s="65"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -28015,7 +28001,7 @@
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="64" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28117,7 +28103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -28154,7 +28140,7 @@
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -28197,7 +28183,7 @@
       <c r="AL15" s="67"/>
       <c r="AM15" s="66"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -28250,7 +28236,7 @@
       <c r="AL16" s="67"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="65"/>
       <c r="B17" s="67">
         <v>1</v>
@@ -28323,7 +28309,7 @@
       </c>
       <c r="AM17" s="66"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="65"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67">
@@ -28386,7 +28372,7 @@
       </c>
       <c r="AM18" s="66"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="65"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -28437,7 +28423,7 @@
       </c>
       <c r="AM19" s="66"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="65"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -28490,7 +28476,7 @@
       </c>
       <c r="AM20" s="66"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="65"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67">
@@ -28549,7 +28535,7 @@
       <c r="AL21" s="67"/>
       <c r="AM21" s="65"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="65"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -28592,7 +28578,7 @@
       <c r="AL22" s="67"/>
       <c r="AM22" s="65"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -28629,7 +28615,7 @@
       <c r="AL23" s="65"/>
       <c r="AM23" s="65"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="B25" s="64" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28817,20 +28803,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="69" t="s">
         <v>190</v>
       </c>
@@ -28838,7 +28824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -28852,7 +28838,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -28863,7 +28849,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="L4">
         <v>1</v>
       </c>
@@ -28874,7 +28860,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="69" t="s">
         <v>191</v>
       </c>
@@ -28888,7 +28874,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="L6">
         <v>3</v>
       </c>
@@ -28899,22 +28885,22 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="L8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="L9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="L10">
         <v>7</v>
       </c>
@@ -28926,14 +28912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -28944,7 +28930,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -28967,8 +28953,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -28981,8 +28967,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="106"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -28993,8 +28979,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="106"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -29015,8 +29001,8 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="106"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -29037,25 +29023,21 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="106"/>
+      <c r="B6" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="109"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="106"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29065,8 +29047,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="106"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -29087,8 +29069,8 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="106"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -29109,8 +29091,8 @@
       </c>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="106"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -29131,52 +29113,52 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="106"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="106"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="106"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
         <v>243</v>
       </c>
@@ -29191,8 +29173,8 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="106"/>
       <c r="B17" s="77" t="s">
         <v>244</v>
       </c>
@@ -29209,8 +29191,8 @@
       <c r="G17" s="103"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="106"/>
       <c r="B18" s="77" t="s">
         <v>33</v>
       </c>
@@ -29227,8 +29209,8 @@
       <c r="G18" s="103"/>
       <c r="H18" s="78"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="106"/>
       <c r="B19" s="77" t="s">
         <v>34</v>
       </c>
@@ -29247,8 +29229,8 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="106" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -29271,8 +29253,8 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="106"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -29293,25 +29275,21 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108" t="s">
-        <v>307</v>
-      </c>
-      <c r="C23" s="75" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="106"/>
+      <c r="B23" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="106"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -29319,8 +29297,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="106"/>
       <c r="B25" s="1" t="s">
         <v>288</v>
       </c>
@@ -29341,27 +29319,23 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="107" t="s">
         <v>296</v>
       </c>
-      <c r="C27" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="F27" s="105"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="106"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -29369,8 +29343,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="106"/>
       <c r="B29" s="1" t="s">
         <v>297</v>
       </c>
@@ -29383,14 +29357,16 @@
       <c r="E29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="106"/>
       <c r="B30" s="1" t="s">
         <v>298</v>
       </c>
@@ -29403,14 +29379,16 @@
       <c r="E30" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="106"/>
       <c r="B31" s="1" t="s">
         <v>299</v>
       </c>
@@ -29423,14 +29401,16 @@
       <c r="E31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107" t="s">
+    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="A33" s="106" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -29451,8 +29431,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="A34" s="106"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -29471,8 +29451,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="106"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
@@ -29493,8 +29473,8 @@
       </c>
       <c r="H35" s="75"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="106"/>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -29515,8 +29495,8 @@
       </c>
       <c r="H36" s="102"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="106"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -29535,7 +29515,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -29546,7 +29526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -29573,14 +29553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29589,7 +29569,7 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29606,22 +29586,22 @@
       <c r="E1" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="110" t="s">
+      <c r="J1" s="116"/>
+      <c r="K1" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="115"/>
+      <c r="M1" s="114"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -29638,14 +29618,14 @@
       <c r="E2" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="114"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="84" t="s">
         <v>272</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
         <v>272</v>
       </c>
@@ -29653,7 +29633,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
@@ -29673,20 +29653,20 @@
       <c r="H3" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="116" t="s">
+      <c r="J3" s="116"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="M3" s="117"/>
+      <c r="M3" s="116"/>
       <c r="P3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -29727,7 +29707,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -29760,7 +29740,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -29787,7 +29767,7 @@
       </c>
       <c r="Q6" s="89"/>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -29823,7 +29803,7 @@
       </c>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -29845,7 +29825,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -29876,7 +29856,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -29907,7 +29887,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -29950,14 +29930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29966,7 +29946,7 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29983,26 +29963,26 @@
       <c r="E1" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="110" t="s">
+      <c r="J1" s="116"/>
+      <c r="K1" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115" t="s">
+      <c r="M1" s="114"/>
+      <c r="N1" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="115"/>
+      <c r="O1" s="114"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -30019,14 +29999,14 @@
       <c r="E2" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="114"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="84" t="s">
         <v>272</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
         <v>279</v>
       </c>
@@ -30040,7 +30020,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
@@ -30060,22 +30040,22 @@
       <c r="H3" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="116" t="s">
+      <c r="J3" s="116"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="116"/>
       <c r="T3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
@@ -30124,7 +30104,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -30165,7 +30145,7 @@
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -30200,7 +30180,7 @@
       </c>
       <c r="U6" s="89"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -30244,7 +30224,7 @@
       </c>
       <c r="U7" s="90"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -30274,7 +30254,7 @@
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -30313,7 +30293,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -30352,7 +30332,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -30382,7 +30362,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="L12" s="101" t="s">
         <v>287</v>
       </c>
@@ -30390,7 +30370,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="N13" s="100" t="s">
         <v>287</v>
       </c>
@@ -30420,26 +30400,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -30451,14 +30431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30470,7 +30450,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>104</v>
       </c>
@@ -30505,7 +30485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
@@ -30546,7 +30526,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
@@ -30587,7 +30567,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
         <v>92</v>
       </c>
@@ -30628,13 +30608,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
         <v>85</v>
       </c>
@@ -30650,7 +30630,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
         <v>83</v>
       </c>
@@ -30667,7 +30647,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="D8" t="s">
         <v>194</v>
       </c>
@@ -30675,22 +30655,22 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30711,7 +30691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30729,7 +30709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
         <v>187</v>
       </c>
@@ -30741,14 +30721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -30757,7 +30737,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
@@ -30777,7 +30757,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="46" t="s">
         <v>110</v>
       </c>
@@ -30801,7 +30781,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="46" t="s">
         <v>112</v>
       </c>
@@ -30829,15 +30809,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="118" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="47">
@@ -30858,19 +30838,19 @@
       <c r="G5" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="118"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -30894,32 +30874,32 @@
       <c r="G6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="119" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="50">
@@ -30945,17 +30925,17 @@
       <c r="G8" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="119"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -30979,17 +30959,17 @@
       <c r="G9" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="119"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -31013,17 +30993,17 @@
       <c r="G10" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="119"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -31047,32 +31027,32 @@
       <c r="G11" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="118" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="47">
@@ -31093,17 +31073,17 @@
       <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="118"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -31127,17 +31107,17 @@
       <c r="G14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="118"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -31161,17 +31141,17 @@
       <c r="G15" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="118"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -31195,17 +31175,17 @@
       <c r="G16" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="118" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="50">
@@ -31231,17 +31211,17 @@
       <c r="G17" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="118"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31265,16 +31245,16 @@
       <c r="G18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -31291,22 +31271,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -31314,7 +31294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
         <v>136</v>
       </c>
@@ -31337,14 +31317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -31412,7 +31392,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -31451,7 +31431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -31488,7 +31468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="48" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -31525,7 +31505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -31552,7 +31532,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="48" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -31576,7 +31556,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>69</v>
@@ -31598,7 +31578,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -31633,7 +31613,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,43 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="859"/>
   </bookViews>
   <sheets>
-    <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
-    <sheet name="Sys setup" sheetId="13" r:id="rId2"/>
-    <sheet name="Pin Layout" sheetId="1" r:id="rId3"/>
-    <sheet name="Light sensor #1" sheetId="15" r:id="rId4"/>
-    <sheet name="Light sensor #2" sheetId="16" r:id="rId5"/>
-    <sheet name="SW layout" sheetId="11" r:id="rId6"/>
-    <sheet name="Timer Reload Value" sheetId="8" r:id="rId7"/>
-    <sheet name="Motor calc" sheetId="9" r:id="rId8"/>
-    <sheet name="LCD text test" sheetId="7" r:id="rId9"/>
-    <sheet name="Images Hex Gen" sheetId="5" r:id="rId10"/>
-    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId11"/>
-    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId12"/>
+    <sheet name="Terms and abreviations" sheetId="17" r:id="rId1"/>
+    <sheet name="To Do!!!" sheetId="10" r:id="rId2"/>
+    <sheet name="Sys setup" sheetId="13" r:id="rId3"/>
+    <sheet name="Pin Layout" sheetId="1" r:id="rId4"/>
+    <sheet name="Light sensor #1" sheetId="15" r:id="rId5"/>
+    <sheet name="Light sensor #2" sheetId="16" r:id="rId6"/>
+    <sheet name="SW layout" sheetId="11" r:id="rId7"/>
+    <sheet name="Timer Reload Value" sheetId="8" r:id="rId8"/>
+    <sheet name="Motor calc" sheetId="9" r:id="rId9"/>
+    <sheet name="LCD text test" sheetId="7" r:id="rId10"/>
+    <sheet name="Images Hex Gen" sheetId="5" r:id="rId11"/>
+    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId12"/>
+    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="R_1" localSheetId="4">'Light sensor #2'!$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Terms and abreviations'!$A$1:$B$7</definedName>
+    <definedName name="R_1" localSheetId="5">'Light sensor #2'!$D$1</definedName>
     <definedName name="R_1">'Light sensor #1'!$D$1</definedName>
-    <definedName name="R_2" localSheetId="4">'Light sensor #2'!$D$2</definedName>
+    <definedName name="R_2" localSheetId="5">'Light sensor #2'!$D$2</definedName>
     <definedName name="R_2">'Light sensor #1'!$D$2</definedName>
-    <definedName name="R_3" localSheetId="4">'Light sensor #2'!$D$3</definedName>
+    <definedName name="R_3" localSheetId="5">'Light sensor #2'!$D$3</definedName>
     <definedName name="R_3">'Light sensor #1'!$D$3</definedName>
-    <definedName name="R_4" localSheetId="4">'Light sensor #2'!$D$4</definedName>
+    <definedName name="R_4" localSheetId="5">'Light sensor #2'!$D$4</definedName>
     <definedName name="R_4">'Light sensor #1'!$D$4</definedName>
-    <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
+    <definedName name="V_in" localSheetId="5">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="324">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1305,15 +1307,54 @@
   <si>
     <t>ADC1 - Sequencer 1 - Chanel 1</t>
   </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Lx</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Middle, Mid</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>BckW</t>
+  </si>
+  <si>
+    <t>Backword</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Duty cycle</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6964,7 +7005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6996,9 +7037,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7030,6 +7072,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7205,539 +7248,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="62"/>
-      <c r="B2" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="62"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="62"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="62"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="62"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="62"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="62"/>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="62"/>
-      <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="62"/>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="62"/>
-      <c r="B11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="62"/>
-      <c r="B12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="62"/>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="62"/>
-      <c r="B14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="62"/>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="62"/>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="62"/>
-      <c r="B17" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="62"/>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="62"/>
-      <c r="B20" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="62"/>
-      <c r="B22" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="62"/>
-      <c r="B23" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="62"/>
-      <c r="B24" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="62"/>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="62"/>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="62"/>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="62"/>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="62"/>
-      <c r="B31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="62"/>
-      <c r="B32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="62"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="62"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="62"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="62"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="62"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="62"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="62"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="62"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="62"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="62"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="62"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="62"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B7">
+    <sortState ref="A2:B7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="F2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="8.140625" customWidth="1"/>
+    <col min="258" max="269" width="8.140625" customWidth="1"/>
+    <col min="514" max="525" width="8.140625" customWidth="1"/>
+    <col min="770" max="781" width="8.140625" customWidth="1"/>
+    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
+    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
+    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
+    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
+    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
+    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
+    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
+    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
+    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
+    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
+    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
+    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
+    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
+    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
+    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
+    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
+    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
+    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
+    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
+    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
+    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
+    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
+    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
+    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
+    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
+    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
+    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
+    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
+    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
+    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
+    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
+    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
+    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
+    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
+    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
+    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
+    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
+    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
+    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
+    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
+    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
+    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
+    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
+    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
+    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
+    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
+    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
+    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
+    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
+    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
+    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
+    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
+    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
+    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
+    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
+    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
+    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
+    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
+    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
+    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7805,7 +7730,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7894,7 +7819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7984,7 +7909,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8074,7 +7999,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8198,7 +8123,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8324,7 +8249,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8442,7 +8367,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8556,7 +8481,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8668,7 +8593,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8782,7 +8707,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8894,7 +8819,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -9008,7 +8933,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9168,7 +9093,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9334,7 +9259,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9498,7 +9423,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9652,7 +9577,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9806,7 +9731,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9970,7 +9895,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10138,7 +10063,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10308,7 +10233,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10460,7 +10385,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10590,7 +10515,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10706,7 +10631,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10830,7 +10755,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10954,7 +10879,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11076,7 +11001,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11196,7 +11121,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11314,7 +11239,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11428,7 +11353,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11542,7 +11467,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11652,7 +11577,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11762,7 +11687,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11872,7 +11797,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11982,7 +11907,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12092,7 +12017,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12204,7 +12129,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12318,7 +12243,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12428,7 +12353,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12538,7 +12463,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12645,7 +12570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12743,7 +12668,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12832,7 +12757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12921,7 +12846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13010,7 +12935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13096,7 +13021,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13182,7 +13107,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13268,7 +13193,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13354,7 +13279,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13440,7 +13365,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13778,7 +13703,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14116,7 +14041,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14454,7 +14379,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14792,7 +14717,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15130,7 +15055,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15479,15 +15404,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15556,7 +15481,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15729,7 +15654,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15903,7 +15828,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16133,7 +16058,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16335,7 +16260,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16537,7 +16462,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16751,7 +16676,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16967,7 +16892,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17179,7 +17104,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17391,7 +17316,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17617,7 +17542,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17791,7 +17716,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17977,7 +17902,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18175,7 +18100,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18369,7 +18294,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18555,7 +18480,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18747,7 +18672,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18941,7 +18866,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19135,7 +19060,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19317,7 +19242,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19499,7 +19424,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19693,7 +19618,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19881,7 +19806,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20075,7 +20000,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20257,7 +20182,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20441,7 +20366,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20667,7 +20592,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20849,7 +20774,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -21031,7 +20956,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21231,7 +21156,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21449,7 +21374,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21637,7 +21562,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21829,7 +21754,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -22021,7 +21946,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22211,7 +22136,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22401,7 +22326,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22593,7 +22518,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22785,7 +22710,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22977,7 +22902,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23170,7 +23095,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23394,7 +23319,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23589,7 +23514,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23822,7 +23747,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24045,7 +23970,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24247,7 +24172,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24529,7 +24454,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24707,7 +24632,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24909,7 +24834,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25081,7 +25006,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25419,7 +25344,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25757,7 +25682,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26095,7 +26020,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26433,7 +26358,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26771,7 +26696,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27415,15 +27340,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
@@ -27439,7 +27364,7 @@
     <col min="40" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
       <c r="C1" s="66"/>
@@ -27476,7 +27401,7 @@
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67">
@@ -27525,7 +27450,7 @@
       <c r="AL2" s="67"/>
       <c r="AM2" s="66"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -27584,7 +27509,7 @@
       <c r="AL3" s="67"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67">
@@ -27645,7 +27570,7 @@
       <c r="AL4" s="67"/>
       <c r="AM4" s="66"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="67">
         <v>1</v>
@@ -27710,7 +27635,7 @@
       </c>
       <c r="AM5" s="66"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67">
@@ -27775,7 +27700,7 @@
       </c>
       <c r="AM6" s="66"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="67">
         <v>1</v>
@@ -27842,7 +27767,7 @@
       <c r="AL7" s="67"/>
       <c r="AM7" s="66"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67">
@@ -27903,7 +27828,7 @@
       <c r="AL8" s="67"/>
       <c r="AM8" s="65"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="67">
         <v>1</v>
@@ -27964,7 +27889,7 @@
       <c r="AL9" s="67"/>
       <c r="AM9" s="65"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -28001,7 +27926,7 @@
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28103,7 +28028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
@@ -28140,7 +28065,7 @@
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -28183,7 +28108,7 @@
       <c r="AL15" s="67"/>
       <c r="AM15" s="66"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -28236,7 +28161,7 @@
       <c r="AL16" s="67"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="67">
         <v>1</v>
@@ -28309,7 +28234,7 @@
       </c>
       <c r="AM17" s="66"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67">
@@ -28372,7 +28297,7 @@
       </c>
       <c r="AM18" s="66"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -28423,7 +28348,7 @@
       </c>
       <c r="AM19" s="66"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -28476,7 +28401,7 @@
       </c>
       <c r="AM20" s="66"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67">
@@ -28535,7 +28460,7 @@
       <c r="AL21" s="67"/>
       <c r="AM21" s="65"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -28578,7 +28503,7 @@
       <c r="AL22" s="67"/>
       <c r="AM22" s="65"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -28615,7 +28540,7 @@
       <c r="AL23" s="65"/>
       <c r="AM23" s="65"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="64" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28803,107 +28728,523 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>216</v>
-      </c>
-      <c r="N6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="L7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="L8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="L9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="L10">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
+      <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="62"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28912,14 +29253,123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -28930,7 +29380,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -28953,7 +29403,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="106" t="s">
         <v>38</v>
       </c>
@@ -28967,7 +29417,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="106"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
@@ -28979,7 +29429,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -29001,7 +29451,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="106"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
@@ -29023,7 +29473,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="106"/>
       <c r="B6" s="107" t="s">
         <v>43</v>
@@ -29035,7 +29485,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106"/>
       <c r="B7" s="108"/>
       <c r="C7" s="1"/>
@@ -29047,7 +29497,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="106"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -29069,7 +29519,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="106"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
@@ -29091,7 +29541,7 @@
       </c>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="106"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -29113,7 +29563,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
         <v>32</v>
       </c>
@@ -29127,7 +29577,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="105"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="106"/>
       <c r="B13" s="105"/>
       <c r="C13" s="105"/>
@@ -29137,7 +29587,7 @@
       <c r="G13" s="105"/>
       <c r="H13" s="105"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="106"/>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
@@ -29147,7 +29597,7 @@
       <c r="G14" s="105"/>
       <c r="H14" s="105"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="106"/>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -29157,7 +29607,7 @@
       <c r="G15" s="105"/>
       <c r="H15" s="105"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
         <v>243</v>
@@ -29173,7 +29623,7 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="106"/>
       <c r="B17" s="77" t="s">
         <v>244</v>
@@ -29191,7 +29641,7 @@
       <c r="G17" s="103"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="106"/>
       <c r="B18" s="77" t="s">
         <v>33</v>
@@ -29209,7 +29659,7 @@
       <c r="G18" s="103"/>
       <c r="H18" s="78"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="106"/>
       <c r="B19" s="77" t="s">
         <v>34</v>
@@ -29229,7 +29679,7 @@
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
         <v>30</v>
       </c>
@@ -29253,7 +29703,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="106"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -29275,7 +29725,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="106"/>
       <c r="B23" s="107" t="s">
         <v>306</v>
@@ -29287,7 +29737,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="1"/>
@@ -29297,7 +29747,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="106"/>
       <c r="B25" s="1" t="s">
         <v>288</v>
@@ -29319,7 +29769,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>295</v>
       </c>
@@ -29333,7 +29783,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="1"/>
@@ -29343,7 +29793,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
       <c r="B29" s="1" t="s">
         <v>297</v>
@@ -29365,7 +29815,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="106"/>
       <c r="B30" s="1" t="s">
         <v>298</v>
@@ -29387,7 +29837,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="106"/>
       <c r="B31" s="1" t="s">
         <v>299</v>
@@ -29409,7 +29859,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="106" t="s">
         <v>31</v>
       </c>
@@ -29431,7 +29881,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="106"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -29451,7 +29901,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="106"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
@@ -29473,7 +29923,7 @@
       </c>
       <c r="H35" s="75"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="106"/>
       <c r="B36" s="4" t="s">
         <v>10</v>
@@ -29495,7 +29945,7 @@
       </c>
       <c r="H36" s="102"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="106"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -29515,7 +29965,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -29526,7 +29976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -29552,15 +30002,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29569,7 +30019,7 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29601,7 +30051,7 @@
       </c>
       <c r="M1" s="114"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -29633,7 +30083,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
@@ -29666,7 +30116,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -29707,7 +30157,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -29740,7 +30190,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -29767,7 +30217,7 @@
       </c>
       <c r="Q6" s="89"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -29803,7 +30253,7 @@
       </c>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -29825,7 +30275,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -29856,7 +30306,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -29887,7 +30337,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -29929,15 +30379,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29946,7 +30396,7 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -29982,7 +30432,7 @@
       </c>
       <c r="O1" s="114"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -30020,7 +30470,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
@@ -30055,7 +30505,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
@@ -30104,7 +30554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -30145,7 +30595,7 @@
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H6" s="76">
         <v>10.75</v>
       </c>
@@ -30180,7 +30630,7 @@
       </c>
       <c r="U6" s="89"/>
     </row>
-    <row r="7" spans="1:21" ht="18">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>255</v>
       </c>
@@ -30224,7 +30674,7 @@
       </c>
       <c r="U7" s="90"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H8" s="76">
         <v>107.53</v>
       </c>
@@ -30254,7 +30704,7 @@
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -30293,7 +30743,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -30332,7 +30782,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" s="76">
         <v>107527</v>
       </c>
@@ -30362,7 +30812,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="101" t="s">
         <v>287</v>
       </c>
@@ -30370,7 +30820,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N13" s="100" t="s">
         <v>287</v>
       </c>
@@ -30399,27 +30849,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -30430,15 +30880,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30450,7 +30900,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>104</v>
       </c>
@@ -30485,7 +30935,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
@@ -30526,7 +30976,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
@@ -30567,7 +31017,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>92</v>
       </c>
@@ -30608,13 +31058,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>85</v>
       </c>
@@ -30630,7 +31080,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>83</v>
       </c>
@@ -30647,7 +31097,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>194</v>
       </c>
@@ -30655,22 +31105,22 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30691,7 +31141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30709,7 +31159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>187</v>
       </c>
@@ -30720,15 +31170,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -30737,7 +31187,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
@@ -30757,7 +31207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>110</v>
       </c>
@@ -30781,7 +31231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>112</v>
       </c>
@@ -30809,14 +31259,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>113</v>
       </c>
@@ -30849,7 +31299,7 @@
       <c r="O5" s="120"/>
       <c r="P5" s="120"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
       <c r="B6" s="50">
         <f>B5/60</f>
@@ -30883,7 +31333,7 @@
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -30898,7 +31348,7 @@
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>116</v>
       </c>
@@ -30934,7 +31384,7 @@
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="119"/>
       <c r="B9" s="50">
         <f>B8/10</f>
@@ -30968,7 +31418,7 @@
       <c r="O9" s="120"/>
       <c r="P9" s="120"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="119"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
@@ -31002,7 +31452,7 @@
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="119"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
@@ -31036,7 +31486,7 @@
       <c r="O11" s="120"/>
       <c r="P11" s="120"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -31051,7 +31501,7 @@
       <c r="O12" s="120"/>
       <c r="P12" s="120"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>121</v>
       </c>
@@ -31082,7 +31532,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="118"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
@@ -31116,7 +31566,7 @@
       <c r="O14" s="120"/>
       <c r="P14" s="120"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="118"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
@@ -31150,7 +31600,7 @@
       <c r="O15" s="120"/>
       <c r="P15" s="120"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="118"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
@@ -31184,7 +31634,7 @@
       <c r="O16" s="120"/>
       <c r="P16" s="120"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="118" t="s">
         <v>125</v>
       </c>
@@ -31220,7 +31670,7 @@
       <c r="O17" s="120"/>
       <c r="P17" s="120"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="118"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
@@ -31254,7 +31704,7 @@
       <c r="O18" s="120"/>
       <c r="P18" s="120"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -31271,22 +31721,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -31294,7 +31744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>136</v>
       </c>
@@ -31314,307 +31764,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="F2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="13" width="8.140625" customWidth="1"/>
-    <col min="258" max="269" width="8.140625" customWidth="1"/>
-    <col min="514" max="525" width="8.140625" customWidth="1"/>
-    <col min="770" max="781" width="8.140625" customWidth="1"/>
-    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
-    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
-    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
-    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
-    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
-    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
-    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
-    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
-    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
-    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
-    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
-    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
-    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
-    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
-    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
-    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
-    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
-    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
-    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
-    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
-    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
-    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
-    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
-    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
-    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
-    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
-    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
-    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
-    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
-    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
-    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
-    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
-    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
-    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
-    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
-    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
-    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
-    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
-    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
-    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
-    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
-    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
-    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
-    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
-    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
-    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
-    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
-    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
-    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
-    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
-    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
-    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
-    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
-    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
-    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
-    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
-    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
-    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
-    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
-    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18">
-        <v>10</v>
-      </c>
-      <c r="M1" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="24">
-        <v>5</v>
-      </c>
-      <c r="K7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="859"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="859" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Terms and abreviations" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="329">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1035,9 +1035,6 @@
     <t>Eliminate</t>
   </si>
   <si>
-    <t>Create Analog Comparator Input function for controling movement</t>
-  </si>
-  <si>
     <t>GPIO - Level Interrupt</t>
   </si>
   <si>
@@ -1345,6 +1342,24 @@
   </si>
   <si>
     <t>term</t>
+  </si>
+  <si>
+    <t>Create Analog Input function for controling movement</t>
+  </si>
+  <si>
+    <t>Review code for obsolete functions / modules</t>
+  </si>
+  <si>
+    <t>Add HW averaging to ADC</t>
+  </si>
+  <si>
+    <t>Rewrite ADC to use only one sequencer</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2183,6 +2198,30 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7251,7 +7290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7263,31 +7302,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>215</v>
@@ -7295,26 +7334,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -27345,7 +27384,7 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AY48" sqref="AY48"/>
+      <selection activeCell="EE94" sqref="EE94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28729,20 +28768,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -28759,494 +28798,577 @@
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
       <c r="P1" s="62"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="G5" s="58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="G7" s="46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="G8" s="75" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="58" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="121" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="122"/>
+      <c r="D11" s="58" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="46"/>
+      <c r="D12" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="126"/>
+      <c r="D13" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="127"/>
+      <c r="D14" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="127"/>
+      <c r="D15" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="58" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="46"/>
+      <c r="D21" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="46"/>
+      <c r="D22" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="58" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="60" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="124"/>
+      <c r="D31" s="58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="62"/>
       <c r="B32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="124"/>
+      <c r="D32" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="124"/>
+      <c r="D33" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="62"/>
       <c r="B34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="C34" s="125"/>
+      <c r="D34" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="62"/>
       <c r="B35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
-        <v>227</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
       <c r="B37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
-        <v>227</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
       <c r="B38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>227</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>227</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>227</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="62"/>
       <c r="B43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="60" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="46" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C50" s="46"/>
+      <c r="D50" s="58" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="62"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="62"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="62"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="62"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="62"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -29568,7 +29690,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -29610,13 +29732,13 @@
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="106"/>
       <c r="B16" s="77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -29626,16 +29748,16 @@
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="106"/>
       <c r="B17" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
@@ -29653,7 +29775,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
@@ -29728,7 +29850,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="106"/>
       <c r="B23" s="107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -29750,7 +29872,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="106"/>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -29759,22 +29881,22 @@
         <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="G25" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="107" t="s">
         <v>295</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>296</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -29796,19 +29918,19 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
@@ -29818,19 +29940,19 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="106"/>
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
@@ -29840,19 +29962,19 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="106"/>
       <c r="B31" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
@@ -29870,7 +29992,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2</v>
@@ -29954,7 +30076,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>4</v>
@@ -30021,117 +30143,117 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="79">
         <v>1</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="81">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>1000</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L1" s="114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="79">
         <v>300</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="81">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>300000</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H2" s="113"/>
       <c r="I2" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>272</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>273</v>
       </c>
       <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="84" t="s">
         <v>272</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="79">
         <v>5</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="81">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="116"/>
       <c r="K3" s="111"/>
       <c r="L3" s="115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M3" s="116"/>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="79">
         <v>1</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="81">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="76">
         <v>0</v>
@@ -30143,7 +30265,7 @@
         <v>500</v>
       </c>
       <c r="K4" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" s="85">
         <f t="shared" ref="L4:M11" si="1">((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
@@ -30154,18 +30276,18 @@
         <v>0.6875</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="79">
         <v>3.3</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30179,7 +30301,7 @@
         <v>500</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L5" s="85">
         <f t="shared" si="1"/>
@@ -30202,7 +30324,7 @@
         <v>48</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L6" s="85">
         <f t="shared" si="1"/>
@@ -30213,20 +30335,20 @@
         <v>2.2948275862068965</v>
       </c>
       <c r="P6" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="89"/>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="83">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>2.7390365448504981</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H7" s="76">
         <v>21.52</v>
@@ -30238,7 +30360,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L7" s="85">
         <f t="shared" si="1"/>
@@ -30249,7 +30371,7 @@
         <v>2.5055555555555555</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="90"/>
     </row>
@@ -30264,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L8" s="85">
         <f t="shared" si="1"/>
@@ -30277,13 +30399,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
         <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
       </c>
       <c r="H9" s="76">
         <v>1075.3</v>
@@ -30295,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" s="85">
         <f t="shared" si="1"/>
@@ -30308,10 +30430,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -30326,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="85">
         <f t="shared" si="1"/>
@@ -30348,7 +30470,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" s="85">
         <f t="shared" si="1"/>
@@ -30398,129 +30520,129 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="92">
         <v>0</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="81">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>0</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L1" s="114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M1" s="114"/>
       <c r="N1" s="114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="92">
         <v>0</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="81">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>0</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H2" s="113"/>
       <c r="I2" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>272</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>273</v>
       </c>
       <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>280</v>
-      </c>
       <c r="N2" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="84" t="s">
         <v>279</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="96">
         <v>0.7</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="81">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="116"/>
       <c r="K3" s="111"/>
       <c r="L3" s="115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
       <c r="O3" s="116"/>
       <c r="T3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="96">
         <v>15</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="81">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="76">
         <v>0</v>
@@ -30532,7 +30654,7 @@
         <v>500</v>
       </c>
       <c r="K4" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
@@ -30551,18 +30673,18 @@
         <v>9.6116504854368928E-2</v>
       </c>
       <c r="T4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="79">
         <v>3.3</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30576,7 +30698,7 @@
         <v>500</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L5" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
@@ -30607,7 +30729,7 @@
         <v>48</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L6" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
@@ -30626,20 +30748,20 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="T6" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U6" s="89"/>
     </row>
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="83" t="e">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H7" s="76">
         <v>21.52</v>
@@ -30651,7 +30773,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L7" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
@@ -30670,7 +30792,7 @@
         <v>1.2692307692307692</v>
       </c>
       <c r="T7" s="90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U7" s="90"/>
     </row>
@@ -30685,7 +30807,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L8" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
@@ -30706,13 +30828,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
         <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
       </c>
       <c r="H9" s="76">
         <v>1075.3</v>
@@ -30724,7 +30846,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
@@ -30745,10 +30867,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -30763,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
@@ -30793,7 +30915,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" s="85">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
@@ -30814,18 +30936,18 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N13" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O13" s="99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -30853,7 +30975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,45 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="859" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Terms and abreviations" sheetId="17" r:id="rId1"/>
-    <sheet name="To Do!!!" sheetId="10" r:id="rId2"/>
-    <sheet name="Sys setup" sheetId="13" r:id="rId3"/>
-    <sheet name="Pin Layout" sheetId="1" r:id="rId4"/>
-    <sheet name="Light sensor #1" sheetId="15" r:id="rId5"/>
-    <sheet name="Light sensor #2" sheetId="16" r:id="rId6"/>
-    <sheet name="SW layout" sheetId="11" r:id="rId7"/>
-    <sheet name="Timer Reload Value" sheetId="8" r:id="rId8"/>
-    <sheet name="Motor calc" sheetId="9" r:id="rId9"/>
-    <sheet name="LCD text test" sheetId="7" r:id="rId10"/>
-    <sheet name="Images Hex Gen" sheetId="5" r:id="rId11"/>
-    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId12"/>
-    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId13"/>
+    <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
+    <sheet name="Sys setup" sheetId="13" r:id="rId2"/>
+    <sheet name="Pin Layout" sheetId="1" r:id="rId3"/>
+    <sheet name="Light sensor #1" sheetId="15" r:id="rId4"/>
+    <sheet name="Light sensor #2" sheetId="16" r:id="rId5"/>
+    <sheet name="SW layout" sheetId="11" r:id="rId6"/>
+    <sheet name="Timer Reload Value" sheetId="8" r:id="rId7"/>
+    <sheet name="Motor calc" sheetId="9" r:id="rId8"/>
+    <sheet name="LCD text test" sheetId="7" r:id="rId9"/>
+    <sheet name="Images Hex Gen" sheetId="5" r:id="rId10"/>
+    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId11"/>
+    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Terms and abreviations'!$A$1:$B$7</definedName>
-    <definedName name="R_1" localSheetId="5">'Light sensor #2'!$D$1</definedName>
+    <definedName name="R_1" localSheetId="4">'Light sensor #2'!$D$1</definedName>
     <definedName name="R_1">'Light sensor #1'!$D$1</definedName>
-    <definedName name="R_2" localSheetId="5">'Light sensor #2'!$D$2</definedName>
+    <definedName name="R_2" localSheetId="4">'Light sensor #2'!$D$2</definedName>
     <definedName name="R_2">'Light sensor #1'!$D$2</definedName>
-    <definedName name="R_3" localSheetId="5">'Light sensor #2'!$D$3</definedName>
+    <definedName name="R_3" localSheetId="4">'Light sensor #2'!$D$3</definedName>
     <definedName name="R_3">'Light sensor #1'!$D$3</definedName>
-    <definedName name="R_4" localSheetId="5">'Light sensor #2'!$D$4</definedName>
+    <definedName name="R_4" localSheetId="4">'Light sensor #2'!$D$4</definedName>
     <definedName name="R_4">'Light sensor #1'!$D$4</definedName>
-    <definedName name="V_in" localSheetId="5">'Light sensor #2'!$B$5</definedName>
+    <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="286">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -675,21 +673,6 @@
     <t>mN*m</t>
   </si>
   <si>
-    <t>GPIO service to toggle PF1</t>
-  </si>
-  <si>
-    <t>Replace statemants in cyclic activity app with service call</t>
-  </si>
-  <si>
-    <t>PWM for reverse</t>
-  </si>
-  <si>
-    <t>Service for 50ms cyclic activities</t>
-  </si>
-  <si>
-    <t>Code for 2s, 5s and 10s cyclic activities</t>
-  </si>
-  <si>
     <t>WIP</t>
   </si>
   <si>
@@ -699,16 +682,10 @@
     <t>Error!!!</t>
   </si>
   <si>
-    <t>Replace LCD driver with TivaWare API &amp; own driver</t>
-  </si>
-  <si>
     <t>Normal Function LED</t>
   </si>
   <si>
     <t>Toggle every second, 20% duty cycle</t>
-  </si>
-  <si>
-    <t>PWM for PF1 toggle (20% duty cycle) M1PWM5 - Generator 2</t>
   </si>
   <si>
     <t>Mechanical design</t>
@@ -730,18 +707,6 @@
   </si>
   <si>
     <t>M1 PWM5 - Gen 2</t>
-  </si>
-  <si>
-    <t>Universal delay function with interrupts disabled</t>
-  </si>
-  <si>
-    <t>Universal delay function without interrupts disabled</t>
-  </si>
-  <si>
-    <t>Function to set clock</t>
-  </si>
-  <si>
-    <t>Function to obtain clock</t>
   </si>
   <si>
     <t>HW</t>
@@ -798,34 +763,16 @@
     <t>To Do Description</t>
   </si>
   <si>
-    <t>SSI Clock source, data rate and data width</t>
-  </si>
-  <si>
-    <t>GPIO mapping and handleing for PA6 and PA7</t>
-  </si>
-  <si>
     <t>Application layer:</t>
   </si>
   <si>
     <t>Service layer:</t>
   </si>
   <si>
-    <t>Startup module to contain all initializations</t>
-  </si>
-  <si>
     <t>Driver layer</t>
   </si>
   <si>
-    <t>Pull down resistors for PA6 and PA7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Create System Config module and Use SysCtlClockSet and SysCtlClockGet</t>
-  </si>
-  <si>
-    <t>Delete old SYSCFG_clock_get function</t>
   </si>
   <si>
     <t>Clock config</t>
@@ -849,31 +796,7 @@
     <t>SysCtlClockSet(SYSCTL_SYSDIV_15 | SYSCTL_USE_PLL | SYSCTL_XTAL_16MHZ| SYSCTL_OSC_MAIN);</t>
   </si>
   <si>
-    <t>System 13.33 MHz, 3.125 Mbits/second, 8 bit data width</t>
-  </si>
-  <si>
-    <t>In System handler SYS_startup()</t>
-  </si>
-  <si>
-    <t>Macro in System handler</t>
-  </si>
-  <si>
-    <t>Function in System handler</t>
-  </si>
-  <si>
-    <t>Fix LCD driver init</t>
-  </si>
-  <si>
-    <t>Cyclic activity for 50, 100, 200 and 500 ms</t>
-  </si>
-  <si>
     <t>Create interrupt priority table</t>
-  </si>
-  <si>
-    <t>Solve interrupt priorities</t>
-  </si>
-  <si>
-    <t>Function to calculate timer &amp; PWM period for freq based on clock</t>
   </si>
   <si>
     <t>q</t>
@@ -1020,19 +943,13 @@
     <t>Update Software arhitecture layout</t>
   </si>
   <si>
-    <t>SSI service for wifi communication through NRF</t>
-  </si>
-  <si>
-    <t>CAN service</t>
-  </si>
-  <si>
-    <t>Toggle PF2 and PF3 with PWM on / off, commanded by 2nd uC through CAN</t>
-  </si>
-  <si>
     <t>GPIO</t>
   </si>
   <si>
     <t>Eliminate</t>
+  </si>
+  <si>
+    <t>Create Analog Comparator Input function for controling movement</t>
   </si>
   <si>
     <t>GPIO - Level Interrupt</t>
@@ -1305,71 +1222,23 @@
     <t>ADC1 - Sequencer 1 - Chanel 1</t>
   </si>
   <si>
-    <t>Mx</t>
+    <t>Temperature sensor</t>
   </si>
   <si>
-    <t>Rx</t>
+    <t>ADC ???</t>
   </si>
   <si>
-    <t>Lx</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>Middle, Mid</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>BckW</t>
-  </si>
-  <si>
-    <t>Backword</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Duty cycle</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>Create Analog Input function for controling movement</t>
-  </si>
-  <si>
-    <t>Review code for obsolete functions / modules</t>
-  </si>
-  <si>
-    <t>Add HW averaging to ADC</t>
-  </si>
-  <si>
-    <t>Rewrite ADC to use only one sequencer</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>LCD</t>
+    <t>Timer 0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1969,7 +1838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2049,7 +1918,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2198,30 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7044,7 +6888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7076,10 +6920,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7111,7 +6954,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7287,421 +7129,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>321</v>
-      </c>
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>318</v>
+    <row r="2" spans="1:16">
+      <c r="A2" s="61"/>
+      <c r="B2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>320</v>
-      </c>
+    <row r="3" spans="1:16">
+      <c r="A3" s="61"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>313</v>
+    <row r="4" spans="1:16">
+      <c r="A4" s="61" t="s">
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>312</v>
+    <row r="5" spans="1:16">
+      <c r="A5" s="61" t="s">
+        <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>164</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>310</v>
-      </c>
+    <row r="6" spans="1:16">
+      <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>164</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>311</v>
-      </c>
+    <row r="7" spans="1:16">
+      <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>164</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="61"/>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="61"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="61"/>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="61"/>
+      <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:16">
+      <c r="A13" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="61"/>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="61"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="61"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="61"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="61"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="61"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="61"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="61"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="61"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="61"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="61"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="61"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="61"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B7">
-    <sortState ref="A2:B7">
-      <sortCondition ref="A1:A7"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="F2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="13" width="8.140625" customWidth="1"/>
-    <col min="258" max="269" width="8.140625" customWidth="1"/>
-    <col min="514" max="525" width="8.140625" customWidth="1"/>
-    <col min="770" max="781" width="8.140625" customWidth="1"/>
-    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
-    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
-    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
-    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
-    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
-    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
-    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
-    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
-    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
-    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
-    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
-    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
-    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
-    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
-    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
-    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
-    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
-    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
-    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
-    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
-    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
-    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
-    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
-    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
-    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
-    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
-    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
-    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
-    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
-    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
-    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
-    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
-    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
-    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
-    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
-    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
-    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
-    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
-    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
-    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
-    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
-    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
-    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
-    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
-    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
-    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
-    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
-    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
-    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
-    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
-    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
-    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
-    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
-    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
-    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
-    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
-    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
-    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
-    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
-    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18">
-        <v>10</v>
-      </c>
-      <c r="M1" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="24">
-        <v>5</v>
-      </c>
-      <c r="K7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7769,7 +7501,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7858,7 +7590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7948,7 +7680,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8038,7 +7770,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8162,7 +7894,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8288,7 +8020,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8406,7 +8138,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8520,7 +8252,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8632,7 +8364,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8746,7 +8478,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8858,7 +8590,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8972,7 +8704,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9132,7 +8864,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9298,7 +9030,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9462,7 +9194,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9616,7 +9348,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9770,7 +9502,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9934,7 +9666,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10102,7 +9834,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10272,7 +10004,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10424,7 +10156,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10554,7 +10286,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10670,7 +10402,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10794,7 +10526,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10918,7 +10650,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11040,7 +10772,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11160,7 +10892,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11278,7 +11010,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11392,7 +11124,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11506,7 +11238,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11616,7 +11348,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11726,7 +11458,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11836,7 +11568,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11946,7 +11678,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12056,7 +11788,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12168,7 +11900,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12282,7 +12014,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12392,7 +12124,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12502,7 +12234,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12609,7 +12341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12707,7 +12439,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12796,7 +12528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12885,7 +12617,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -12974,7 +12706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13060,7 +12792,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13146,7 +12878,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13232,7 +12964,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13318,7 +13050,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13404,7 +13136,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13742,7 +13474,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14080,7 +13812,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14418,7 +14150,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14756,7 +14488,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15094,7 +14826,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15443,15 +15175,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15520,7 +15252,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15606,7 +15338,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -15693,7 +15425,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15867,7 +15599,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16097,7 +15829,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16299,7 +16031,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16501,7 +16233,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16715,7 +16447,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16931,7 +16663,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17143,7 +16875,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17355,7 +17087,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17581,7 +17313,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17755,7 +17487,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17941,7 +17673,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18139,7 +17871,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18333,7 +18065,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18519,7 +18251,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18711,7 +18443,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18905,7 +18637,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19099,7 +18831,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19281,7 +19013,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19463,7 +19195,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19657,7 +19389,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19845,7 +19577,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20039,7 +19771,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20221,7 +19953,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20266,7 +19998,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -20405,7 +20137,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20631,7 +20363,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20813,7 +20545,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -20995,7 +20727,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21195,7 +20927,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21413,7 +21145,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21601,7 +21333,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21793,7 +21525,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -21985,7 +21717,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22175,7 +21907,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22365,7 +22097,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22557,7 +22289,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22749,7 +22481,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22941,7 +22673,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23134,7 +22866,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23358,7 +23090,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23553,7 +23285,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23786,7 +23518,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24009,7 +23741,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24211,7 +23943,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24493,7 +24225,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24671,7 +24403,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24873,7 +24605,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25045,7 +24777,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25383,7 +25115,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25721,7 +25453,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26059,7 +25791,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26397,7 +26129,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26735,7 +26467,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27379,1304 +27111,1304 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="EE94" sqref="EE94"/>
+      <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="63" customWidth="1"/>
-    <col min="2" max="7" width="3.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="63"/>
-    <col min="9" max="9" width="3.28515625" style="63" customWidth="1"/>
-    <col min="10" max="15" width="3.7109375" style="63" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="63"/>
-    <col min="17" max="23" width="4" style="63" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="63"/>
-    <col min="25" max="31" width="3.42578125" style="63" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="63"/>
-    <col min="33" max="39" width="3.42578125" style="63" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="3.28515625" style="62" customWidth="1"/>
+    <col min="2" max="7" width="3.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="62"/>
+    <col min="9" max="9" width="3.28515625" style="62" customWidth="1"/>
+    <col min="10" max="15" width="3.7109375" style="62" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="62"/>
+    <col min="17" max="23" width="4" style="62" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="62"/>
+    <col min="25" max="31" width="3.42578125" style="62" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="62"/>
+    <col min="33" max="39" width="3.42578125" style="62" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
+    <row r="1" spans="1:39">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67">
-        <v>1</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67">
-        <v>1</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67">
-        <v>1</v>
-      </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67">
-        <v>1</v>
-      </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="66"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="66"/>
+    <row r="2" spans="1:39">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66">
+        <v>1</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="65"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66">
+        <v>1</v>
+      </c>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="65"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66">
+        <v>1</v>
+      </c>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="65"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="65"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="65"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="67">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67">
-        <v>1</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67">
-        <v>1</v>
-      </c>
-      <c r="L3" s="67">
-        <v>1</v>
-      </c>
-      <c r="M3" s="67">
-        <v>1</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="66"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67">
-        <v>1</v>
-      </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="66"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="66"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="66"/>
+    <row r="3" spans="1:39">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66">
+        <v>1</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66">
+        <v>1</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66">
+        <v>1</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66">
+        <v>1</v>
+      </c>
+      <c r="M3" s="66">
+        <v>1</v>
+      </c>
+      <c r="N3" s="66"/>
+      <c r="O3" s="65"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66">
+        <v>1</v>
+      </c>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="65"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="65"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="65"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67">
-        <v>1</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67">
-        <v>1</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="66"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67">
-        <v>1</v>
-      </c>
-      <c r="L4" s="67">
-        <v>1</v>
-      </c>
-      <c r="M4" s="67">
-        <v>1</v>
-      </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="66"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67">
-        <v>1</v>
-      </c>
-      <c r="T4" s="67">
-        <v>1</v>
-      </c>
-      <c r="U4" s="67">
-        <v>1</v>
-      </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="66"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="66"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="66"/>
+    <row r="4" spans="1:39">
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66">
+        <v>1</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="65"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66">
+        <v>1</v>
+      </c>
+      <c r="L4" s="66">
+        <v>1</v>
+      </c>
+      <c r="M4" s="66">
+        <v>1</v>
+      </c>
+      <c r="N4" s="66"/>
+      <c r="O4" s="65"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66">
+        <v>1</v>
+      </c>
+      <c r="T4" s="66">
+        <v>1</v>
+      </c>
+      <c r="U4" s="66">
+        <v>1</v>
+      </c>
+      <c r="V4" s="66"/>
+      <c r="W4" s="65"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="65"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="65"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="67">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67">
-        <v>1</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67">
-        <v>1</v>
-      </c>
-      <c r="L5" s="67">
-        <v>1</v>
-      </c>
-      <c r="M5" s="67">
-        <v>1</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67">
-        <v>1</v>
-      </c>
-      <c r="T5" s="67">
-        <v>1</v>
-      </c>
-      <c r="U5" s="67">
-        <v>1</v>
-      </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="66"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="66"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="66"/>
+    <row r="5" spans="1:39">
+      <c r="A5" s="64"/>
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66">
+        <v>1</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66">
+        <v>1</v>
+      </c>
+      <c r="L5" s="66">
+        <v>1</v>
+      </c>
+      <c r="M5" s="66">
+        <v>1</v>
+      </c>
+      <c r="N5" s="66"/>
+      <c r="O5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66">
+        <v>1</v>
+      </c>
+      <c r="T5" s="66">
+        <v>1</v>
+      </c>
+      <c r="U5" s="66">
+        <v>1</v>
+      </c>
+      <c r="V5" s="66"/>
+      <c r="W5" s="65"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="65"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="65"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67">
-        <v>1</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67">
-        <v>1</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="67">
-        <v>1</v>
-      </c>
-      <c r="K6" s="67">
-        <v>1</v>
-      </c>
-      <c r="L6" s="67">
-        <v>1</v>
-      </c>
-      <c r="M6" s="67">
-        <v>1</v>
-      </c>
-      <c r="N6" s="67">
-        <v>1</v>
-      </c>
-      <c r="O6" s="66"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67">
-        <v>1</v>
-      </c>
-      <c r="T6" s="67">
-        <v>1</v>
-      </c>
-      <c r="U6" s="67">
-        <v>1</v>
-      </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="66"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="66"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="66"/>
+    <row r="6" spans="1:39">
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66">
+        <v>1</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="66">
+        <v>1</v>
+      </c>
+      <c r="K6" s="66">
+        <v>1</v>
+      </c>
+      <c r="L6" s="66">
+        <v>1</v>
+      </c>
+      <c r="M6" s="66">
+        <v>1</v>
+      </c>
+      <c r="N6" s="66">
+        <v>1</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66">
+        <v>1</v>
+      </c>
+      <c r="T6" s="66">
+        <v>1</v>
+      </c>
+      <c r="U6" s="66">
+        <v>1</v>
+      </c>
+      <c r="V6" s="66"/>
+      <c r="W6" s="65"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="65"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="65"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67">
-        <v>1</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67">
-        <v>1</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67">
-        <v>1</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="67">
-        <v>1</v>
-      </c>
-      <c r="K7" s="67">
-        <v>1</v>
-      </c>
-      <c r="L7" s="67">
-        <v>1</v>
-      </c>
-      <c r="M7" s="67">
-        <v>1</v>
-      </c>
-      <c r="N7" s="67">
-        <v>1</v>
-      </c>
-      <c r="O7" s="66"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67">
-        <v>1</v>
-      </c>
-      <c r="T7" s="67">
-        <v>1</v>
-      </c>
-      <c r="U7" s="67">
-        <v>1</v>
-      </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="66"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="66"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="66"/>
+    <row r="7" spans="1:39">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66">
+        <v>1</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <v>1</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66">
+        <v>1</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="66">
+        <v>1</v>
+      </c>
+      <c r="K7" s="66">
+        <v>1</v>
+      </c>
+      <c r="L7" s="66">
+        <v>1</v>
+      </c>
+      <c r="M7" s="66">
+        <v>1</v>
+      </c>
+      <c r="N7" s="66">
+        <v>1</v>
+      </c>
+      <c r="O7" s="65"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66">
+        <v>1</v>
+      </c>
+      <c r="T7" s="66">
+        <v>1</v>
+      </c>
+      <c r="U7" s="66">
+        <v>1</v>
+      </c>
+      <c r="V7" s="66"/>
+      <c r="W7" s="65"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="65"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="65"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67">
-        <v>1</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
-        <v>1</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="67">
-        <v>1</v>
-      </c>
-      <c r="K8" s="67">
-        <v>1</v>
-      </c>
-      <c r="L8" s="67">
-        <v>1</v>
-      </c>
-      <c r="M8" s="67">
-        <v>1</v>
-      </c>
-      <c r="N8" s="67">
-        <v>1</v>
-      </c>
-      <c r="O8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67">
-        <v>1</v>
-      </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="65"/>
+    <row r="8" spans="1:39">
+      <c r="A8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66">
+        <v>1</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66">
+        <v>1</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="66">
+        <v>1</v>
+      </c>
+      <c r="K8" s="66">
+        <v>1</v>
+      </c>
+      <c r="L8" s="66">
+        <v>1</v>
+      </c>
+      <c r="M8" s="66">
+        <v>1</v>
+      </c>
+      <c r="N8" s="66">
+        <v>1</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66">
+        <v>1</v>
+      </c>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="64"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67">
-        <v>1</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67">
-        <v>1</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67">
-        <v>1</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67">
-        <v>1</v>
-      </c>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67">
-        <v>1</v>
-      </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67">
-        <v>1</v>
-      </c>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="65"/>
+    <row r="9" spans="1:39">
+      <c r="A9" s="64"/>
+      <c r="B9" s="66">
+        <v>1</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66">
+        <v>1</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66">
+        <v>1</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66">
+        <v>1</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66">
+        <v>1</v>
+      </c>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="64"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
+    <row r="10" spans="1:39">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="str">
+    <row r="12" spans="1:39">
+      <c r="B12" s="63" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
       </c>
-      <c r="C12" s="64" t="str">
+      <c r="C12" s="63" t="str">
         <f>DEC2HEX(128*(C9&gt;0)+64*(C8&gt;0)+32*(C7&gt;0)+16*(C6&gt;0)+8*(C5&gt;0)+4*(C4&gt;0)+2*(C3&gt;0)+1*(C2&gt;0),2)</f>
         <v>55</v>
       </c>
-      <c r="D12" s="64" t="str">
+      <c r="D12" s="63" t="str">
         <f>DEC2HEX(128*(D9&gt;0)+64*(D8&gt;0)+32*(D7&gt;0)+16*(D6&gt;0)+8*(D5&gt;0)+4*(D4&gt;0)+2*(D3&gt;0)+1*(D2&gt;0),2)</f>
         <v>AA</v>
       </c>
-      <c r="E12" s="64" t="str">
+      <c r="E12" s="63" t="str">
         <f>DEC2HEX(128*(E9&gt;0)+64*(E8&gt;0)+32*(E7&gt;0)+16*(E6&gt;0)+8*(E5&gt;0)+4*(E4&gt;0)+2*(E3&gt;0)+1*(E2&gt;0),2)</f>
         <v>55</v>
       </c>
-      <c r="F12" s="64" t="str">
+      <c r="F12" s="63" t="str">
         <f>DEC2HEX(128*(F9&gt;0)+64*(F8&gt;0)+32*(F7&gt;0)+16*(F6&gt;0)+8*(F5&gt;0)+4*(F4&gt;0)+2*(F3&gt;0)+1*(F2&gt;0),2)</f>
         <v>AA</v>
       </c>
-      <c r="J12" s="64" t="str">
+      <c r="J12" s="63" t="str">
         <f>DEC2HEX(128*(J9&gt;0)+64*(J8&gt;0)+32*(J7&gt;0)+16*(J6&gt;0)+8*(J5&gt;0)+4*(J4&gt;0)+2*(J3&gt;0)+1*(J2&gt;0),2)</f>
         <v>70</v>
       </c>
-      <c r="K12" s="64" t="str">
+      <c r="K12" s="63" t="str">
         <f>DEC2HEX(128*(K9&gt;0)+64*(K8&gt;0)+32*(K7&gt;0)+16*(K6&gt;0)+8*(K5&gt;0)+4*(K4&gt;0)+2*(K3&gt;0)+1*(K2&gt;0),2)</f>
         <v>FE</v>
       </c>
-      <c r="L12" s="64" t="str">
+      <c r="L12" s="63" t="str">
         <f>DEC2HEX(128*(L9&gt;0)+64*(L8&gt;0)+32*(L7&gt;0)+16*(L6&gt;0)+8*(L5&gt;0)+4*(L4&gt;0)+2*(L3&gt;0)+1*(L2&gt;0),2)</f>
         <v>7F</v>
       </c>
-      <c r="M12" s="64" t="str">
+      <c r="M12" s="63" t="str">
         <f>DEC2HEX(128*(M9&gt;0)+64*(M8&gt;0)+32*(M7&gt;0)+16*(M6&gt;0)+8*(M5&gt;0)+4*(M4&gt;0)+2*(M3&gt;0)+1*(M2&gt;0),2)</f>
         <v>FE</v>
       </c>
-      <c r="N12" s="64" t="str">
+      <c r="N12" s="63" t="str">
         <f>DEC2HEX(128*(N9&gt;0)+64*(N8&gt;0)+32*(N7&gt;0)+16*(N6&gt;0)+8*(N5&gt;0)+4*(N4&gt;0)+2*(N3&gt;0)+1*(N2&gt;0),2)</f>
         <v>70</v>
       </c>
-      <c r="R12" s="64" t="str">
+      <c r="R12" s="63" t="str">
         <f>DEC2HEX(128*(R9&gt;0)+64*(R8&gt;0)+32*(R7&gt;0)+16*(R6&gt;0)+8*(R5&gt;0)+4*(R4&gt;0)+2*(R3&gt;0)+1*(R2&gt;0),2)</f>
         <v>00</v>
       </c>
-      <c r="S12" s="64" t="str">
+      <c r="S12" s="63" t="str">
         <f>DEC2HEX(128*(S9&gt;0)+64*(S8&gt;0)+32*(S7&gt;0)+16*(S6&gt;0)+8*(S5&gt;0)+4*(S4&gt;0)+2*(S3&gt;0)+1*(S2&gt;0),2)</f>
         <v>3C</v>
       </c>
-      <c r="T12" s="64" t="str">
+      <c r="T12" s="63" t="str">
         <f>DEC2HEX(128*(T9&gt;0)+64*(T8&gt;0)+32*(T7&gt;0)+16*(T6&gt;0)+8*(T5&gt;0)+4*(T4&gt;0)+2*(T3&gt;0)+1*(T2&gt;0),2)</f>
         <v>FF</v>
       </c>
-      <c r="U12" s="64" t="str">
+      <c r="U12" s="63" t="str">
         <f>DEC2HEX(128*(U9&gt;0)+64*(U8&gt;0)+32*(U7&gt;0)+16*(U6&gt;0)+8*(U5&gt;0)+4*(U4&gt;0)+2*(U3&gt;0)+1*(U2&gt;0),2)</f>
         <v>3C</v>
       </c>
-      <c r="V12" s="64" t="str">
+      <c r="V12" s="63" t="str">
         <f>DEC2HEX(128*(V9&gt;0)+64*(V8&gt;0)+32*(V7&gt;0)+16*(V6&gt;0)+8*(V5&gt;0)+4*(V4&gt;0)+2*(V3&gt;0)+1*(V2&gt;0),2)</f>
         <v>00</v>
       </c>
-      <c r="Z12" s="64" t="str">
+      <c r="Z12" s="63" t="str">
         <f>DEC2HEX(128*(Z9&gt;0)+64*(Z8&gt;0)+32*(Z7&gt;0)+16*(Z6&gt;0)+8*(Z5&gt;0)+4*(Z4&gt;0)+2*(Z3&gt;0)+1*(Z2&gt;0),2)</f>
         <v>F4</v>
       </c>
-      <c r="AA12" s="64" t="str">
+      <c r="AA12" s="63" t="str">
         <f>DEC2HEX(128*(AA9&gt;0)+64*(AA8&gt;0)+32*(AA7&gt;0)+16*(AA6&gt;0)+8*(AA5&gt;0)+4*(AA4&gt;0)+2*(AA3&gt;0)+1*(AA2&gt;0),2)</f>
         <v>8A</v>
       </c>
-      <c r="AB12" s="64" t="str">
+      <c r="AB12" s="63" t="str">
         <f>DEC2HEX(128*(AB9&gt;0)+64*(AB8&gt;0)+32*(AB7&gt;0)+16*(AB6&gt;0)+8*(AB5&gt;0)+4*(AB4&gt;0)+2*(AB3&gt;0)+1*(AB2&gt;0),2)</f>
         <v>89</v>
       </c>
-      <c r="AC12" s="64" t="str">
+      <c r="AC12" s="63" t="str">
         <f>DEC2HEX(128*(AC9&gt;0)+64*(AC8&gt;0)+32*(AC7&gt;0)+16*(AC6&gt;0)+8*(AC5&gt;0)+4*(AC4&gt;0)+2*(AC3&gt;0)+1*(AC2&gt;0),2)</f>
         <v>8A</v>
       </c>
-      <c r="AD12" s="64" t="str">
+      <c r="AD12" s="63" t="str">
         <f>DEC2HEX(128*(AD9&gt;0)+64*(AD8&gt;0)+32*(AD7&gt;0)+16*(AD6&gt;0)+8*(AD5&gt;0)+4*(AD4&gt;0)+2*(AD3&gt;0)+1*(AD2&gt;0),2)</f>
         <v>F4</v>
       </c>
-      <c r="AH12" s="64" t="str">
+      <c r="AH12" s="63" t="str">
         <f>DEC2HEX(128*(AH9&gt;0)+64*(AH8&gt;0)+32*(AH7&gt;0)+16*(AH6&gt;0)+8*(AH5&gt;0)+4*(AH4&gt;0)+2*(AH3&gt;0)+1*(AH2&gt;0),2)</f>
         <v>18</v>
       </c>
-      <c r="AI12" s="64" t="str">
+      <c r="AI12" s="63" t="str">
         <f>DEC2HEX(128*(AI9&gt;0)+64*(AI8&gt;0)+32*(AI7&gt;0)+16*(AI6&gt;0)+8*(AI5&gt;0)+4*(AI4&gt;0)+2*(AI3&gt;0)+1*(AI2&gt;0),2)</f>
         <v>66</v>
       </c>
-      <c r="AJ12" s="64" t="str">
+      <c r="AJ12" s="63" t="str">
         <f>DEC2HEX(128*(AJ9&gt;0)+64*(AJ8&gt;0)+32*(AJ7&gt;0)+16*(AJ6&gt;0)+8*(AJ5&gt;0)+4*(AJ4&gt;0)+2*(AJ3&gt;0)+1*(AJ2&gt;0),2)</f>
         <v>81</v>
       </c>
-      <c r="AK12" s="64" t="str">
+      <c r="AK12" s="63" t="str">
         <f>DEC2HEX(128*(AK9&gt;0)+64*(AK8&gt;0)+32*(AK7&gt;0)+16*(AK6&gt;0)+8*(AK5&gt;0)+4*(AK4&gt;0)+2*(AK3&gt;0)+1*(AK2&gt;0),2)</f>
         <v>66</v>
       </c>
-      <c r="AL12" s="64" t="str">
+      <c r="AL12" s="63" t="str">
         <f>DEC2HEX(128*(AL9&gt;0)+64*(AL8&gt;0)+32*(AL7&gt;0)+16*(AL6&gt;0)+8*(AL5&gt;0)+4*(AL4&gt;0)+2*(AL3&gt;0)+1*(AL2&gt;0),2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
+    <row r="14" spans="1:39">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="66"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67">
-        <v>1</v>
-      </c>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67">
-        <v>1</v>
-      </c>
-      <c r="W15" s="66"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="66"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="66"/>
+    <row r="15" spans="1:39">
+      <c r="A15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="65"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="65"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66">
+        <v>1</v>
+      </c>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66">
+        <v>1</v>
+      </c>
+      <c r="W15" s="65"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="65"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="65"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67">
-        <v>1</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67">
-        <v>1</v>
-      </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="66"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="67">
-        <v>1</v>
-      </c>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67">
-        <v>1</v>
-      </c>
-      <c r="V16" s="67"/>
-      <c r="W16" s="66"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="66"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="66"/>
+    <row r="16" spans="1:39">
+      <c r="A16" s="64"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66">
+        <v>1</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66">
+        <v>1</v>
+      </c>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="65"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="66">
+        <v>1</v>
+      </c>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66">
+        <v>1</v>
+      </c>
+      <c r="V16" s="66"/>
+      <c r="W16" s="65"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="65"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="65"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67">
-        <v>1</v>
-      </c>
-      <c r="C17" s="67">
-        <v>1</v>
-      </c>
-      <c r="D17" s="67">
-        <v>1</v>
-      </c>
-      <c r="E17" s="67">
-        <v>1</v>
-      </c>
-      <c r="F17" s="67">
-        <v>1</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67">
-        <v>1</v>
-      </c>
-      <c r="L17" s="67">
-        <v>1</v>
-      </c>
-      <c r="M17" s="67">
-        <v>1</v>
-      </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="66"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67">
-        <v>1</v>
-      </c>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="66"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="66"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="66"/>
+    <row r="17" spans="1:39">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66">
+        <v>1</v>
+      </c>
+      <c r="C17" s="66">
+        <v>1</v>
+      </c>
+      <c r="D17" s="66">
+        <v>1</v>
+      </c>
+      <c r="E17" s="66">
+        <v>1</v>
+      </c>
+      <c r="F17" s="66">
+        <v>1</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66">
+        <v>1</v>
+      </c>
+      <c r="L17" s="66">
+        <v>1</v>
+      </c>
+      <c r="M17" s="66">
+        <v>1</v>
+      </c>
+      <c r="N17" s="66"/>
+      <c r="O17" s="65"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66">
+        <v>1</v>
+      </c>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="65"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="65"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="65"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67">
-        <v>1</v>
-      </c>
-      <c r="D18" s="67">
-        <v>1</v>
-      </c>
-      <c r="E18" s="67">
-        <v>1</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="67">
-        <v>1</v>
-      </c>
-      <c r="K18" s="67">
-        <v>1</v>
-      </c>
-      <c r="L18" s="67">
-        <v>1</v>
-      </c>
-      <c r="M18" s="67">
-        <v>1</v>
-      </c>
-      <c r="N18" s="67">
-        <v>1</v>
-      </c>
-      <c r="O18" s="66"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67">
-        <v>1</v>
-      </c>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67">
-        <v>1</v>
-      </c>
-      <c r="W18" s="66"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="66"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="66"/>
+    <row r="18" spans="1:39">
+      <c r="A18" s="64"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66">
+        <v>1</v>
+      </c>
+      <c r="D18" s="66">
+        <v>1</v>
+      </c>
+      <c r="E18" s="66">
+        <v>1</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="66">
+        <v>1</v>
+      </c>
+      <c r="K18" s="66">
+        <v>1</v>
+      </c>
+      <c r="L18" s="66">
+        <v>1</v>
+      </c>
+      <c r="M18" s="66">
+        <v>1</v>
+      </c>
+      <c r="N18" s="66">
+        <v>1</v>
+      </c>
+      <c r="O18" s="65"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66">
+        <v>1</v>
+      </c>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66">
+        <v>1</v>
+      </c>
+      <c r="W18" s="65"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="65"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="65"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67">
-        <v>1</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67">
-        <v>1</v>
-      </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="66"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="67">
-        <v>1</v>
-      </c>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67">
-        <v>1</v>
-      </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="66"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="66"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="66"/>
+    <row r="19" spans="1:39">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66">
+        <v>1</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66">
+        <v>1</v>
+      </c>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="65"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="66">
+        <v>1</v>
+      </c>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66">
+        <v>1</v>
+      </c>
+      <c r="V19" s="66"/>
+      <c r="W19" s="65"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="65"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="65"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67">
-        <v>1</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67">
-        <v>1</v>
-      </c>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="66"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67">
-        <v>1</v>
-      </c>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="66"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="66"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="66"/>
+    <row r="20" spans="1:39">
+      <c r="A20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66">
+        <v>1</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66">
+        <v>1</v>
+      </c>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="65"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66">
+        <v>1</v>
+      </c>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="65"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="65"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="66">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="65"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67">
-        <v>1</v>
-      </c>
-      <c r="D21" s="67">
-        <v>1</v>
-      </c>
-      <c r="E21" s="67">
-        <v>1</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67">
-        <v>1</v>
-      </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67">
-        <v>1</v>
-      </c>
-      <c r="N21" s="67"/>
-      <c r="O21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67">
-        <v>1</v>
-      </c>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67">
-        <v>1</v>
-      </c>
-      <c r="W21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="65"/>
+    <row r="21" spans="1:39">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66">
+        <v>1</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1</v>
+      </c>
+      <c r="E21" s="66">
+        <v>1</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66">
+        <v>1</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66">
+        <v>1</v>
+      </c>
+      <c r="N21" s="66"/>
+      <c r="O21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66">
+        <v>1</v>
+      </c>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66">
+        <v>1</v>
+      </c>
+      <c r="W21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="64"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="67">
-        <v>1</v>
-      </c>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67">
-        <v>1</v>
-      </c>
-      <c r="V22" s="67"/>
-      <c r="W22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="65"/>
+    <row r="22" spans="1:39">
+      <c r="A22" s="64"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="66">
+        <v>1</v>
+      </c>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66">
+        <v>1</v>
+      </c>
+      <c r="V22" s="66"/>
+      <c r="W22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="64"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
+    <row r="23" spans="1:39">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B25" s="64" t="str">
+    <row r="25" spans="1:39">
+      <c r="B25" s="63" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="C25" s="64" t="str">
+      <c r="C25" s="63" t="str">
         <f>DEC2HEX(128*(C22&gt;0)+64*(C21&gt;0)+32*(C20&gt;0)+16*(C19&gt;0)+8*(C18&gt;0)+4*(C17&gt;0)+2*(C16&gt;0)+1*(C15&gt;0),2)</f>
         <v>4C</v>
       </c>
-      <c r="D25" s="64" t="str">
+      <c r="D25" s="63" t="str">
         <f>DEC2HEX(128*(D22&gt;0)+64*(D21&gt;0)+32*(D20&gt;0)+16*(D19&gt;0)+8*(D18&gt;0)+4*(D17&gt;0)+2*(D16&gt;0)+1*(D15&gt;0),2)</f>
         <v>7E</v>
       </c>
-      <c r="E25" s="64" t="str">
+      <c r="E25" s="63" t="str">
         <f>DEC2HEX(128*(E22&gt;0)+64*(E21&gt;0)+32*(E20&gt;0)+16*(E19&gt;0)+8*(E18&gt;0)+4*(E17&gt;0)+2*(E16&gt;0)+1*(E15&gt;0),2)</f>
         <v>4C</v>
       </c>
-      <c r="F25" s="64" t="str">
+      <c r="F25" s="63" t="str">
         <f>DEC2HEX(128*(F22&gt;0)+64*(F21&gt;0)+32*(F20&gt;0)+16*(F19&gt;0)+8*(F18&gt;0)+4*(F17&gt;0)+2*(F16&gt;0)+1*(F15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="J25" s="64" t="str">
+      <c r="J25" s="63" t="str">
         <f>DEC2HEX(128*(J22&gt;0)+64*(J21&gt;0)+32*(J20&gt;0)+16*(J19&gt;0)+8*(J18&gt;0)+4*(J17&gt;0)+2*(J16&gt;0)+1*(J15&gt;0),2)</f>
         <v>08</v>
       </c>
-      <c r="K25" s="64" t="str">
+      <c r="K25" s="63" t="str">
         <f>DEC2HEX(128*(K22&gt;0)+64*(K21&gt;0)+32*(K20&gt;0)+16*(K19&gt;0)+8*(K18&gt;0)+4*(K17&gt;0)+2*(K16&gt;0)+1*(K15&gt;0),2)</f>
         <v>4C</v>
       </c>
-      <c r="L25" s="64" t="str">
+      <c r="L25" s="63" t="str">
         <f>DEC2HEX(128*(L22&gt;0)+64*(L21&gt;0)+32*(L20&gt;0)+16*(L19&gt;0)+8*(L18&gt;0)+4*(L17&gt;0)+2*(L16&gt;0)+1*(L15&gt;0),2)</f>
         <v>3E</v>
       </c>
-      <c r="M25" s="64" t="str">
+      <c r="M25" s="63" t="str">
         <f>DEC2HEX(128*(M22&gt;0)+64*(M21&gt;0)+32*(M20&gt;0)+16*(M19&gt;0)+8*(M18&gt;0)+4*(M17&gt;0)+2*(M16&gt;0)+1*(M15&gt;0),2)</f>
         <v>4C</v>
       </c>
-      <c r="N25" s="64" t="str">
+      <c r="N25" s="63" t="str">
         <f>DEC2HEX(128*(N22&gt;0)+64*(N21&gt;0)+32*(N20&gt;0)+16*(N19&gt;0)+8*(N18&gt;0)+4*(N17&gt;0)+2*(N16&gt;0)+1*(N15&gt;0),2)</f>
         <v>08</v>
       </c>
-      <c r="R25" s="64" t="str">
+      <c r="R25" s="63" t="str">
         <f>DEC2HEX(128*(R22&gt;0)+64*(R21&gt;0)+32*(R20&gt;0)+16*(R19&gt;0)+8*(R18&gt;0)+4*(R17&gt;0)+2*(R16&gt;0)+1*(R15&gt;0),2)</f>
         <v>92</v>
       </c>
-      <c r="S25" s="64" t="str">
+      <c r="S25" s="63" t="str">
         <f>DEC2HEX(128*(S22&gt;0)+64*(S21&gt;0)+32*(S20&gt;0)+16*(S19&gt;0)+8*(S18&gt;0)+4*(S17&gt;0)+2*(S16&gt;0)+1*(S15&gt;0),2)</f>
         <v>49</v>
       </c>
-      <c r="T25" s="64" t="str">
+      <c r="T25" s="63" t="str">
         <f>DEC2HEX(128*(T22&gt;0)+64*(T21&gt;0)+32*(T20&gt;0)+16*(T19&gt;0)+8*(T18&gt;0)+4*(T17&gt;0)+2*(T16&gt;0)+1*(T15&gt;0),2)</f>
         <v>24</v>
       </c>
-      <c r="U25" s="64" t="str">
+      <c r="U25" s="63" t="str">
         <f>DEC2HEX(128*(U22&gt;0)+64*(U21&gt;0)+32*(U20&gt;0)+16*(U19&gt;0)+8*(U18&gt;0)+4*(U17&gt;0)+2*(U16&gt;0)+1*(U15&gt;0),2)</f>
         <v>92</v>
       </c>
-      <c r="V25" s="64" t="str">
+      <c r="V25" s="63" t="str">
         <f>DEC2HEX(128*(V22&gt;0)+64*(V21&gt;0)+32*(V20&gt;0)+16*(V19&gt;0)+8*(V18&gt;0)+4*(V17&gt;0)+2*(V16&gt;0)+1*(V15&gt;0),2)</f>
         <v>49</v>
       </c>
-      <c r="Z25" s="64" t="str">
+      <c r="Z25" s="63" t="str">
         <f>DEC2HEX(128*(Z22&gt;0)+64*(Z21&gt;0)+32*(Z20&gt;0)+16*(Z19&gt;0)+8*(Z18&gt;0)+4*(Z17&gt;0)+2*(Z16&gt;0)+1*(Z15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="AA25" s="64" t="str">
+      <c r="AA25" s="63" t="str">
         <f>DEC2HEX(128*(AA22&gt;0)+64*(AA21&gt;0)+32*(AA20&gt;0)+16*(AA19&gt;0)+8*(AA18&gt;0)+4*(AA17&gt;0)+2*(AA16&gt;0)+1*(AA15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="AB25" s="64" t="str">
+      <c r="AB25" s="63" t="str">
         <f>DEC2HEX(128*(AB22&gt;0)+64*(AB21&gt;0)+32*(AB20&gt;0)+16*(AB19&gt;0)+8*(AB18&gt;0)+4*(AB17&gt;0)+2*(AB16&gt;0)+1*(AB15&gt;0),2)</f>
         <v>FF</v>
       </c>
-      <c r="AC25" s="64" t="str">
+      <c r="AC25" s="63" t="str">
         <f>DEC2HEX(128*(AC22&gt;0)+64*(AC21&gt;0)+32*(AC20&gt;0)+16*(AC19&gt;0)+8*(AC18&gt;0)+4*(AC17&gt;0)+2*(AC16&gt;0)+1*(AC15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="AD25" s="64" t="str">
+      <c r="AD25" s="63" t="str">
         <f>DEC2HEX(128*(AD22&gt;0)+64*(AD21&gt;0)+32*(AD20&gt;0)+16*(AD19&gt;0)+8*(AD18&gt;0)+4*(AD17&gt;0)+2*(AD16&gt;0)+1*(AD15&gt;0),2)</f>
         <v>04</v>
       </c>
-      <c r="AH25" s="64" t="str">
+      <c r="AH25" s="63" t="str">
         <f>DEC2HEX(128*(AH22&gt;0)+64*(AH21&gt;0)+32*(AH20&gt;0)+16*(AH19&gt;0)+8*(AH18&gt;0)+4*(AH17&gt;0)+2*(AH16&gt;0)+1*(AH15&gt;0),2)</f>
         <v>3C</v>
       </c>
-      <c r="AI25" s="64" t="str">
+      <c r="AI25" s="63" t="str">
         <f>DEC2HEX(128*(AI22&gt;0)+64*(AI21&gt;0)+32*(AI20&gt;0)+16*(AI19&gt;0)+8*(AI18&gt;0)+4*(AI17&gt;0)+2*(AI16&gt;0)+1*(AI15&gt;0),2)</f>
         <v>66</v>
       </c>
-      <c r="AJ25" s="64" t="str">
+      <c r="AJ25" s="63" t="str">
         <f>DEC2HEX(128*(AJ22&gt;0)+64*(AJ21&gt;0)+32*(AJ20&gt;0)+16*(AJ19&gt;0)+8*(AJ18&gt;0)+4*(AJ17&gt;0)+2*(AJ16&gt;0)+1*(AJ15&gt;0),2)</f>
         <v>42</v>
       </c>
-      <c r="AK25" s="64" t="str">
+      <c r="AK25" s="63" t="str">
         <f>DEC2HEX(128*(AK22&gt;0)+64*(AK21&gt;0)+32*(AK20&gt;0)+16*(AK19&gt;0)+8*(AK18&gt;0)+4*(AK17&gt;0)+2*(AK16&gt;0)+1*(AK15&gt;0),2)</f>
         <v>66</v>
       </c>
-      <c r="AL25" s="64" t="str">
+      <c r="AL25" s="63" t="str">
         <f>DEC2HEX(128*(AL22&gt;0)+64*(AL21&gt;0)+32*(AL20&gt;0)+16*(AL19&gt;0)+8*(AL18&gt;0)+4*(AL17&gt;0)+2*(AL16&gt;0)+1*(AL15&gt;0),2)</f>
         <v>3C</v>
       </c>
@@ -28767,714 +28499,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="58" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="75" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="75" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="46" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="46" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="46" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C10:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>208</v>
+    <row r="1" spans="1:14">
+      <c r="A1" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>211</v>
+        <v>178</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
       <c r="N3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
         <v>191</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" t="s">
-        <v>215</v>
+      <c r="N7" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>216</v>
-      </c>
-      <c r="N6" t="s">
-        <v>217</v>
+    <row r="8" spans="1:14">
+      <c r="L8">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L7">
-        <v>4</v>
+    <row r="9" spans="1:14">
+      <c r="L9">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <v>5</v>
+    <row r="10" spans="1:14">
+      <c r="L10">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L10">
+    <row r="11" spans="1:14">
+      <c r="L11">
         <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N11" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -29483,15 +28628,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -29502,7 +28647,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -29515,18 +28660,18 @@
       <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="73" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="105" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -29535,24 +28680,24 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="71"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="105"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="71"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="105"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -29562,19 +28707,19 @@
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="70" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="72"/>
+        <v>158</v>
+      </c>
+      <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="105"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -29584,20 +28729,20 @@
       <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1"/>
@@ -29607,9 +28752,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="105"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29619,8 +28764,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="105"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -29630,19 +28775,19 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="70" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="73"/>
+        <v>156</v>
+      </c>
+      <c r="H8" s="72"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="105"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -29650,21 +28795,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="105"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -29672,137 +28817,137 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="B12" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="105"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="105"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="77" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="D16" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="77" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="104" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="77"/>
+      <c r="D17" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="77" t="s">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="104" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="78"/>
+      <c r="E18" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="77" t="s">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="105" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -29812,21 +28957,21 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="70" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="105"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -29834,23 +28979,23 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="70" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107" t="s">
-        <v>305</v>
+    <row r="23" spans="1:8">
+      <c r="A23" s="105"/>
+      <c r="B23" s="106" t="s">
+        <v>278</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -29859,44 +29004,44 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="105"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="105"/>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>289</v>
+        <v>261</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>295</v>
+    <row r="27" spans="1:8">
+      <c r="A27" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>268</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -29905,9 +29050,9 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="108"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="105"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -29915,74 +29060,74 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="105"/>
       <c r="B29" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="76" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="105"/>
       <c r="B30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="76" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="105"/>
       <c r="B31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C31" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="76" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
+    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="A33" s="105" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -29992,19 +29137,19 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="70" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="A34" s="105"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -30012,19 +29157,19 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="105"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
@@ -30032,21 +29177,21 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="70" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="75"/>
+        <v>194</v>
+      </c>
+      <c r="H35" s="74"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="105"/>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -30054,21 +29199,21 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="70" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" s="102"/>
+        <v>196</v>
+      </c>
+      <c r="H36" s="101"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="105"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -30076,18 +29221,18 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="70" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -30098,7 +29243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -30124,15 +29269,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -30141,342 +29286,342 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="79">
-        <v>1</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="81">
+        <v>228</v>
+      </c>
+      <c r="B1" s="78">
+        <v>1</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="80">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>1000</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="115"/>
+      <c r="K1" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="114" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="114"/>
+      <c r="M1" s="113"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="79">
+        <v>222</v>
+      </c>
+      <c r="B2" s="78">
         <v>300</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="81">
+      <c r="C2" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="80">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>300000</v>
       </c>
-      <c r="E2" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>272</v>
+      <c r="E2" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="79">
+        <v>223</v>
+      </c>
+      <c r="B3" s="78">
         <v>5</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="81">
+      <c r="C3" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="80">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E3" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" s="116"/>
+      <c r="E3" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="115"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="115"/>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="79">
-        <v>1</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="81">
+        <v>224</v>
+      </c>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="80">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="76">
+      <c r="E4" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="75">
         <v>0</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="90">
         <v>500</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="90">
         <v>500</v>
       </c>
-      <c r="K4" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="85">
+      <c r="K4" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="84">
         <f t="shared" ref="L4:M11" si="1">((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>0.6875</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="84">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="79">
+        <v>225</v>
+      </c>
+      <c r="B5" s="78">
         <v>3.3</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>253</v>
+      <c r="C5" s="81" t="s">
+        <v>226</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="76">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91">
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+      <c r="I5" s="90">
         <v>500</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="86">
         <v>500</v>
       </c>
-      <c r="K5" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="85">
+      <c r="K5" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="84">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="84">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H6" s="76">
+    <row r="6" spans="1:17">
+      <c r="H6" s="75">
         <v>10.75</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="86">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="86">
         <v>48</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="85">
+      <c r="K6" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="84">
         <f t="shared" si="1"/>
         <v>2.5008474576271187</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="84">
         <f t="shared" si="1"/>
         <v>2.2948275862068965</v>
       </c>
-      <c r="P6" s="88" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q6" s="89"/>
+      <c r="P6" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q6" s="88"/>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="83">
+        <v>227</v>
+      </c>
+      <c r="B7" s="82">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>2.7390365448504981</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="76">
+      <c r="C7" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="75">
         <v>21.52</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="90">
         <v>10</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="86">
         <v>24</v>
       </c>
-      <c r="K7" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="L7" s="85">
+      <c r="K7" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="84">
         <f t="shared" si="1"/>
         <v>2.6435483870967742</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="84">
         <f t="shared" si="1"/>
         <v>2.5055555555555555</v>
       </c>
-      <c r="P7" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q7" s="90"/>
+      <c r="P7" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="89"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H8" s="76">
+    <row r="8" spans="1:17">
+      <c r="H8" s="75">
         <v>107.53</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="86">
         <v>5</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="90">
         <v>0</v>
       </c>
-      <c r="K8" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="85">
+      <c r="K8" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="84">
         <f t="shared" si="1"/>
         <v>2.6959016393442621</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="76">
+        <v>233</v>
+      </c>
+      <c r="H9" s="75">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="90">
         <v>0</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="90">
         <v>0</v>
       </c>
-      <c r="K9" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="L9" s="85">
+      <c r="K9" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="90">
         <v>0</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="90">
         <v>0</v>
       </c>
-      <c r="K10" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="85">
+      <c r="K10" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="76">
+    <row r="11" spans="1:17">
+      <c r="H11" s="75">
         <v>107527</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="90">
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="90">
         <v>0</v>
       </c>
-      <c r="K11" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="85">
+      <c r="K11" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="84">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
@@ -30501,15 +29646,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -30518,436 +29663,436 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="92">
+        <v>228</v>
+      </c>
+      <c r="B1" s="91">
         <v>0</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="81">
+      <c r="C1" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="80">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="114" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114" t="s">
-        <v>280</v>
-      </c>
-      <c r="O1" s="114"/>
+      <c r="E1" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="115"/>
+      <c r="K1" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="113"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="92">
+        <v>222</v>
+      </c>
+      <c r="B2" s="91">
         <v>0</v>
       </c>
-      <c r="C2" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="81">
+      <c r="C2" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="80">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>279</v>
-      </c>
-      <c r="N2" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>279</v>
+      <c r="E2" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="96">
+        <v>254</v>
+      </c>
+      <c r="B3" s="95">
         <v>0.7</v>
       </c>
-      <c r="C3" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="81">
+      <c r="C3" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="80">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E3" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="116"/>
+      <c r="E3" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="115"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="115"/>
       <c r="T3" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="96">
+        <v>255</v>
+      </c>
+      <c r="B4" s="95">
         <v>15</v>
       </c>
-      <c r="C4" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="81">
+      <c r="C4" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="80">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="76">
+      <c r="E4" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="75">
         <v>0</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="90">
         <v>500</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="90">
         <v>500</v>
       </c>
-      <c r="K4" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="94">
+      <c r="K4" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M4" s="94">
+      <c r="M4" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O4" s="94">
+      <c r="O4" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
       <c r="T4" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18">
       <c r="A5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="79">
+        <v>225</v>
+      </c>
+      <c r="B5" s="78">
         <v>3.3</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>253</v>
+      <c r="C5" s="81" t="s">
+        <v>226</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="76">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91">
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+      <c r="I5" s="90">
         <v>500</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="86">
         <v>500</v>
       </c>
-      <c r="K5" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="94">
+      <c r="K5" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O5" s="94">
+      <c r="O5" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H6" s="76">
+    <row r="6" spans="1:21">
+      <c r="H6" s="75">
         <v>10.75</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="86">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="86">
         <v>48</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="94">
+      <c r="K6" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I6*1000+'Light sensor #2'!R_4)</f>
         <v>1.2531645569620253</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J6*1000+'Light sensor #2'!R_3)</f>
         <v>4.7433264887063654E-2</v>
       </c>
-      <c r="O6" s="94">
+      <c r="O6" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J6*1000+'Light sensor #2'!R_4)</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="T6" s="88" t="s">
-        <v>276</v>
-      </c>
-      <c r="U6" s="89"/>
+      <c r="T6" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="U6" s="88"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18">
       <c r="A7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="83" t="e">
+        <v>227</v>
+      </c>
+      <c r="B7" s="82" t="e">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="76">
+      <c r="C7" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="75">
         <v>21.52</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="90">
         <v>10</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="86">
         <v>24</v>
       </c>
-      <c r="K7" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="L7" s="94">
+      <c r="K7" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
         <v>0.21588785046728973</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I7*1000+'Light sensor #2'!R_4)</f>
         <v>1.98</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J7*1000+'Light sensor #2'!R_3)</f>
         <v>9.352226720647773E-2</v>
       </c>
-      <c r="O7" s="94">
+      <c r="O7" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J7*1000+'Light sensor #2'!R_4)</f>
         <v>1.2692307692307692</v>
       </c>
-      <c r="T7" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="U7" s="90"/>
+      <c r="T7" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="U7" s="89"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H8" s="76">
+    <row r="8" spans="1:21">
+      <c r="H8" s="75">
         <v>107.53</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="86">
         <v>5</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="90">
         <v>2</v>
       </c>
-      <c r="K8" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="94">
+      <c r="K8" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
         <v>0.40526315789473683</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="93">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I8*1000+'Light sensor #2'!R_4)</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="N8" s="95">
+      <c r="N8" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J8*1000+'Light sensor #2'!R_3)</f>
         <v>0.85555555555555551</v>
       </c>
-      <c r="O8" s="95">
+      <c r="O8" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J8*1000+'Light sensor #2'!R_4)</f>
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="76">
+        <v>233</v>
+      </c>
+      <c r="H9" s="75">
         <v>1075.3</v>
       </c>
-      <c r="I9" s="91">
-        <v>1</v>
-      </c>
-      <c r="J9" s="91">
-        <v>1</v>
-      </c>
-      <c r="K9" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="L9" s="85">
+      <c r="I9" s="90">
+        <v>1</v>
+      </c>
+      <c r="J9" s="90">
+        <v>1</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N9" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O9" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="90">
         <v>0</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="90">
         <v>0</v>
       </c>
-      <c r="K10" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="85">
+      <c r="K10" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N10" s="95">
+      <c r="N10" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O10" s="95">
+      <c r="O10" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H11" s="76">
+    <row r="11" spans="1:21">
+      <c r="H11" s="75">
         <v>107527</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="90">
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="90">
         <v>0</v>
       </c>
-      <c r="K11" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="85">
+      <c r="K11" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="84">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N11" s="95">
+      <c r="N11" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="94">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L12" s="101" t="s">
-        <v>286</v>
-      </c>
-      <c r="M12" s="98" t="s">
-        <v>283</v>
+    <row r="12" spans="1:21">
+      <c r="L12" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="M12" s="97" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="100" t="s">
-        <v>286</v>
-      </c>
-      <c r="O13" s="99" t="s">
-        <v>284</v>
+    <row r="13" spans="1:21">
+      <c r="N13" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" s="98" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -30971,29 +30116,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -31002,15 +30147,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -31022,7 +30167,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>104</v>
       </c>
@@ -31057,7 +30202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
@@ -31098,7 +30243,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
@@ -31139,7 +30284,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
         <v>92</v>
       </c>
@@ -31180,13 +30325,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
         <v>85</v>
       </c>
@@ -31195,14 +30340,14 @@
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
         <v>83</v>
       </c>
@@ -31210,39 +30355,39 @@
         <f>DEC2HEX(B6)</f>
         <v>CB7354</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="67"/>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="D8" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -31263,7 +30408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -31281,9 +30426,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -31292,15 +30437,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -31309,7 +30454,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
@@ -31329,7 +30474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="46" t="s">
         <v>110</v>
       </c>
@@ -31353,7 +30498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="46" t="s">
         <v>112</v>
       </c>
@@ -31381,15 +30526,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="117" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="47">
@@ -31410,19 +30555,19 @@
       <c r="G5" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
+      <c r="I5" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="117"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -31446,32 +30591,32 @@
       <c r="G6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="118" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="50">
@@ -31497,17 +30642,17 @@
       <c r="G8" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="118"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -31531,17 +30676,17 @@
       <c r="G9" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="118"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -31565,17 +30710,17 @@
       <c r="G10" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="118"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -31599,32 +30744,32 @@
       <c r="G11" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="117" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="47">
@@ -31645,17 +30790,17 @@
       <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="117"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -31679,17 +30824,17 @@
       <c r="G14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="117"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -31713,17 +30858,17 @@
       <c r="G15" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="117"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -31747,17 +30892,17 @@
       <c r="G16" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="117" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="50">
@@ -31783,17 +30928,17 @@
       <c r="G17" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="117"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31817,16 +30962,16 @@
       <c r="G18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -31843,22 +30988,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -31866,7 +31011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
         <v>136</v>
       </c>
@@ -31886,4 +31031,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="F2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="13" width="8.140625" customWidth="1"/>
+    <col min="258" max="269" width="8.140625" customWidth="1"/>
+    <col min="514" max="525" width="8.140625" customWidth="1"/>
+    <col min="770" max="781" width="8.140625" customWidth="1"/>
+    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
+    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
+    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
+    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
+    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
+    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
+    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
+    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
+    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
+    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
+    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
+    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
+    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
+    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
+    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
+    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
+    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
+    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
+    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
+    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
+    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
+    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
+    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
+    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
+    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
+    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
+    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
+    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
+    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
+    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
+    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
+    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
+    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
+    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
+    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
+    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
+    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
+    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
+    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
+    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
+    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
+    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
+    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
+    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
+    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
+    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
+    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
+    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
+    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
+    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
+    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
+    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
+    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
+    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
+    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
+    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
+    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
+    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
+    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
+    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" customHeight="1">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" customHeight="1">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="289">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -132,22 +132,7 @@
     <t>PD1</t>
   </si>
   <si>
-    <t>50% DC</t>
-  </si>
-  <si>
     <t>Mic input (analog)</t>
-  </si>
-  <si>
-    <t>Go Back - Right motor</t>
-  </si>
-  <si>
-    <t>Go Back - Left motor</t>
-  </si>
-  <si>
-    <t>Go Forward - Right motor</t>
-  </si>
-  <si>
-    <t>Go Forward - Left motor</t>
   </si>
   <si>
     <t>x DC</t>
@@ -694,12 +679,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>M1 PWM0 - Gen 0</t>
-  </si>
-  <si>
-    <t>M1 PWM1 - Gen 0</t>
-  </si>
-  <si>
     <t>M1 PWM6 - Gen 3</t>
   </si>
   <si>
@@ -1156,15 +1135,6 @@
     <t>PD7</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor driver mode select </t>
-  </si>
-  <si>
-    <t>(0 = In/In, 1 = Phase / Enable)</t>
-  </si>
-  <si>
-    <t>MODE</t>
-  </si>
-  <si>
     <t>Motor mode select function and invocation, arrange code</t>
   </si>
   <si>
@@ -1229,6 +1199,45 @@
   </si>
   <si>
     <t>Timer 0A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>Switch Revers - Right motor</t>
+  </si>
+  <si>
+    <t>Switch Revers - Left motor</t>
+  </si>
+  <si>
+    <t>PWM Right motor</t>
+  </si>
+  <si>
+    <t>PWM Left motor</t>
+  </si>
+  <si>
+    <t>0 - Go Forward / 1 - Go Backward</t>
   </si>
 </sst>
 </file>
@@ -1584,12 +1593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF716B3F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1603,6 +1606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB65BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1942,17 +1951,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1982,8 +1986,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1992,7 +1996,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,31 +2009,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2616,6 +2615,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFBB65BD"/>
       <color rgb="FF716B3F"/>
     </mruColors>
   </colors>
@@ -2641,7 +2641,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>483180</xdr:colOff>
+      <xdr:colOff>483179</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>96308</xdr:rowOff>
     </xdr:to>
@@ -7165,25 +7165,25 @@
     <row r="2" spans="1:16">
       <c r="A2" s="61"/>
       <c r="B2" s="60" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F2" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>212</v>
+      <c r="I2" s="72" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7191,54 +7191,54 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="61" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="61" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7247,101 +7247,101 @@
     <row r="10" spans="1:16">
       <c r="A10" s="61"/>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="61"/>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="61"/>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="61"/>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>202</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7349,31 +7349,31 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="61" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="61"/>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="61"/>
       <c r="B23" s="46" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7381,9 +7381,9 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="61"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89" t="s">
-        <v>279</v>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7587,7 +7587,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:86" ht="16.5" customHeight="1">
@@ -12338,7 +12338,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:86" ht="16.5" customHeight="1">
@@ -12525,7 +12525,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:86" ht="16.5" customHeight="1">
@@ -12614,7 +12614,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:86" ht="16.5" customHeight="1">
@@ -12703,7 +12703,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:86" ht="16.5" customHeight="1">
@@ -15338,7 +15338,7 @@
       <c r="CE1" s="7"/>
       <c r="CF1" s="8"/>
       <c r="CH1" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="CW1" s="6"/>
       <c r="CX1" s="7"/>
@@ -19998,7 +19998,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -22775,7 +22775,7 @@
       <c r="CE39" s="11"/>
       <c r="CF39" s="12"/>
       <c r="CH39" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="CW39" s="10"/>
       <c r="CX39" s="11"/>
@@ -23190,7 +23190,7 @@
       <c r="CE41" s="11"/>
       <c r="CF41" s="12"/>
       <c r="CH41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="CW41" s="10"/>
       <c r="CX41" s="11"/>
@@ -23419,7 +23419,7 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="12"/>
       <c r="CH42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="CW42" s="10"/>
       <c r="CX42" s="11"/>
@@ -23638,7 +23638,7 @@
       <c r="CE43" s="11"/>
       <c r="CF43" s="12"/>
       <c r="CH43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="CW43" s="10"/>
       <c r="CX43" s="11"/>
@@ -28515,38 +28515,38 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>185</v>
-      </c>
       <c r="N2" s="69" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -28554,24 +28554,24 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="68" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -28579,10 +28579,10 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -28590,10 +28590,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -28616,10 +28616,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -28630,10 +28630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28642,7 +28642,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
@@ -28660,22 +28660,22 @@
       <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="71" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>38</v>
+      <c r="A2" s="103" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -28685,9 +28685,9 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -28697,571 +28697,623 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="71"/>
+        <v>151</v>
+      </c>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" s="70" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106" t="s">
-        <v>43</v>
+      <c r="A6" s="103"/>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="103"/>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="105"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="72"/>
+        <v>153</v>
+      </c>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="105"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="70" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="58"/>
+        <v>152</v>
+      </c>
+      <c r="H9" s="101"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="105"/>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="2"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="105"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="105"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="105"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="103"/>
+      <c r="B16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="76"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="103"/>
+      <c r="B17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="77"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="103"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="105"/>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="70" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="103"/>
+      <c r="B23" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="103"/>
+      <c r="B24" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="103"/>
+      <c r="B25" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="103"/>
+      <c r="B26" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="105"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="105"/>
-      <c r="B25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" s="106" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="F26" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="105"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="105"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="105"/>
-      <c r="B30" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>6</v>
+      <c r="A30" s="103"/>
+      <c r="B30" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="105"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>6</v>
+        <v>253</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
-      <c r="A33" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>13</v>
-      </c>
+    <row r="33" spans="1:8">
+      <c r="A33" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
+    <row r="34" spans="1:8">
+      <c r="A34" s="103"/>
+      <c r="B34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="105"/>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
+      <c r="A35" s="103"/>
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>29</v>
+        <v>266</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" s="74"/>
+        <v>17</v>
+      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="105"/>
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="103"/>
+      <c r="B36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
+      <c r="A38" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
+      <c r="A39" s="103"/>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="101"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="105"/>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="C40" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="98"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="103"/>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="72"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="103"/>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D45" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B12:H15"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
+  <mergeCells count="7">
+    <mergeCell ref="B19:H22"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29288,340 +29340,340 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="78">
-        <v>1</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="80">
+        <v>221</v>
+      </c>
+      <c r="B1" s="75">
+        <v>1</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="77">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>1000</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="113"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="78">
+        <v>215</v>
+      </c>
+      <c r="B2" s="75">
         <v>300</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="80">
+      <c r="C2" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="77">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>300000</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>245</v>
+      <c r="E2" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="78">
+        <v>216</v>
+      </c>
+      <c r="B3" s="75">
         <v>5</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="80">
+      <c r="C3" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="77">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="115"/>
+      <c r="E3" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="111"/>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="78">
-        <v>1</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="80">
+        <v>217</v>
+      </c>
+      <c r="B4" s="75">
+        <v>1</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="77">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="75">
+      <c r="E4" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="73">
         <v>0</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <v>500</v>
       </c>
-      <c r="J4" s="90">
+      <c r="J4" s="87">
         <v>500</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="84">
+      <c r="K4" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="81">
         <f t="shared" ref="L4:M11" si="1">((R_2/((I4*1000)+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>0.6875</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="81">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18">
       <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="78">
+        <v>218</v>
+      </c>
+      <c r="B5" s="75">
         <v>3.3</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>226</v>
+      <c r="C5" s="78" t="s">
+        <v>219</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="75">
-        <v>1</v>
-      </c>
-      <c r="I5" s="90">
+      <c r="H5" s="73">
+        <v>1</v>
+      </c>
+      <c r="I5" s="87">
         <v>500</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="83">
         <v>500</v>
       </c>
-      <c r="K5" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="84">
+      <c r="K5" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="81">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="81">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="H6" s="75">
+      <c r="H6" s="73">
         <v>10.75</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="83">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="83">
         <v>48</v>
       </c>
-      <c r="K6" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="L6" s="84">
+      <c r="K6" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="81">
         <f t="shared" si="1"/>
         <v>2.5008474576271187</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="81">
         <f t="shared" si="1"/>
         <v>2.2948275862068965</v>
       </c>
-      <c r="P6" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q6" s="88"/>
+      <c r="P6" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" ht="18">
       <c r="A7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="82">
+        <v>220</v>
+      </c>
+      <c r="B7" s="79">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>2.7390365448504981</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="75">
+      <c r="C7" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="73">
         <v>21.52</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="87">
         <v>10</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="83">
         <v>24</v>
       </c>
-      <c r="K7" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="84">
+      <c r="K7" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="L7" s="81">
         <f t="shared" si="1"/>
         <v>2.6435483870967742</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="81">
         <f t="shared" si="1"/>
         <v>2.5055555555555555</v>
       </c>
-      <c r="P7" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="89"/>
+      <c r="P7" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="86"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="H8" s="75">
+      <c r="H8" s="73">
         <v>107.53</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="83">
         <v>5</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="87">
         <v>0</v>
       </c>
-      <c r="K8" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="L8" s="84">
+      <c r="K8" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="81">
         <f t="shared" si="1"/>
         <v>2.6959016393442621</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="73">
+        <v>1075.3</v>
+      </c>
+      <c r="I9" s="87">
+        <v>0</v>
+      </c>
+      <c r="J9" s="87">
+        <v>0</v>
+      </c>
+      <c r="K9" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="75">
-        <v>1075.3</v>
-      </c>
-      <c r="I9" s="90">
-        <v>0</v>
-      </c>
-      <c r="J9" s="90">
-        <v>0</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="L9" s="84">
+      <c r="L9" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="73">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="87">
         <v>0</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="87">
         <v>0</v>
       </c>
-      <c r="K10" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="84">
+      <c r="K10" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="H11" s="75">
+      <c r="H11" s="73">
         <v>107527</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="87">
         <v>0</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="87">
         <v>0</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="84">
+      <c r="K11" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="81">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
@@ -29665,434 +29717,434 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="91">
+        <v>221</v>
+      </c>
+      <c r="B1" s="88">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="80">
+      <c r="C1" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="77">
         <f>IF(C1="Ω",B1,IF(C1="kΩ",B1*1000,B1*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="108" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="113" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" s="113"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="91">
+        <v>215</v>
+      </c>
+      <c r="B2" s="88">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="80">
+      <c r="C2" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="77">
         <f t="shared" ref="D2:D4" si="0">IF(C2="Ω",B2,IF(C2="kΩ",B2*1000,B2*1000000))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="83" t="s">
+      <c r="E2" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="M2" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>252</v>
+      <c r="N2" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="95">
+        <v>247</v>
+      </c>
+      <c r="B3" s="92">
         <v>0.7</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="80">
+      <c r="C3" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="77">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="115"/>
+      <c r="E3" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="111"/>
       <c r="T3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="95">
+        <v>248</v>
+      </c>
+      <c r="B4" s="92">
         <v>15</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="80">
+      <c r="C4" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="77">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="75">
+      <c r="E4" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="73">
         <v>0</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <v>500</v>
       </c>
-      <c r="J4" s="90">
+      <c r="J4" s="87">
         <v>500</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="93">
+      <c r="K4" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J4*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O4" s="93">
+      <c r="O4" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J4*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
       <c r="T4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18">
       <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="78">
+        <v>218</v>
+      </c>
+      <c r="B5" s="75">
         <v>3.3</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>226</v>
+      <c r="C5" s="78" t="s">
+        <v>219</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="75">
-        <v>1</v>
-      </c>
-      <c r="I5" s="90">
+      <c r="H5" s="73">
+        <v>1</v>
+      </c>
+      <c r="I5" s="87">
         <v>500</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="83">
         <v>500</v>
       </c>
-      <c r="K5" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="93">
+      <c r="K5" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="M5" s="93">
+      <c r="M5" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J5*1000+'Light sensor #2'!R_3)</f>
         <v>4.613541042540443E-3</v>
       </c>
-      <c r="O5" s="93">
+      <c r="O5" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J5*1000+'Light sensor #2'!R_4)</f>
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="H6" s="75">
+      <c r="H6" s="73">
         <v>10.75</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="83">
         <f>(16+33)/2</f>
         <v>24.5</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="83">
         <v>48</v>
       </c>
-      <c r="K6" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="L6" s="93">
+      <c r="K6" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I6*1000+'Light sensor #2'!R_3)</f>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I6*1000+'Light sensor #2'!R_4)</f>
         <v>1.2531645569620253</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J6*1000+'Light sensor #2'!R_3)</f>
         <v>4.7433264887063654E-2</v>
       </c>
-      <c r="O6" s="93">
+      <c r="O6" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J6*1000+'Light sensor #2'!R_4)</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="T6" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="U6" s="88"/>
+      <c r="T6" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="U6" s="85"/>
     </row>
     <row r="7" spans="1:21" ht="18">
       <c r="A7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="82" t="e">
+        <v>220</v>
+      </c>
+      <c r="B7" s="79" t="e">
         <f>((R_2/(R_1+R_2))-(R_4/(R_3+R_4)))*V_in</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="75">
+      <c r="C7" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="73">
         <v>21.52</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="87">
         <v>10</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="83">
         <v>24</v>
       </c>
-      <c r="K7" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="93">
+      <c r="K7" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="L7" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I7*1000+'Light sensor #2'!R_3)</f>
         <v>0.21588785046728973</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I7*1000+'Light sensor #2'!R_4)</f>
         <v>1.98</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J7*1000+'Light sensor #2'!R_3)</f>
         <v>9.352226720647773E-2</v>
       </c>
-      <c r="O7" s="93">
+      <c r="O7" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J7*1000+'Light sensor #2'!R_4)</f>
         <v>1.2692307692307692</v>
       </c>
-      <c r="T7" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="U7" s="89"/>
+      <c r="T7" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="U7" s="86"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="H8" s="75">
+      <c r="H8" s="73">
         <v>107.53</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="83">
         <v>5</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="87">
         <v>2</v>
       </c>
-      <c r="K8" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="L8" s="93">
+      <c r="K8" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I8*1000+'Light sensor #2'!R_3)</f>
         <v>0.40526315789473683</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="90">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I8*1000+'Light sensor #2'!R_4)</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J8*1000+'Light sensor #2'!R_3)</f>
         <v>0.85555555555555551</v>
       </c>
-      <c r="O8" s="94">
+      <c r="O8" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J8*1000+'Light sensor #2'!R_4)</f>
         <v>2.9117647058823528</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="73">
+        <v>1075.3</v>
+      </c>
+      <c r="I9" s="87">
+        <v>1</v>
+      </c>
+      <c r="J9" s="87">
+        <v>1</v>
+      </c>
+      <c r="K9" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="75">
-        <v>1075.3</v>
-      </c>
-      <c r="I9" s="90">
-        <v>1</v>
-      </c>
-      <c r="J9" s="90">
-        <v>1</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="L9" s="84">
+      <c r="L9" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J9*1000+'Light sensor #2'!R_3)</f>
         <v>1.3588235294117648</v>
       </c>
-      <c r="O9" s="94">
+      <c r="O9" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J9*1000+'Light sensor #2'!R_4)</f>
         <v>3.09375</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="73">
         <v>10752.7</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="87">
         <v>0</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="87">
         <v>0</v>
       </c>
-      <c r="K10" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="84">
+      <c r="K10" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J10*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O10" s="94">
+      <c r="O10" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J10*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="H11" s="75">
+      <c r="H11" s="73">
         <v>107527</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="87">
         <v>0</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="87">
         <v>0</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="84">
+      <c r="K11" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(I11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="81">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(I11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_3/(J11*1000+'Light sensor #2'!R_3)</f>
         <v>3.3</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="91">
         <f>'Light sensor #2'!V_in*'Light sensor #2'!R_4/(J11*1000+'Light sensor #2'!R_4)</f>
         <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="L12" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="M12" s="97" t="s">
-        <v>256</v>
+      <c r="L12" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" s="94" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="N13" s="99" t="s">
-        <v>259</v>
-      </c>
-      <c r="O13" s="98" t="s">
-        <v>257</v>
+      <c r="N13" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="O13" s="95" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -30128,17 +30180,17 @@
   <sheetData>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -30169,158 +30221,158 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="39">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D1" s="44">
         <f>B1*10^3</f>
         <v>1000</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="43">
         <f>D1*10^3</f>
         <v>1000000</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H1" s="42">
         <f>D1*10^6</f>
         <v>1000000000</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="45">
         <f>1/B1</f>
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" s="44">
         <f>B2/10^3</f>
         <v>1E-3</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F2" s="43">
         <f>B2/10^6</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2" s="42">
         <f>F2/10^3</f>
         <v>9.9999999999999986E-10</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="41">
         <f>(F3*10^6)</f>
         <v>13333333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="40">
         <f>B3/10^3</f>
         <v>13333.333000000001</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F3" s="39">
         <f>13333333/1000000</f>
         <v>13.333333</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H3" s="37">
         <f>F3/10^3</f>
         <v>1.3333332999999999E-2</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4" s="35">
         <f>1/B3</f>
         <v>7.5000001875000043E-8</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="34">
         <f>B4*10^3</f>
         <v>7.500000187500004E-5</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="33">
         <f>D4*10^3</f>
         <v>7.5000001875000041E-2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="32">
         <f>B4*10^9</f>
         <v>75.000001875000038</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
@@ -30333,14 +30385,14 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6" s="29">
         <f>(H1/H4)-1</f>
         <v>13333332.000000002</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <f>E7*1000/E8</f>
@@ -30349,7 +30401,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="29" t="str">
         <f>DEC2HEX(B6)</f>
@@ -30357,7 +30409,7 @@
       </c>
       <c r="C7" s="67"/>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -30366,7 +30418,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="D8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>16000</v>
@@ -30374,17 +30426,17 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -30402,10 +30454,10 @@
         <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -30420,15 +30472,15 @@
         <v>639</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="E20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -30456,27 +30508,27 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B2" s="47">
         <v>42</v>
@@ -30495,12 +30547,12 @@
         <v>42</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" s="50">
         <f>PI()*B2</f>
@@ -30523,7 +30575,7 @@
         <v>131.94689145077132</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -30534,8 +30586,8 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="117" t="s">
-        <v>113</v>
+      <c r="A5" s="113" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="47">
         <v>50</v>
@@ -30553,21 +30605,21 @@
         <v>250</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
+        <v>109</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="117"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -30589,16 +30641,16 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
+        <v>110</v>
+      </c>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="52"/>
@@ -30606,18 +30658,18 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="118" t="s">
-        <v>116</v>
+      <c r="A8" s="114" t="s">
+        <v>111</v>
       </c>
       <c r="B8" s="50">
         <f>B3*B6</f>
@@ -30640,19 +30692,19 @@
         <v>549.77871437821386</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
+        <v>112</v>
+      </c>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="118"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -30674,19 +30726,19 @@
         <v>54.977871437821385</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
+        <v>113</v>
+      </c>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="118"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -30708,19 +30760,19 @@
         <v>0.54977871437821391</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
+        <v>114</v>
+      </c>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="118"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -30742,16 +30794,16 @@
         <v>1.97920337176157</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
+        <v>115</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="52"/>
@@ -30759,18 +30811,18 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="117" t="s">
-        <v>121</v>
+      <c r="A13" s="113" t="s">
+        <v>116</v>
       </c>
       <c r="B13" s="47">
         <v>32</v>
@@ -30788,19 +30840,19 @@
         <v>7</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
+        <v>117</v>
+      </c>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="117"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -30822,19 +30874,19 @@
         <v>4.9430863999999998E-2</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
+        <v>118</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="117"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -30856,19 +30908,19 @@
         <v>49.430864</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
+        <v>133</v>
+      </c>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="117"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -30890,20 +30942,20 @@
         <v>49.430864</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
+        <v>119</v>
+      </c>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="117" t="s">
-        <v>125</v>
+      <c r="A17" s="113" t="s">
+        <v>120</v>
       </c>
       <c r="B17" s="50">
         <f>B16/(B2/2)</f>
@@ -30926,19 +30978,19 @@
         <v>2.3538506666666668</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
+        <v>121</v>
+      </c>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="117"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -30960,60 +31012,60 @@
         <v>0.23994400271831465</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
+        <v>122</v>
+      </c>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
     </row>
     <row r="19" spans="1:16">
       <c r="B19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="54" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="56" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -31153,16 +31205,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20">
@@ -31172,17 +31224,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1">
@@ -31190,16 +31242,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20">
@@ -31209,7 +31261,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20">
@@ -31227,20 +31279,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -31254,13 +31306,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="20">
@@ -31276,16 +31328,16 @@
     <row r="6" spans="1:13" ht="48" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F6" s="20"/>
       <c r="H6" s="20"/>
@@ -31300,16 +31352,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24">
@@ -31319,7 +31371,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J7" s="24">
         <v>5</v>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
@@ -32,12 +32,12 @@
     <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="301">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1239,15 +1239,51 @@
   <si>
     <t>0 - Go Forward / 1 - Go Backward</t>
   </si>
+  <si>
+    <t>I2C0SCL</t>
+  </si>
+  <si>
+    <t>I2C0SDA</t>
+  </si>
+  <si>
+    <t>Output - Clock</t>
+  </si>
+  <si>
+    <t>I2C module 0 data.</t>
+  </si>
+  <si>
+    <t>I2C module 0 clock.</t>
+  </si>
+  <si>
+    <t>Accelerometer I2C clock</t>
+  </si>
+  <si>
+    <t>Accelerometer I2C data</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>High = I2C, Low = SPI</t>
+  </si>
+  <si>
+    <t>Accelerometer chip select</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2641,7 +2677,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>483179</xdr:colOff>
+      <xdr:colOff>483180</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>96308</xdr:rowOff>
     </xdr:to>
@@ -6888,7 +6924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6920,9 +6956,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6954,6 +6991,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7129,14 +7167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
@@ -7144,7 +7182,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -7162,7 +7200,7 @@
       <c r="O1" s="61"/>
       <c r="P1" s="61"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="60" t="s">
         <v>160</v>
@@ -7186,10 +7224,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>194</v>
       </c>
@@ -7200,7 +7238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>194</v>
       </c>
@@ -7214,7 +7252,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
         <v>157</v>
@@ -7223,7 +7261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
         <v>157</v>
@@ -7232,7 +7270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
         <v>157</v>
@@ -7241,10 +7279,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
@@ -7253,7 +7291,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="1" t="s">
         <v>144</v>
@@ -7262,7 +7300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>195</v>
       </c>
@@ -7273,7 +7311,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>195</v>
       </c>
@@ -7284,7 +7322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>195</v>
       </c>
@@ -7295,7 +7333,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>195</v>
       </c>
@@ -7306,7 +7344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="1" t="s">
         <v>144</v>
@@ -7315,7 +7353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="1" t="s">
         <v>144</v>
@@ -7324,7 +7362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>195</v>
       </c>
@@ -7335,7 +7373,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
         <v>147</v>
@@ -7344,10 +7382,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>195</v>
       </c>
@@ -7358,7 +7396,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="1" t="s">
         <v>154</v>
@@ -7367,7 +7405,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="46" t="s">
         <v>154</v>
@@ -7376,47 +7414,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
     </row>
   </sheetData>
@@ -7426,14 +7464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7501,7 +7539,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7590,7 +7628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7680,7 +7718,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7770,7 +7808,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -7894,7 +7932,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8020,7 +8058,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8138,7 +8176,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8252,7 +8290,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8364,7 +8402,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8478,7 +8516,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8590,7 +8628,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8704,7 +8742,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -8864,7 +8902,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9030,7 +9068,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9194,7 +9232,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9348,7 +9386,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9502,7 +9540,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9666,7 +9704,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -9834,7 +9872,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10004,7 +10042,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10156,7 +10194,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10286,7 +10324,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10402,7 +10440,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10526,7 +10564,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -10650,7 +10688,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -10772,7 +10810,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -10892,7 +10930,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11010,7 +11048,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11124,7 +11162,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11238,7 +11276,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11348,7 +11386,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11458,7 +11496,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11568,7 +11606,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11678,7 +11716,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11788,7 +11826,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11900,7 +11938,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12014,7 +12052,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12124,7 +12162,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12234,7 +12272,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12341,7 +12379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12439,7 +12477,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12528,7 +12566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -12617,7 +12655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -12706,7 +12744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -12792,7 +12830,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -12878,7 +12916,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -12964,7 +13002,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13050,7 +13088,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13136,7 +13174,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13474,7 +13512,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -13812,7 +13850,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14150,7 +14188,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14488,7 +14526,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -14826,7 +14864,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15176,14 +15214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15252,7 +15290,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15425,7 +15463,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15599,7 +15637,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -15829,7 +15867,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16031,7 +16069,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16233,7 +16271,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16447,7 +16485,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -16663,7 +16701,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -16875,7 +16913,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17087,7 +17125,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17313,7 +17351,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17487,7 +17525,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -17673,7 +17711,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -17871,7 +17909,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18065,7 +18103,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18251,7 +18289,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18443,7 +18481,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -18637,7 +18675,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -18831,7 +18869,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19013,7 +19051,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19195,7 +19233,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19389,7 +19427,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -19577,7 +19615,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -19771,7 +19809,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -19953,7 +19991,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20137,7 +20175,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20363,7 +20401,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20545,7 +20583,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -20727,7 +20765,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -20927,7 +20965,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21145,7 +21183,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21333,7 +21371,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21525,7 +21563,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -21717,7 +21755,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -21907,7 +21945,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22097,7 +22135,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22289,7 +22327,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22481,7 +22519,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -22673,7 +22711,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -22866,7 +22904,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23090,7 +23128,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23285,7 +23323,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23518,7 +23556,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -23741,7 +23779,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -23943,7 +23981,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24225,7 +24263,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24403,7 +24441,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -24605,7 +24643,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -24777,7 +24815,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25115,7 +25153,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25453,7 +25491,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -25791,7 +25829,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26129,7 +26167,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26467,7 +26505,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27112,14 +27150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="62" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="62" customWidth="1"/>
@@ -27135,7 +27173,7 @@
     <col min="40" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
@@ -27172,7 +27210,7 @@
       <c r="AL1" s="65"/>
       <c r="AM1" s="65"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66">
@@ -27221,7 +27259,7 @@
       <c r="AL2" s="66"/>
       <c r="AM2" s="65"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="66">
         <v>1</v>
@@ -27280,7 +27318,7 @@
       <c r="AL3" s="66"/>
       <c r="AM3" s="65"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66">
@@ -27341,7 +27379,7 @@
       <c r="AL4" s="66"/>
       <c r="AM4" s="65"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -27406,7 +27444,7 @@
       </c>
       <c r="AM5" s="65"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66">
@@ -27471,7 +27509,7 @@
       </c>
       <c r="AM6" s="65"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="66">
         <v>1</v>
@@ -27538,7 +27576,7 @@
       <c r="AL7" s="66"/>
       <c r="AM7" s="65"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66">
@@ -27599,7 +27637,7 @@
       <c r="AL8" s="66"/>
       <c r="AM8" s="64"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="66">
         <v>1</v>
@@ -27660,7 +27698,7 @@
       <c r="AL9" s="66"/>
       <c r="AM9" s="64"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -27697,7 +27735,7 @@
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="63" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -27799,7 +27837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -27836,7 +27874,7 @@
       <c r="AL14" s="65"/>
       <c r="AM14" s="65"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -27879,7 +27917,7 @@
       <c r="AL15" s="66"/>
       <c r="AM15" s="65"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -27932,7 +27970,7 @@
       <c r="AL16" s="66"/>
       <c r="AM16" s="65"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="66">
         <v>1</v>
@@ -28005,7 +28043,7 @@
       </c>
       <c r="AM17" s="65"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66">
@@ -28068,7 +28106,7 @@
       </c>
       <c r="AM18" s="65"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -28119,7 +28157,7 @@
       </c>
       <c r="AM19" s="65"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="64"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -28172,7 +28210,7 @@
       </c>
       <c r="AM20" s="65"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66">
@@ -28231,7 +28269,7 @@
       <c r="AL21" s="66"/>
       <c r="AM21" s="64"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -28274,7 +28312,7 @@
       <c r="AL22" s="66"/>
       <c r="AM22" s="64"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -28311,7 +28349,7 @@
       <c r="AL23" s="64"/>
       <c r="AM23" s="64"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="63" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28499,21 +28537,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>166</v>
       </c>
@@ -28521,7 +28559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -28535,7 +28573,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -28549,7 +28587,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -28560,7 +28598,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>167</v>
       </c>
@@ -28574,7 +28612,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L6">
         <v>2</v>
       </c>
@@ -28585,7 +28623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7">
         <v>3</v>
       </c>
@@ -28596,22 +28634,22 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11">
         <v>7</v>
       </c>
@@ -28629,17 +28667,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.140625" bestFit="1" customWidth="1"/>
@@ -28647,7 +28685,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -28670,7 +28708,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>33</v>
       </c>
@@ -28684,7 +28722,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -28696,13 +28734,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>42</v>
@@ -28718,7 +28756,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="103"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -28740,7 +28778,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103"/>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -28754,7 +28792,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="103"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -28776,7 +28814,7 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="103"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -28798,7 +28836,7 @@
       </c>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="103"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -28820,7 +28858,7 @@
       </c>
       <c r="H9" s="101"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="103" t="s">
         <v>276</v>
       </c>
@@ -28834,7 +28872,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="103"/>
       <c r="B12" s="1" t="s">
         <v>278</v>
@@ -28846,31 +28884,51 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="103"/>
       <c r="B13" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="103"/>
       <c r="B14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="103"/>
       <c r="B15" s="1" t="s">
         <v>281</v>
@@ -28882,7 +28940,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="103"/>
       <c r="B16" s="1" t="s">
         <v>282</v>
@@ -28894,7 +28952,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="103"/>
       <c r="B17" s="1" t="s">
         <v>283</v>
@@ -28906,7 +28964,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
         <v>27</v>
       </c>
@@ -28920,7 +28978,7 @@
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="103"/>
       <c r="B20" s="102"/>
       <c r="C20" s="102"/>
@@ -28930,7 +28988,7 @@
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="103"/>
       <c r="B21" s="102"/>
       <c r="C21" s="102"/>
@@ -28940,7 +28998,7 @@
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="103"/>
       <c r="B22" s="102"/>
       <c r="C22" s="102"/>
@@ -28950,7 +29008,7 @@
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="103"/>
       <c r="B23" s="99" t="s">
         <v>208</v>
@@ -28966,7 +29024,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="103"/>
       <c r="B24" s="99" t="s">
         <v>209</v>
@@ -28984,7 +29042,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="99"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="103"/>
       <c r="B25" s="99" t="s">
         <v>28</v>
@@ -29002,7 +29060,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="99"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="103"/>
       <c r="B26" s="99" t="s">
         <v>29</v>
@@ -29022,7 +29080,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="99"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="103" t="s">
         <v>25</v>
       </c>
@@ -29040,7 +29098,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="103"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -29056,7 +29114,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="103"/>
       <c r="B30" s="100" t="s">
         <v>268</v>
@@ -29078,7 +29136,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="103"/>
       <c r="B31" s="1" t="s">
         <v>253</v>
@@ -29100,21 +29158,31 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="103" t="s">
         <v>257</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="103"/>
       <c r="B34" s="1" t="s">
         <v>259</v>
@@ -29136,7 +29204,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="103"/>
       <c r="B35" s="1" t="s">
         <v>260</v>
@@ -29158,7 +29226,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103"/>
       <c r="B36" s="1" t="s">
         <v>261</v>
@@ -29180,7 +29248,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="103" t="s">
         <v>26</v>
       </c>
@@ -29202,7 +29270,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="103"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -29222,7 +29290,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="103"/>
       <c r="B40" s="3" t="s">
         <v>9</v>
@@ -29244,7 +29312,7 @@
       </c>
       <c r="H40" s="98"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="103"/>
       <c r="B41" s="4" t="s">
         <v>10</v>
@@ -29266,7 +29334,7 @@
       </c>
       <c r="H41" s="72"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="103"/>
       <c r="B42" s="1" t="s">
         <v>3</v>
@@ -29286,7 +29354,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>16</v>
       </c>
@@ -29297,7 +29365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -29322,14 +29390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29338,7 +29406,7 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -29370,7 +29438,7 @@
       </c>
       <c r="M1" s="109"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
@@ -29402,7 +29470,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>216</v>
       </c>
@@ -29435,7 +29503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>217</v>
       </c>
@@ -29476,7 +29544,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
@@ -29509,7 +29577,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H6" s="73">
         <v>10.75</v>
       </c>
@@ -29536,7 +29604,7 @@
       </c>
       <c r="Q6" s="85"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
@@ -29572,7 +29640,7 @@
       </c>
       <c r="Q7" s="86"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" s="73">
         <v>107.53</v>
       </c>
@@ -29594,7 +29662,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -29625,7 +29693,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -29656,7 +29724,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H11" s="73">
         <v>107527</v>
       </c>
@@ -29699,14 +29767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29715,7 +29783,7 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -29751,7 +29819,7 @@
       </c>
       <c r="O1" s="109"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
@@ -29789,7 +29857,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -29824,7 +29892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -29873,7 +29941,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
@@ -29914,7 +29982,7 @@
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H6" s="73">
         <v>10.75</v>
       </c>
@@ -29949,7 +30017,7 @@
       </c>
       <c r="U6" s="85"/>
     </row>
-    <row r="7" spans="1:21" ht="18">
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
@@ -29993,7 +30061,7 @@
       </c>
       <c r="U7" s="86"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H8" s="73">
         <v>107.53</v>
       </c>
@@ -30023,7 +30091,7 @@
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -30062,7 +30130,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -30101,7 +30169,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" s="73">
         <v>107527</v>
       </c>
@@ -30131,7 +30199,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="97" t="s">
         <v>252</v>
       </c>
@@ -30139,7 +30207,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N13" s="96" t="s">
         <v>252</v>
       </c>
@@ -30169,26 +30237,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>164</v>
       </c>
@@ -30200,14 +30268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30219,7 +30287,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>99</v>
       </c>
@@ -30254,7 +30322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
@@ -30295,7 +30363,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>94</v>
       </c>
@@ -30336,7 +30404,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>87</v>
       </c>
@@ -30377,13 +30445,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>80</v>
       </c>
@@ -30399,7 +30467,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>78</v>
       </c>
@@ -30416,7 +30484,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>170</v>
       </c>
@@ -30424,22 +30492,22 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30460,7 +30528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30478,7 +30546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>165</v>
       </c>
@@ -30490,14 +30558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -30506,7 +30574,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
@@ -30526,7 +30594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -30550,7 +30618,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>107</v>
       </c>
@@ -30578,14 +30646,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="113" t="s">
         <v>108</v>
       </c>
@@ -30618,7 +30686,7 @@
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="113"/>
       <c r="B6" s="50">
         <f>B5/60</f>
@@ -30652,7 +30720,7 @@
       <c r="O6" s="115"/>
       <c r="P6" s="115"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -30667,7 +30735,7 @@
       <c r="O7" s="115"/>
       <c r="P7" s="115"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="114" t="s">
         <v>111</v>
       </c>
@@ -30703,7 +30771,7 @@
       <c r="O8" s="115"/>
       <c r="P8" s="115"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="114"/>
       <c r="B9" s="50">
         <f>B8/10</f>
@@ -30737,7 +30805,7 @@
       <c r="O9" s="115"/>
       <c r="P9" s="115"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="114"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
@@ -30771,7 +30839,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="115"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="114"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
@@ -30805,7 +30873,7 @@
       <c r="O11" s="115"/>
       <c r="P11" s="115"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -30820,7 +30888,7 @@
       <c r="O12" s="115"/>
       <c r="P12" s="115"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>116</v>
       </c>
@@ -30851,7 +30919,7 @@
       <c r="O13" s="115"/>
       <c r="P13" s="115"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="113"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
@@ -30885,7 +30953,7 @@
       <c r="O14" s="115"/>
       <c r="P14" s="115"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
@@ -30919,7 +30987,7 @@
       <c r="O15" s="115"/>
       <c r="P15" s="115"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="113"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
@@ -30953,7 +31021,7 @@
       <c r="O16" s="115"/>
       <c r="P16" s="115"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
         <v>120</v>
       </c>
@@ -30989,7 +31057,7 @@
       <c r="O17" s="115"/>
       <c r="P17" s="115"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="113"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
@@ -31023,7 +31091,7 @@
       <c r="O18" s="115"/>
       <c r="P18" s="115"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>123</v>
       </c>
@@ -31040,22 +31108,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -31063,7 +31131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>131</v>
       </c>
@@ -31086,14 +31154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -31161,7 +31229,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -31200,7 +31268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -31237,7 +31305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1">
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -31274,7 +31342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1">
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -31301,7 +31369,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -31325,7 +31393,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1">
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>64</v>
@@ -31347,7 +31415,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -31382,7 +31450,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="Light sensor #2" sheetId="16" r:id="rId5"/>
     <sheet name="SW layout" sheetId="11" r:id="rId6"/>
     <sheet name="Timer Reload Value" sheetId="8" r:id="rId7"/>
-    <sheet name="Motor calc" sheetId="9" r:id="rId8"/>
-    <sheet name="LCD text test" sheetId="7" r:id="rId9"/>
-    <sheet name="Images Hex Gen" sheetId="5" r:id="rId10"/>
-    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId11"/>
-    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId12"/>
+    <sheet name="I2C" sheetId="17" r:id="rId8"/>
+    <sheet name="Motor calc" sheetId="9" r:id="rId9"/>
+    <sheet name="LCD text test" sheetId="7" r:id="rId10"/>
+    <sheet name="Images Hex Gen" sheetId="5" r:id="rId11"/>
+    <sheet name="Wellcome IMG WIP" sheetId="6" r:id="rId12"/>
+    <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="R_1" localSheetId="4">'Light sensor #2'!$D$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="302">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1274,6 +1275,9 @@
   </si>
   <si>
     <t>Accelerometer chip select</t>
+  </si>
+  <si>
+    <t>http://playground.arduino.cc/Main/MMA7455</t>
   </si>
 </sst>
 </file>
@@ -6881,6 +6885,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8239125" cy="6734175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7464,6 +7528,309 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="F2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="8.140625" customWidth="1"/>
+    <col min="258" max="269" width="8.140625" customWidth="1"/>
+    <col min="514" max="525" width="8.140625" customWidth="1"/>
+    <col min="770" max="781" width="8.140625" customWidth="1"/>
+    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
+    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
+    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
+    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
+    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
+    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
+    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
+    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
+    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
+    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
+    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
+    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
+    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
+    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
+    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
+    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
+    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
+    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
+    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
+    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
+    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
+    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
+    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
+    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
+    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
+    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
+    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
+    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
+    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
+    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
+    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
+    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
+    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
+    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
+    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
+    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
+    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
+    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
+    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
+    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
+    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
+    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
+    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
+    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
+    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
+    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
+    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
+    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
+    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
+    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
+    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
+    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
+    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
+    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
+    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
+    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
+    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
+    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
+    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
+    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
@@ -15213,7 +15580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
@@ -27149,7 +27516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -28670,7 +29037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -30559,6 +30926,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -31151,307 +31542,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="F2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="13" width="8.140625" customWidth="1"/>
-    <col min="258" max="269" width="8.140625" customWidth="1"/>
-    <col min="514" max="525" width="8.140625" customWidth="1"/>
-    <col min="770" max="781" width="8.140625" customWidth="1"/>
-    <col min="1026" max="1037" width="8.140625" customWidth="1"/>
-    <col min="1282" max="1293" width="8.140625" customWidth="1"/>
-    <col min="1538" max="1549" width="8.140625" customWidth="1"/>
-    <col min="1794" max="1805" width="8.140625" customWidth="1"/>
-    <col min="2050" max="2061" width="8.140625" customWidth="1"/>
-    <col min="2306" max="2317" width="8.140625" customWidth="1"/>
-    <col min="2562" max="2573" width="8.140625" customWidth="1"/>
-    <col min="2818" max="2829" width="8.140625" customWidth="1"/>
-    <col min="3074" max="3085" width="8.140625" customWidth="1"/>
-    <col min="3330" max="3341" width="8.140625" customWidth="1"/>
-    <col min="3586" max="3597" width="8.140625" customWidth="1"/>
-    <col min="3842" max="3853" width="8.140625" customWidth="1"/>
-    <col min="4098" max="4109" width="8.140625" customWidth="1"/>
-    <col min="4354" max="4365" width="8.140625" customWidth="1"/>
-    <col min="4610" max="4621" width="8.140625" customWidth="1"/>
-    <col min="4866" max="4877" width="8.140625" customWidth="1"/>
-    <col min="5122" max="5133" width="8.140625" customWidth="1"/>
-    <col min="5378" max="5389" width="8.140625" customWidth="1"/>
-    <col min="5634" max="5645" width="8.140625" customWidth="1"/>
-    <col min="5890" max="5901" width="8.140625" customWidth="1"/>
-    <col min="6146" max="6157" width="8.140625" customWidth="1"/>
-    <col min="6402" max="6413" width="8.140625" customWidth="1"/>
-    <col min="6658" max="6669" width="8.140625" customWidth="1"/>
-    <col min="6914" max="6925" width="8.140625" customWidth="1"/>
-    <col min="7170" max="7181" width="8.140625" customWidth="1"/>
-    <col min="7426" max="7437" width="8.140625" customWidth="1"/>
-    <col min="7682" max="7693" width="8.140625" customWidth="1"/>
-    <col min="7938" max="7949" width="8.140625" customWidth="1"/>
-    <col min="8194" max="8205" width="8.140625" customWidth="1"/>
-    <col min="8450" max="8461" width="8.140625" customWidth="1"/>
-    <col min="8706" max="8717" width="8.140625" customWidth="1"/>
-    <col min="8962" max="8973" width="8.140625" customWidth="1"/>
-    <col min="9218" max="9229" width="8.140625" customWidth="1"/>
-    <col min="9474" max="9485" width="8.140625" customWidth="1"/>
-    <col min="9730" max="9741" width="8.140625" customWidth="1"/>
-    <col min="9986" max="9997" width="8.140625" customWidth="1"/>
-    <col min="10242" max="10253" width="8.140625" customWidth="1"/>
-    <col min="10498" max="10509" width="8.140625" customWidth="1"/>
-    <col min="10754" max="10765" width="8.140625" customWidth="1"/>
-    <col min="11010" max="11021" width="8.140625" customWidth="1"/>
-    <col min="11266" max="11277" width="8.140625" customWidth="1"/>
-    <col min="11522" max="11533" width="8.140625" customWidth="1"/>
-    <col min="11778" max="11789" width="8.140625" customWidth="1"/>
-    <col min="12034" max="12045" width="8.140625" customWidth="1"/>
-    <col min="12290" max="12301" width="8.140625" customWidth="1"/>
-    <col min="12546" max="12557" width="8.140625" customWidth="1"/>
-    <col min="12802" max="12813" width="8.140625" customWidth="1"/>
-    <col min="13058" max="13069" width="8.140625" customWidth="1"/>
-    <col min="13314" max="13325" width="8.140625" customWidth="1"/>
-    <col min="13570" max="13581" width="8.140625" customWidth="1"/>
-    <col min="13826" max="13837" width="8.140625" customWidth="1"/>
-    <col min="14082" max="14093" width="8.140625" customWidth="1"/>
-    <col min="14338" max="14349" width="8.140625" customWidth="1"/>
-    <col min="14594" max="14605" width="8.140625" customWidth="1"/>
-    <col min="14850" max="14861" width="8.140625" customWidth="1"/>
-    <col min="15106" max="15117" width="8.140625" customWidth="1"/>
-    <col min="15362" max="15373" width="8.140625" customWidth="1"/>
-    <col min="15618" max="15629" width="8.140625" customWidth="1"/>
-    <col min="15874" max="15885" width="8.140625" customWidth="1"/>
-    <col min="16130" max="16141" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18">
-        <v>10</v>
-      </c>
-      <c r="M1" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>9</v>
-      </c>
-      <c r="H3" s="20">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="24">
-        <v>5</v>
-      </c>
-      <c r="K7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -7235,7 +7235,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29037,8 +29037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30928,7 +30928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="309">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1279,6 +1279,27 @@
   <si>
     <t>http://playground.arduino.cc/Main/MMA7455</t>
   </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>SSI3Clk</t>
+  </si>
+  <si>
+    <t>SSI3Rx</t>
+  </si>
+  <si>
+    <t>SSI3Tx</t>
+  </si>
+  <si>
+    <t>serial data</t>
+  </si>
+  <si>
+    <t>SSI3Fss - slave select</t>
+  </si>
 </sst>
 </file>
 
@@ -1887,7 +1908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2106,6 +2127,8 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29035,10 +29058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29451,86 +29474,110 @@
       <c r="A28" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="116"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="103"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="D29" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="116"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="103"/>
-      <c r="B30" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" s="3"/>
+      <c r="B30" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="116"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="103"/>
-      <c r="B31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="116" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="116"/>
+      <c r="F31" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="H31" s="116"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="70" t="s">
+      <c r="E32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="G32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="100" t="s">
-        <v>258</v>
+      <c r="A33" s="103"/>
+      <c r="B33" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -29539,215 +29586,239 @@
         <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>6</v>
+      <c r="A35" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103"/>
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C36" s="74" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
-        <v>26</v>
-      </c>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="103"/>
+      <c r="B37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="103"/>
       <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="103"/>
+      <c r="B41" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="98"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="72"/>
+        <v>138</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="103"/>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="98"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="103"/>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="A44" s="103"/>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B19:H22"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A40:A44"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -2085,6 +2085,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,8 +2129,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29060,8 +29060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29099,7 +29099,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -29113,7 +29113,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
@@ -29125,7 +29125,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -29147,7 +29147,7 @@
       <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -29169,7 +29169,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -29183,7 +29183,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -29205,7 +29205,7 @@
       <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -29227,7 +29227,7 @@
       <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -29249,7 +29249,7 @@
       <c r="H9" s="101"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="105" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -29263,7 +29263,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="1" t="s">
         <v>278</v>
       </c>
@@ -29275,7 +29275,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="1" t="s">
         <v>279</v>
       </c>
@@ -29297,7 +29297,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="1" t="s">
         <v>280</v>
       </c>
@@ -29319,7 +29319,7 @@
       <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="1" t="s">
         <v>281</v>
       </c>
@@ -29331,7 +29331,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="1" t="s">
         <v>282</v>
       </c>
@@ -29343,7 +29343,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="1" t="s">
         <v>283</v>
       </c>
@@ -29355,51 +29355,51 @@
       <c r="H17" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="99" t="s">
         <v>208</v>
       </c>
@@ -29415,7 +29415,7 @@
       <c r="H23" s="99"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="99" t="s">
         <v>209</v>
       </c>
@@ -29433,7 +29433,7 @@
       <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="99" t="s">
         <v>28</v>
       </c>
@@ -29451,7 +29451,7 @@
       <c r="H25" s="99"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="99" t="s">
         <v>29</v>
       </c>
@@ -29471,89 +29471,89 @@
       <c r="H26" s="99"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117" t="s">
+      <c r="E28" s="102"/>
+      <c r="F28" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="116"/>
+      <c r="H28" s="102"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="116" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117" t="s">
+      <c r="E29" s="102"/>
+      <c r="F29" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="G29" s="116" t="s">
+      <c r="G29" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="116"/>
+      <c r="H29" s="102"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="102" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116" t="s">
+      <c r="E30" s="102"/>
+      <c r="F30" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="G30" s="116" t="s">
+      <c r="G30" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="H30" s="116"/>
+      <c r="H30" s="102"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="116" t="s">
+      <c r="A31" s="105"/>
+      <c r="B31" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="117" t="s">
+      <c r="E31" s="102"/>
+      <c r="F31" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="G31" s="116" t="s">
+      <c r="G31" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="116"/>
+      <c r="H31" s="102"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="100" t="s">
         <v>268</v>
       </c>
@@ -29575,7 +29575,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="1" t="s">
         <v>253</v>
       </c>
@@ -29597,7 +29597,7 @@
       <c r="H33" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="105" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="100" t="s">
@@ -29621,7 +29621,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="1" t="s">
         <v>259</v>
       </c>
@@ -29643,7 +29643,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="1" t="s">
         <v>260</v>
       </c>
@@ -29665,7 +29665,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="1" t="s">
         <v>261</v>
       </c>
@@ -29687,7 +29687,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -29709,7 +29709,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
@@ -29729,7 +29729,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
@@ -29751,7 +29751,7 @@
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
@@ -29773,7 +29773,7 @@
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -29861,20 +29861,20 @@
       <c r="E1" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="104" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="109"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29893,14 +29893,14 @@
       <c r="E2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="108"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="80" t="s">
         <v>237</v>
       </c>
       <c r="J2" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="105"/>
+      <c r="K2" s="107"/>
       <c r="L2" s="80" t="s">
         <v>237</v>
       </c>
@@ -29928,15 +29928,15 @@
       <c r="H3" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="110" t="s">
+      <c r="J3" s="113"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="111"/>
+      <c r="M3" s="113"/>
       <c r="P3" t="s">
         <v>235</v>
       </c>
@@ -30238,24 +30238,24 @@
       <c r="E1" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="104" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="109"/>
+      <c r="O1" s="111"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -30274,14 +30274,14 @@
       <c r="E2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="108"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="80" t="s">
         <v>237</v>
       </c>
       <c r="J2" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="105"/>
+      <c r="K2" s="107"/>
       <c r="L2" s="80" t="s">
         <v>244</v>
       </c>
@@ -30315,17 +30315,17 @@
       <c r="H3" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="110" t="s">
+      <c r="J3" s="113"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="111"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="113"/>
       <c r="T3" t="s">
         <v>235</v>
       </c>
@@ -31116,7 +31116,7 @@
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="47">
@@ -31137,19 +31137,19 @@
       <c r="G5" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="50">
         <f>B5/60</f>
         <v>0.83333333333333337</v>
@@ -31173,14 +31173,14 @@
       <c r="G6" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="52"/>
@@ -31188,17 +31188,17 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="50">
@@ -31224,17 +31224,17 @@
       <c r="G8" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="50">
         <f>B8/10</f>
         <v>10.995574287564278</v>
@@ -31258,17 +31258,17 @@
       <c r="G9" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
         <v>0.10995574287564278</v>
@@ -31292,17 +31292,17 @@
       <c r="G10" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
         <v>0.39584067435231401</v>
@@ -31326,14 +31326,14 @@
       <c r="G11" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
@@ -31341,17 +31341,17 @@
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="47">
@@ -31372,17 +31372,17 @@
       <c r="G13" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
         <v>0.22596966399999999</v>
@@ -31406,17 +31406,17 @@
       <c r="G14" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
         <v>225.96966399999999</v>
@@ -31440,17 +31440,17 @@
       <c r="G15" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
         <v>225.96966399999999</v>
@@ -31474,17 +31474,17 @@
       <c r="G16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="115" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="50">
@@ -31510,17 +31510,17 @@
       <c r="G17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
         <v>1.0968868695694383</v>
@@ -31544,14 +31544,14 @@
       <c r="G18" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="838" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
     <sheet name="Sys setup" sheetId="13" r:id="rId2"/>
     <sheet name="Pin Layout" sheetId="1" r:id="rId3"/>
-    <sheet name="Light sensor #1" sheetId="15" r:id="rId4"/>
-    <sheet name="Light sensor #2" sheetId="16" r:id="rId5"/>
-    <sheet name="SW layout" sheetId="11" r:id="rId6"/>
-    <sheet name="Timer Reload Value" sheetId="8" r:id="rId7"/>
-    <sheet name="I2C" sheetId="17" r:id="rId8"/>
+    <sheet name="I2C" sheetId="17" r:id="rId4"/>
+    <sheet name="Light sensor #1" sheetId="15" r:id="rId5"/>
+    <sheet name="Light sensor #2" sheetId="16" r:id="rId6"/>
+    <sheet name="SW layout" sheetId="11" r:id="rId7"/>
+    <sheet name="Timer Reload Value" sheetId="8" r:id="rId8"/>
     <sheet name="Motor calc" sheetId="9" r:id="rId9"/>
     <sheet name="LCD text test" sheetId="7" r:id="rId10"/>
     <sheet name="Images Hex Gen" sheetId="5" r:id="rId11"/>
@@ -22,23 +22,23 @@
     <sheet name="Font and symbol Hex Gen" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="R_1" localSheetId="4">'Light sensor #2'!$D$1</definedName>
+    <definedName name="R_1" localSheetId="5">'Light sensor #2'!$D$1</definedName>
     <definedName name="R_1">'Light sensor #1'!$D$1</definedName>
-    <definedName name="R_2" localSheetId="4">'Light sensor #2'!$D$2</definedName>
+    <definedName name="R_2" localSheetId="5">'Light sensor #2'!$D$2</definedName>
     <definedName name="R_2">'Light sensor #1'!$D$2</definedName>
-    <definedName name="R_3" localSheetId="4">'Light sensor #2'!$D$3</definedName>
+    <definedName name="R_3" localSheetId="5">'Light sensor #2'!$D$3</definedName>
     <definedName name="R_3">'Light sensor #1'!$D$3</definedName>
-    <definedName name="R_4" localSheetId="4">'Light sensor #2'!$D$4</definedName>
+    <definedName name="R_4" localSheetId="5">'Light sensor #2'!$D$4</definedName>
     <definedName name="R_4">'Light sensor #1'!$D$4</definedName>
-    <definedName name="V_in" localSheetId="4">'Light sensor #2'!$B$5</definedName>
+    <definedName name="V_in" localSheetId="5">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="317">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1300,15 +1300,39 @@
   <si>
     <t>SSI3Fss - slave select</t>
   </si>
+  <si>
+    <t>MMA7455L</t>
+  </si>
+  <si>
+    <t>SINGLE BYTE WRITE</t>
+  </si>
+  <si>
+    <t>To start a write command, the Master transmits a start condition (ST) to the MMA7455L, slave address ($1D) with the R/W bit set</t>
+  </si>
+  <si>
+    <t>to “0” for a write, the MMA7455L sends an acknowledgement. Then the Master (MCU) transmits the 8-bit address of the register</t>
+  </si>
+  <si>
+    <t>to write to, and the MMA7455L sends an acknowledgement. Then the Master (or MCU) transmits the 8-bit data to write to the</t>
+  </si>
+  <si>
+    <t>designated register and the MMA7455L sends an acknowledgement that it has received the data. Since this transmission is complete,</t>
+  </si>
+  <si>
+    <t>the Master transmits a stop condition (SP) to the data transfer. The data sent to the MMA7455L is now stored in the appropriate</t>
+  </si>
+  <si>
+    <t>register. See Figure 9.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2738,6 +2762,113 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="6438900" cy="5262777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="6181725" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -3763,7 +3894,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4587,7 +4718,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6908,66 +7039,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8239125" cy="6734175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7011,7 +7082,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7043,10 +7114,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7078,7 +7148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7254,14 +7323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
@@ -7269,7 +7338,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -7287,7 +7356,7 @@
       <c r="O1" s="61"/>
       <c r="P1" s="61"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="61"/>
       <c r="B2" s="60" t="s">
         <v>160</v>
@@ -7311,10 +7380,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="61"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="61" t="s">
         <v>194</v>
       </c>
@@ -7325,7 +7394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="61" t="s">
         <v>194</v>
       </c>
@@ -7339,7 +7408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
         <v>157</v>
@@ -7348,7 +7417,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
         <v>157</v>
@@ -7357,7 +7426,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
         <v>157</v>
@@ -7366,10 +7435,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="61"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="61"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
@@ -7378,7 +7447,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="61"/>
       <c r="B11" s="1" t="s">
         <v>144</v>
@@ -7387,7 +7456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="61" t="s">
         <v>195</v>
       </c>
@@ -7398,7 +7467,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="61" t="s">
         <v>195</v>
       </c>
@@ -7409,7 +7478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="61" t="s">
         <v>195</v>
       </c>
@@ -7420,7 +7489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="61" t="s">
         <v>195</v>
       </c>
@@ -7431,7 +7500,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="61"/>
       <c r="B16" s="1" t="s">
         <v>144</v>
@@ -7440,7 +7509,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="61"/>
       <c r="B17" s="1" t="s">
         <v>144</v>
@@ -7449,7 +7518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="61" t="s">
         <v>195</v>
       </c>
@@ -7460,7 +7529,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
         <v>147</v>
@@ -7469,10 +7538,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="61" t="s">
         <v>195</v>
       </c>
@@ -7483,7 +7552,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="61"/>
       <c r="B22" s="1" t="s">
         <v>154</v>
@@ -7492,7 +7561,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="61"/>
       <c r="B23" s="46" t="s">
         <v>154</v>
@@ -7501,47 +7570,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="61"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="61"/>
     </row>
   </sheetData>
@@ -7551,14 +7620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -7626,7 +7695,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -7665,7 +7734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -7702,7 +7771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="48" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -7739,7 +7808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -7766,7 +7835,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="48" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -7790,7 +7859,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="48" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>64</v>
@@ -7812,7 +7881,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -7847,21 +7916,21 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -7929,7 +7998,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8018,7 +8087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -8108,7 +8177,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8198,7 +8267,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8322,7 +8391,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8448,7 +8517,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8566,7 +8635,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8680,7 +8749,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8792,7 +8861,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8906,7 +8975,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -9018,7 +9087,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -9132,7 +9201,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9292,7 +9361,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9458,7 +9527,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9622,7 +9691,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9776,7 +9845,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9930,7 +9999,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -10094,7 +10163,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10262,7 +10331,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10432,7 +10501,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10584,7 +10653,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10714,7 +10783,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10830,7 +10899,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10954,7 +11023,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -11078,7 +11147,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11200,7 +11269,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11320,7 +11389,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11438,7 +11507,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11552,7 +11621,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11666,7 +11735,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11776,7 +11845,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11886,7 +11955,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -11996,7 +12065,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12106,7 +12175,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12216,7 +12285,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12328,7 +12397,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12442,7 +12511,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12552,7 +12621,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12662,7 +12731,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12769,7 +12838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12867,7 +12936,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12956,7 +13025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13045,7 +13114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13134,7 +13203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13220,7 +13289,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13306,7 +13375,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13392,7 +13461,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13478,7 +13547,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13564,7 +13633,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13902,7 +13971,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14240,7 +14309,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14578,7 +14647,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14916,7 +14985,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15254,7 +15323,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15604,14 +15673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15680,7 +15749,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15853,7 +15922,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -16027,7 +16096,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16257,7 +16326,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16459,7 +16528,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16661,7 +16730,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16875,7 +16944,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -17091,7 +17160,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17303,7 +17372,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17515,7 +17584,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17741,7 +17810,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17915,7 +17984,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -18101,7 +18170,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18299,7 +18368,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18493,7 +18562,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18679,7 +18748,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18871,7 +18940,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -19065,7 +19134,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19259,7 +19328,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19441,7 +19510,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19623,7 +19692,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19817,7 +19886,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -20005,7 +20074,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20199,7 +20268,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20381,7 +20450,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20565,7 +20634,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20791,7 +20860,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -20973,7 +21042,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -21155,7 +21224,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21355,7 +21424,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21573,7 +21642,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21761,7 +21830,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -21953,7 +22022,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -22145,7 +22214,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22335,7 +22404,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22525,7 +22594,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22717,7 +22786,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22909,7 +22978,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -23101,7 +23170,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23294,7 +23363,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23518,7 +23587,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23713,7 +23782,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -23946,7 +24015,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24169,7 +24238,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24371,7 +24440,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24653,7 +24722,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24831,7 +24900,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -25033,7 +25102,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25205,7 +25274,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:84">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25543,7 +25612,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:84">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25881,7 +25950,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:84">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26219,7 +26288,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:84">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26557,7 +26626,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:84">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26895,7 +26964,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:84">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27540,14 +27609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="62" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="62" customWidth="1"/>
@@ -27563,7 +27632,7 @@
     <col min="40" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
@@ -27600,7 +27669,7 @@
       <c r="AL1" s="65"/>
       <c r="AM1" s="65"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="64"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66">
@@ -27649,7 +27718,7 @@
       <c r="AL2" s="66"/>
       <c r="AM2" s="65"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="64"/>
       <c r="B3" s="66">
         <v>1</v>
@@ -27708,7 +27777,7 @@
       <c r="AL3" s="66"/>
       <c r="AM3" s="65"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66">
@@ -27769,7 +27838,7 @@
       <c r="AL4" s="66"/>
       <c r="AM4" s="65"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="64"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -27834,7 +27903,7 @@
       </c>
       <c r="AM5" s="65"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66">
@@ -27899,7 +27968,7 @@
       </c>
       <c r="AM6" s="65"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="64"/>
       <c r="B7" s="66">
         <v>1</v>
@@ -27966,7 +28035,7 @@
       <c r="AL7" s="66"/>
       <c r="AM7" s="65"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66">
@@ -28027,7 +28096,7 @@
       <c r="AL8" s="66"/>
       <c r="AM8" s="64"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="64"/>
       <c r="B9" s="66">
         <v>1</v>
@@ -28088,7 +28157,7 @@
       <c r="AL9" s="66"/>
       <c r="AM9" s="64"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -28125,7 +28194,7 @@
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="63" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28227,7 +28296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -28264,7 +28333,7 @@
       <c r="AL14" s="65"/>
       <c r="AM14" s="65"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="64"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -28307,7 +28376,7 @@
       <c r="AL15" s="66"/>
       <c r="AM15" s="65"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="64"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -28360,7 +28429,7 @@
       <c r="AL16" s="66"/>
       <c r="AM16" s="65"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="64"/>
       <c r="B17" s="66">
         <v>1</v>
@@ -28433,7 +28502,7 @@
       </c>
       <c r="AM17" s="65"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="64"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66">
@@ -28496,7 +28565,7 @@
       </c>
       <c r="AM18" s="65"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="64"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -28547,7 +28616,7 @@
       </c>
       <c r="AM19" s="65"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="64"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -28600,7 +28669,7 @@
       </c>
       <c r="AM20" s="65"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="64"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66">
@@ -28659,7 +28728,7 @@
       <c r="AL21" s="66"/>
       <c r="AM21" s="64"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="64"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -28702,7 +28771,7 @@
       <c r="AL22" s="66"/>
       <c r="AM22" s="64"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -28739,7 +28808,7 @@
       <c r="AL23" s="64"/>
       <c r="AM23" s="64"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="B25" s="63" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -28927,21 +28996,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
         <v>166</v>
       </c>
@@ -28949,7 +29018,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -28963,7 +29032,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -28977,7 +29046,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="L4">
         <v>1</v>
       </c>
@@ -28988,7 +29057,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="68" t="s">
         <v>167</v>
       </c>
@@ -29002,7 +29071,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="L6">
         <v>2</v>
       </c>
@@ -29013,7 +29082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="L7">
         <v>3</v>
       </c>
@@ -29024,22 +29093,22 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="L8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="L9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="L10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="L11">
         <v>7</v>
       </c>
@@ -29057,14 +29126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -29075,7 +29144,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -29098,7 +29167,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="105" t="s">
         <v>33</v>
       </c>
@@ -29112,7 +29181,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="105"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -29124,7 +29193,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="105"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
@@ -29146,7 +29215,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="105"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -29168,7 +29237,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="105"/>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -29182,7 +29251,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="105"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -29204,7 +29273,7 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="105"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -29226,7 +29295,7 @@
       </c>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="105"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -29248,7 +29317,7 @@
       </c>
       <c r="H9" s="101"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="105" t="s">
         <v>276</v>
       </c>
@@ -29262,7 +29331,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="105"/>
       <c r="B12" s="1" t="s">
         <v>278</v>
@@ -29274,7 +29343,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="105"/>
       <c r="B13" s="1" t="s">
         <v>279</v>
@@ -29296,7 +29365,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="105"/>
       <c r="B14" s="1" t="s">
         <v>280</v>
@@ -29318,7 +29387,7 @@
       </c>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="105"/>
       <c r="B15" s="1" t="s">
         <v>281</v>
@@ -29330,7 +29399,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="105"/>
       <c r="B16" s="1" t="s">
         <v>282</v>
@@ -29342,7 +29411,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="105"/>
       <c r="B17" s="1" t="s">
         <v>283</v>
@@ -29354,7 +29423,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="105" t="s">
         <v>27</v>
       </c>
@@ -29368,7 +29437,7 @@
       <c r="G19" s="104"/>
       <c r="H19" s="104"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="105"/>
       <c r="B20" s="104"/>
       <c r="C20" s="104"/>
@@ -29378,7 +29447,7 @@
       <c r="G20" s="104"/>
       <c r="H20" s="104"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="105"/>
       <c r="B21" s="104"/>
       <c r="C21" s="104"/>
@@ -29388,7 +29457,7 @@
       <c r="G21" s="104"/>
       <c r="H21" s="104"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="105"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
@@ -29398,7 +29467,7 @@
       <c r="G22" s="104"/>
       <c r="H22" s="104"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="105"/>
       <c r="B23" s="99" t="s">
         <v>208</v>
@@ -29414,7 +29483,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="105"/>
       <c r="B24" s="99" t="s">
         <v>209</v>
@@ -29432,7 +29501,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="99"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="105"/>
       <c r="B25" s="99" t="s">
         <v>28</v>
@@ -29450,7 +29519,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="99"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="105"/>
       <c r="B26" s="99" t="s">
         <v>29</v>
@@ -29470,7 +29539,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="99"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="105" t="s">
         <v>25</v>
       </c>
@@ -29492,7 +29561,7 @@
       </c>
       <c r="H28" s="102"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="105"/>
       <c r="B29" s="102" t="s">
         <v>22</v>
@@ -29512,7 +29581,7 @@
       </c>
       <c r="H29" s="102"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="105"/>
       <c r="B30" s="102" t="s">
         <v>302</v>
@@ -29532,7 +29601,7 @@
       </c>
       <c r="H30" s="102"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="105"/>
       <c r="B31" s="102" t="s">
         <v>303</v>
@@ -29552,7 +29621,7 @@
       </c>
       <c r="H31" s="102"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="105"/>
       <c r="B32" s="100" t="s">
         <v>268</v>
@@ -29574,7 +29643,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="105"/>
       <c r="B33" s="1" t="s">
         <v>253</v>
@@ -29596,7 +29665,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="105" t="s">
         <v>257</v>
       </c>
@@ -29620,7 +29689,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="105"/>
       <c r="B36" s="1" t="s">
         <v>259</v>
@@ -29642,7 +29711,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="105"/>
       <c r="B37" s="1" t="s">
         <v>260</v>
@@ -29664,7 +29733,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="105"/>
       <c r="B38" s="1" t="s">
         <v>261</v>
@@ -29686,7 +29755,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" s="105" t="s">
         <v>26</v>
       </c>
@@ -29708,7 +29777,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" s="105"/>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -29728,7 +29797,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="105"/>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -29750,7 +29819,7 @@
       </c>
       <c r="H42" s="98"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="105"/>
       <c r="B43" s="4" t="s">
         <v>10</v>
@@ -29772,7 +29841,7 @@
       </c>
       <c r="H43" s="72"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="105"/>
       <c r="B44" s="1" t="s">
         <v>3</v>
@@ -29792,7 +29861,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>16</v>
       </c>
@@ -29803,7 +29872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" t="s">
         <v>18</v>
       </c>
@@ -29828,14 +29897,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:P45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="16:16">
+      <c r="P2" s="57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -29844,7 +29977,7 @@
     <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -29876,7 +30009,7 @@
       </c>
       <c r="M1" s="111"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
@@ -29908,7 +30041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>216</v>
       </c>
@@ -29941,7 +30074,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>217</v>
       </c>
@@ -29982,7 +30115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
@@ -30015,7 +30148,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="H6" s="73">
         <v>10.75</v>
       </c>
@@ -30042,7 +30175,7 @@
       </c>
       <c r="Q6" s="85"/>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
@@ -30078,7 +30211,7 @@
       </c>
       <c r="Q7" s="86"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="H8" s="73">
         <v>107.53</v>
       </c>
@@ -30100,7 +30233,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -30131,7 +30264,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -30162,7 +30295,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="H11" s="73">
         <v>107527</v>
       </c>
@@ -30204,15 +30337,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
@@ -30221,7 +30354,7 @@
     <col min="12" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -30257,7 +30390,7 @@
       </c>
       <c r="O1" s="111"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
@@ -30295,7 +30428,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -30330,7 +30463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -30379,7 +30512,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18">
       <c r="A5" s="1" t="s">
         <v>218</v>
       </c>
@@ -30420,7 +30553,7 @@
         <v>9.6116504854368928E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="H6" s="73">
         <v>10.75</v>
       </c>
@@ -30455,7 +30588,7 @@
       </c>
       <c r="U6" s="85"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18">
       <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
@@ -30499,7 +30632,7 @@
       </c>
       <c r="U7" s="86"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="H8" s="73">
         <v>107.53</v>
       </c>
@@ -30529,7 +30662,7 @@
         <v>2.9117647058823528</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -30568,7 +30701,7 @@
         <v>3.09375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -30607,7 +30740,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="H11" s="73">
         <v>107527</v>
       </c>
@@ -30637,7 +30770,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="L12" s="97" t="s">
         <v>252</v>
       </c>
@@ -30645,7 +30778,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="N13" s="96" t="s">
         <v>252</v>
       </c>
@@ -30674,27 +30807,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>164</v>
       </c>
@@ -30705,15 +30838,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -30725,7 +30858,7 @@
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>99</v>
       </c>
@@ -30760,7 +30893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
@@ -30801,7 +30934,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>94</v>
       </c>
@@ -30842,7 +30975,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="36" t="s">
         <v>87</v>
       </c>
@@ -30883,13 +31016,13 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="H5">
         <f>1/B3*10^9</f>
         <v>75.000001875000038</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="30" t="s">
         <v>80</v>
       </c>
@@ -30905,7 +31038,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="30" t="s">
         <v>78</v>
       </c>
@@ -30922,7 +31055,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="D8" t="s">
         <v>170</v>
       </c>
@@ -30930,22 +31063,22 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>7999999</v>
       </c>
@@ -30966,7 +31099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1599999</v>
       </c>
@@ -30984,7 +31117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="E20" t="s">
         <v>165</v>
       </c>
@@ -30995,39 +31128,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P2" s="57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -31036,7 +31145,7 @@
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
@@ -31056,7 +31165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -31080,7 +31189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="46" t="s">
         <v>107</v>
       </c>
@@ -31108,14 +31217,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="115" t="s">
         <v>108</v>
       </c>
@@ -31148,7 +31257,7 @@
       <c r="O5" s="117"/>
       <c r="P5" s="117"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="115"/>
       <c r="B6" s="50">
         <f>B5/60</f>
@@ -31182,7 +31291,7 @@
       <c r="O6" s="117"/>
       <c r="P6" s="117"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -31197,7 +31306,7 @@
       <c r="O7" s="117"/>
       <c r="P7" s="117"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="116" t="s">
         <v>111</v>
       </c>
@@ -31233,7 +31342,7 @@
       <c r="O8" s="117"/>
       <c r="P8" s="117"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="116"/>
       <c r="B9" s="50">
         <f>B8/10</f>
@@ -31267,7 +31376,7 @@
       <c r="O9" s="117"/>
       <c r="P9" s="117"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="116"/>
       <c r="B10" s="50">
         <f>B8/1000</f>
@@ -31301,7 +31410,7 @@
       <c r="O10" s="117"/>
       <c r="P10" s="117"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="116"/>
       <c r="B11" s="50">
         <f>B10*3.6</f>
@@ -31335,7 +31444,7 @@
       <c r="O11" s="117"/>
       <c r="P11" s="117"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -31350,7 +31459,7 @@
       <c r="O12" s="117"/>
       <c r="P12" s="117"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="115" t="s">
         <v>116</v>
       </c>
@@ -31381,7 +31490,7 @@
       <c r="O13" s="117"/>
       <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="115"/>
       <c r="B14" s="50">
         <f>B13*0.007061552</f>
@@ -31415,7 +31524,7 @@
       <c r="O14" s="117"/>
       <c r="P14" s="117"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="115"/>
       <c r="B15" s="49">
         <f t="shared" ref="B15:E15" si="0">B16</f>
@@ -31449,7 +31558,7 @@
       <c r="O15" s="117"/>
       <c r="P15" s="117"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="115"/>
       <c r="B16" s="50">
         <f>B14*1000</f>
@@ -31483,7 +31592,7 @@
       <c r="O16" s="117"/>
       <c r="P16" s="117"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="115" t="s">
         <v>120</v>
       </c>
@@ -31519,7 +31628,7 @@
       <c r="O17" s="117"/>
       <c r="P17" s="117"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="115"/>
       <c r="B18" s="50">
         <f>B17/9.81</f>
@@ -31553,7 +31662,7 @@
       <c r="O18" s="117"/>
       <c r="P18" s="117"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" t="s">
         <v>123</v>
       </c>
@@ -31570,22 +31679,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="55" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -31593,7 +31702,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="B25" s="57" t="s">
         <v>131</v>
       </c>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="930" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To Do!!!" sheetId="10" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1697,6 +1697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBB65BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF716B3F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2153,6 +2159,8 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2702,8 +2710,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF716B3F"/>
       <color rgb="FFBB65BD"/>
-      <color rgb="FF716B3F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2786,7 +2794,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2806,7 +2814,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -29129,8 +29137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29363,7 +29371,7 @@
       <c r="G13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="105"/>
@@ -29385,7 +29393,7 @@
       <c r="G14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="119"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="105"/>
@@ -29900,7 +29908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>

--- a/documentation/Droidbot.xlsx
+++ b/documentation/Droidbot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="930" activeTab="2"/>
@@ -33,12 +33,12 @@
     <definedName name="V_in" localSheetId="5">'Light sensor #2'!$B$5</definedName>
     <definedName name="V_in">'Light sensor #1'!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="318">
   <si>
     <t>PF0 (SW 2)</t>
   </si>
@@ -1324,15 +1324,18 @@
   <si>
     <t>register. See Figure 9.</t>
   </si>
+  <si>
+    <t>Pull up, low level interrupt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,7 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2117,6 +2120,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2159,8 +2164,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2794,7 +2798,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2814,7 +2818,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7090,7 +7094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7122,9 +7126,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7156,6 +7161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7331,14 +7337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
@@ -7346,7 +7352,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -7364,7 +7370,7 @@
       <c r="O1" s="61"/>
       <c r="P1" s="61"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="60" t="s">
         <v>160</v>
@@ -7388,10 +7394,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>194</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>194</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
         <v>157</v>
@@ -7425,7 +7431,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
         <v>157</v>
@@ -7434,7 +7440,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
         <v>157</v>
@@ -7443,10 +7449,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
@@ -7455,7 +7461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="1" t="s">
         <v>144</v>
@@ -7464,7 +7470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>195</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>195</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>195</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>195</v>
       </c>
@@ -7508,7 +7514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="1" t="s">
         <v>144</v>
@@ -7517,7 +7523,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="1" t="s">
         <v>144</v>
@@ -7526,7 +7532,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>195</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
         <v>147</v>
@@ -7546,10 +7552,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>195</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="1" t="s">
         <v>154</v>
@@ -7569,7 +7575,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="46" t="s">
         <v>154</v>
@@ -7578,47 +7584,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
     </row>
   </sheetData>
@@ -7628,14 +7634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="13" width="8.140625" customWidth="1"/>
     <col min="258" max="269" width="8.140625" customWidth="1"/>
@@ -7703,7 +7709,7 @@
     <col min="16130" max="16141" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17">
         <v>0</v>
       </c>
@@ -7742,7 +7748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1">
+    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48" customHeight="1">
+    <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -7843,7 +7849,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -7867,7 +7873,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="48" customHeight="1">
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>64</v>
@@ -7889,7 +7895,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -7924,21 +7930,21 @@
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1"/>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH55"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BM17" sqref="BM17:BO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="257" max="340" width="2.85546875" customWidth="1"/>
@@ -8006,7 +8012,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="16.5" customHeight="1">
+    <row r="1" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8095,7 +8101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="16.5" customHeight="1">
+    <row r="2" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -8185,7 +8191,7 @@
         <v>const char Name_goes_here[] = {</v>
       </c>
     </row>
-    <row r="3" spans="1:86" ht="16.5" customHeight="1">
+    <row r="3" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8275,7 +8281,7 @@
         <v xml:space="preserve">  0x08, 0x08, 0x08, 0x08, 0x08, 0x18, 0x18, 0x18, 0x38, 0x30, 0x30, 0x30, 0x70, 0xF0,</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="16.5" customHeight="1">
+    <row r="4" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v xml:space="preserve">  0xE0, 0xC0, 0xC0, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16.5" customHeight="1">
+    <row r="5" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8525,7 +8531,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16.5" customHeight="1">
+    <row r="6" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8643,7 +8649,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16.5" customHeight="1">
+    <row r="7" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8757,7 +8763,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x80, 0xC0, 0xC0, 0xE0, 0xE0, 0xF0, 0x70,</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="16.5" customHeight="1">
+    <row r="8" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8869,7 +8875,7 @@
         <v xml:space="preserve">  0x70, 0x30, 0x30, 0x18, 0x18, 0x18, 0x18, 0x08, 0x08, 0x08, 0x08, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16.5" customHeight="1">
+    <row r="9" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8983,7 +8989,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16.5" customHeight="1">
+    <row r="10" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -9095,7 +9101,7 @@
         <v xml:space="preserve">  0x01, 0x03, 0x03, 0x03, 0x07, 0x0F, 0x0E, 0x0C, 0x1C, 0x38, 0x38, 0xB8, 0xF8, 0xF0,</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16.5" customHeight="1">
+    <row r="11" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -9209,7 +9215,7 @@
         <v xml:space="preserve">  0xF0, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xFC, 0xFC, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8,</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="16.5" customHeight="1">
+    <row r="12" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9369,7 +9375,7 @@
         <v xml:space="preserve">  0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF8, 0xF0, 0xE0, 0xE0, 0xF0, 0xF0, 0xF0,</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16.5" customHeight="1">
+    <row r="13" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -9535,7 +9541,7 @@
         <v xml:space="preserve">  0xF0, 0x78, 0x38, 0x3C, 0x1C, 0x1F, 0x0F, 0x07, 0x03, 0x03, 0x01, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16.5" customHeight="1">
+    <row r="14" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9699,7 +9705,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16.5" customHeight="1">
+    <row r="15" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -9853,7 +9859,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16.5" customHeight="1">
+    <row r="16" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -10007,7 +10013,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x06, 0x0F, 0x0F, 0x0F, 0x0F,</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16.5" customHeight="1">
+    <row r="17" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -10171,7 +10177,7 @@
         <v xml:space="preserve">  0x0F, 0x07, 0x07, 0x07, 0x1F, 0xFF, 0xFF, 0xCF, 0xC7, 0xE7, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="16.5" customHeight="1">
+    <row r="18" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -10339,7 +10345,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xE7, 0xC7, 0xCF, 0xFF, 0xFF, 0x1F, 0x0F, 0x1F, 0x1F, 0x1F, 0x1F,</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="16.5" customHeight="1">
+    <row r="19" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10509,7 +10515,7 @@
         <v xml:space="preserve">  0x1F, 0x1F, 0x1E, 0x0E, 0x04, 0x00, 0x00, 0x00, 0x0F, 0x05, 0x0B, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16.5" customHeight="1">
+    <row r="20" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10661,7 +10667,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16.5" customHeight="1">
+    <row r="21" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10791,7 +10797,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="16.5" customHeight="1">
+    <row r="22" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10907,7 +10913,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="16.5" customHeight="1">
+    <row r="23" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -11031,7 +11037,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x01, 0x07, 0x1F, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="16.5" customHeight="1">
+    <row r="24" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -11155,7 +11161,7 @@
         <v xml:space="preserve">  0xFF, 0xFF, 0xFF, 0xFF, 0x1F, 0x07, 0x03, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="16.5" customHeight="1">
+    <row r="25" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11277,7 +11283,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="16.5" customHeight="1">
+    <row r="26" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -11397,7 +11403,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="16.5" customHeight="1">
+    <row r="27" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11515,7 +11521,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="16.5" customHeight="1">
+    <row r="28" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11629,7 +11635,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="16.5" customHeight="1">
+    <row r="29" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -11743,7 +11749,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x3C, 0x7F, 0x7F, 0xEF, 0xDF, 0xFF, 0xFF,</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="16.5" customHeight="1">
+    <row r="30" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -11853,7 +11859,7 @@
         <v xml:space="preserve">  0xDF, 0xEF, 0x7F, 0x3F, 0x38, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="16.5" customHeight="1">
+    <row r="31" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -11963,7 +11969,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="16.5" customHeight="1">
+    <row r="32" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12073,7 +12079,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="16.5" customHeight="1">
+    <row r="33" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12183,7 +12189,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="16.5" customHeight="1">
+    <row r="34" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12293,7 +12299,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="16.5" customHeight="1">
+    <row r="35" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12405,7 +12411,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="16.5" customHeight="1">
+    <row r="36" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12519,7 +12525,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="16.5" customHeight="1">
+    <row r="37" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12629,7 +12635,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00,</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="16.5" customHeight="1">
+    <row r="38" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12739,7 +12745,7 @@
         <v xml:space="preserve">  0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="16.5" customHeight="1">
+    <row r="39" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12846,7 +12852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="16.5" customHeight="1">
+    <row r="40" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12944,7 +12950,7 @@
       <c r="CE40" s="11"/>
       <c r="CF40" s="12"/>
     </row>
-    <row r="41" spans="1:86" ht="16.5" customHeight="1">
+    <row r="41" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13033,7 +13039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="16.5" customHeight="1">
+    <row r="42" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13122,7 +13128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="16.5" customHeight="1">
+    <row r="43" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13211,7 +13217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="16.5" customHeight="1">
+    <row r="44" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13297,7 +13303,7 @@
       <c r="CE44" s="11"/>
       <c r="CF44" s="12"/>
     </row>
-    <row r="45" spans="1:86" ht="16.5" customHeight="1">
+    <row r="45" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13383,7 +13389,7 @@
       <c r="CE45" s="11"/>
       <c r="CF45" s="12"/>
     </row>
-    <row r="46" spans="1:86" ht="16.5" customHeight="1">
+    <row r="46" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13469,7 +13475,7 @@
       <c r="CE46" s="11"/>
       <c r="CF46" s="12"/>
     </row>
-    <row r="47" spans="1:86" ht="16.5" customHeight="1">
+    <row r="47" spans="1:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13555,7 +13561,7 @@
       <c r="CE47" s="11"/>
       <c r="CF47" s="12"/>
     </row>
-    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13641,7 +13647,7 @@
       <c r="CE48" s="15"/>
       <c r="CF48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>08</v>
@@ -13979,7 +13985,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -14317,7 +14323,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -14655,7 +14661,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -14993,7 +14999,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -15331,7 +15337,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -15681,14 +15687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB55"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="CQ36" sqref="CQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="84" width="2.85546875" customWidth="1"/>
     <col min="101" max="188" width="3.42578125" customWidth="1"/>
@@ -15757,7 +15763,7 @@
     <col min="16129" max="16212" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="16.5" customHeight="1">
+    <row r="1" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -15930,7 +15936,7 @@
       <c r="GA1" s="7"/>
       <c r="GB1" s="8"/>
     </row>
-    <row r="2" spans="1:184" ht="16.5" customHeight="1">
+    <row r="2" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -16104,7 +16110,7 @@
       <c r="GA2" s="11"/>
       <c r="GB2" s="12"/>
     </row>
-    <row r="3" spans="1:184" ht="16.5" customHeight="1">
+    <row r="3" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -16334,7 +16340,7 @@
       <c r="GA3" s="11"/>
       <c r="GB3" s="12"/>
     </row>
-    <row r="4" spans="1:184" ht="16.5" customHeight="1">
+    <row r="4" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -16536,7 +16542,7 @@
       <c r="GA4" s="11"/>
       <c r="GB4" s="12"/>
     </row>
-    <row r="5" spans="1:184" ht="16.5" customHeight="1">
+    <row r="5" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -16738,7 +16744,7 @@
       <c r="GA5" s="11"/>
       <c r="GB5" s="12"/>
     </row>
-    <row r="6" spans="1:184" ht="16.5" customHeight="1">
+    <row r="6" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -16952,7 +16958,7 @@
       <c r="GA6" s="11"/>
       <c r="GB6" s="12"/>
     </row>
-    <row r="7" spans="1:184" ht="16.5" customHeight="1">
+    <row r="7" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -17168,7 +17174,7 @@
       <c r="GA7" s="11"/>
       <c r="GB7" s="12"/>
     </row>
-    <row r="8" spans="1:184" ht="16.5" customHeight="1">
+    <row r="8" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17380,7 +17386,7 @@
       <c r="GA8" s="11"/>
       <c r="GB8" s="12"/>
     </row>
-    <row r="9" spans="1:184" ht="16.5" customHeight="1">
+    <row r="9" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -17592,7 +17598,7 @@
       <c r="GA9" s="11"/>
       <c r="GB9" s="12"/>
     </row>
-    <row r="10" spans="1:184" ht="16.5" customHeight="1">
+    <row r="10" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -17818,7 +17824,7 @@
       <c r="GA10" s="11"/>
       <c r="GB10" s="12"/>
     </row>
-    <row r="11" spans="1:184" ht="16.5" customHeight="1">
+    <row r="11" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -17992,7 +17998,7 @@
       <c r="GA11" s="11"/>
       <c r="GB11" s="12"/>
     </row>
-    <row r="12" spans="1:184" ht="16.5" customHeight="1">
+    <row r="12" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -18178,7 +18184,7 @@
       <c r="GA12" s="11"/>
       <c r="GB12" s="12"/>
     </row>
-    <row r="13" spans="1:184" ht="16.5" customHeight="1">
+    <row r="13" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -18376,7 +18382,7 @@
       <c r="GA13" s="11"/>
       <c r="GB13" s="12"/>
     </row>
-    <row r="14" spans="1:184" ht="16.5" customHeight="1">
+    <row r="14" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18570,7 +18576,7 @@
       <c r="GA14" s="11"/>
       <c r="GB14" s="12"/>
     </row>
-    <row r="15" spans="1:184" ht="16.5" customHeight="1">
+    <row r="15" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -18756,7 +18762,7 @@
       <c r="GA15" s="11"/>
       <c r="GB15" s="12"/>
     </row>
-    <row r="16" spans="1:184" ht="16.5" customHeight="1">
+    <row r="16" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -18948,7 +18954,7 @@
       <c r="GA16" s="11"/>
       <c r="GB16" s="12"/>
     </row>
-    <row r="17" spans="1:184" ht="16.5" customHeight="1">
+    <row r="17" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -19142,7 +19148,7 @@
       <c r="GA17" s="11"/>
       <c r="GB17" s="12"/>
     </row>
-    <row r="18" spans="1:184" ht="16.5" customHeight="1">
+    <row r="18" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -19336,7 +19342,7 @@
       <c r="GA18" s="11"/>
       <c r="GB18" s="12"/>
     </row>
-    <row r="19" spans="1:184" ht="16.5" customHeight="1">
+    <row r="19" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -19518,7 +19524,7 @@
       <c r="GA19" s="11"/>
       <c r="GB19" s="12"/>
     </row>
-    <row r="20" spans="1:184" ht="16.5" customHeight="1">
+    <row r="20" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -19700,7 +19706,7 @@
       <c r="GA20" s="11"/>
       <c r="GB20" s="12"/>
     </row>
-    <row r="21" spans="1:184" ht="16.5" customHeight="1">
+    <row r="21" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -19894,7 +19900,7 @@
       <c r="GA21" s="11"/>
       <c r="GB21" s="12"/>
     </row>
-    <row r="22" spans="1:184" ht="16.5" customHeight="1">
+    <row r="22" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -20082,7 +20088,7 @@
       <c r="GA22" s="11"/>
       <c r="GB22" s="12"/>
     </row>
-    <row r="23" spans="1:184" ht="16.5" customHeight="1">
+    <row r="23" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20276,7 +20282,7 @@
       <c r="GA23" s="11"/>
       <c r="GB23" s="12"/>
     </row>
-    <row r="24" spans="1:184" ht="16.5" customHeight="1">
+    <row r="24" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -20458,7 +20464,7 @@
       <c r="GA24" s="11"/>
       <c r="GB24" s="12"/>
     </row>
-    <row r="25" spans="1:184" ht="16.5" customHeight="1">
+    <row r="25" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -20642,7 +20648,7 @@
       <c r="GA25" s="11"/>
       <c r="GB25" s="12"/>
     </row>
-    <row r="26" spans="1:184" ht="16.5" customHeight="1">
+    <row r="26" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -20868,7 +20874,7 @@
       <c r="GA26" s="11"/>
       <c r="GB26" s="12"/>
     </row>
-    <row r="27" spans="1:184" ht="16.5" customHeight="1">
+    <row r="27" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -21050,7 +21056,7 @@
       <c r="GA27" s="11"/>
       <c r="GB27" s="12"/>
     </row>
-    <row r="28" spans="1:184" ht="16.5" customHeight="1">
+    <row r="28" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -21232,7 +21238,7 @@
       <c r="GA28" s="11"/>
       <c r="GB28" s="12"/>
     </row>
-    <row r="29" spans="1:184" ht="16.5" customHeight="1">
+    <row r="29" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -21432,7 +21438,7 @@
       <c r="GA29" s="11"/>
       <c r="GB29" s="12"/>
     </row>
-    <row r="30" spans="1:184" ht="16.5" customHeight="1">
+    <row r="30" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -21650,7 +21656,7 @@
       <c r="GA30" s="11"/>
       <c r="GB30" s="12"/>
     </row>
-    <row r="31" spans="1:184" ht="16.5" customHeight="1">
+    <row r="31" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -21838,7 +21844,7 @@
       <c r="GA31" s="11"/>
       <c r="GB31" s="12"/>
     </row>
-    <row r="32" spans="1:184" ht="16.5" customHeight="1">
+    <row r="32" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -22030,7 +22036,7 @@
       <c r="GA32" s="11"/>
       <c r="GB32" s="12"/>
     </row>
-    <row r="33" spans="1:184" ht="16.5" customHeight="1">
+    <row r="33" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -22222,7 +22228,7 @@
       <c r="GA33" s="11"/>
       <c r="GB33" s="12"/>
     </row>
-    <row r="34" spans="1:184" ht="16.5" customHeight="1">
+    <row r="34" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22412,7 +22418,7 @@
       <c r="GA34" s="11"/>
       <c r="GB34" s="12"/>
     </row>
-    <row r="35" spans="1:184" ht="16.5" customHeight="1">
+    <row r="35" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -22602,7 +22608,7 @@
       <c r="GA35" s="11"/>
       <c r="GB35" s="12"/>
     </row>
-    <row r="36" spans="1:184" ht="16.5" customHeight="1">
+    <row r="36" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -22794,7 +22800,7 @@
       <c r="GA36" s="11"/>
       <c r="GB36" s="12"/>
     </row>
-    <row r="37" spans="1:184" ht="16.5" customHeight="1">
+    <row r="37" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -22986,7 +22992,7 @@
       <c r="GA37" s="11"/>
       <c r="GB37" s="12"/>
     </row>
-    <row r="38" spans="1:184" ht="16.5" customHeight="1">
+    <row r="38" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -23178,7 +23184,7 @@
       <c r="GA38" s="11"/>
       <c r="GB38" s="12"/>
     </row>
-    <row r="39" spans="1:184" ht="16.5" customHeight="1">
+    <row r="39" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -23371,7 +23377,7 @@
       <c r="GA39" s="11"/>
       <c r="GB39" s="12"/>
     </row>
-    <row r="40" spans="1:184" ht="16.5" customHeight="1">
+    <row r="40" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -23595,7 +23601,7 @@
       <c r="GA40" s="11"/>
       <c r="GB40" s="12"/>
     </row>
-    <row r="41" spans="1:184" ht="16.5" customHeight="1">
+    <row r="41" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -23790,7 +23796,7 @@
       <c r="GA41" s="11"/>
       <c r="GB41" s="12"/>
     </row>
-    <row r="42" spans="1:184" ht="16.5" customHeight="1">
+    <row r="42" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -24023,7 +24029,7 @@
       <c r="GA42" s="11"/>
       <c r="GB42" s="12"/>
     </row>
-    <row r="43" spans="1:184" ht="16.5" customHeight="1">
+    <row r="43" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24246,7 +24252,7 @@
       <c r="GA43" s="11"/>
       <c r="GB43" s="12"/>
     </row>
-    <row r="44" spans="1:184" ht="16.5" customHeight="1">
+    <row r="44" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -24448,7 +24454,7 @@
       <c r="GA44" s="11"/>
       <c r="GB44" s="12"/>
     </row>
-    <row r="45" spans="1:184" ht="16.5" customHeight="1">
+    <row r="45" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -24730,7 +24736,7 @@
       <c r="GA45" s="11"/>
       <c r="GB45" s="12"/>
     </row>
-    <row r="46" spans="1:184" ht="16.5" customHeight="1">
+    <row r="46" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -24908,7 +24914,7 @@
       <c r="GA46" s="11"/>
       <c r="GB46" s="12"/>
     </row>
-    <row r="47" spans="1:184" ht="16.5" customHeight="1">
+    <row r="47" spans="1:184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -25110,7 +25116,7 @@
       <c r="GA47" s="11"/>
       <c r="GB47" s="12"/>
     </row>
-    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1">
+    <row r="48" spans="1:184" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -25282,7 +25288,7 @@
       <c r="GA48" s="15"/>
       <c r="GB48" s="16"/>
     </row>
-    <row r="50" spans="1:84">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>DEC2HEX(128*(A8&gt;0)+64*(A7&gt;0)+32*(A6&gt;0)+16*(A5&gt;0)+8*(A4&gt;0)+4*(A3&gt;0)+2*(A2&gt;0)+1*(A1&gt;0),2)</f>
         <v>00</v>
@@ -25620,7 +25626,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:84">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>DEC2HEX(128*(A16&gt;0)+64*(A15&gt;0)+32*(A14&gt;0)+16*(A13&gt;0)+8*(A12&gt;0)+4*(A11&gt;0)+2*(A10&gt;0)+1*(A9&gt;0),2)</f>
         <v>00</v>
@@ -25958,7 +25964,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="52" spans="1:84">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>DEC2HEX(128*(A24&gt;0)+64*(A23&gt;0)+32*(A22&gt;0)+16*(A21&gt;0)+8*(A20&gt;0)+4*(A19&gt;0)+2*(A18&gt;0)+1*(A17&gt;0),2)</f>
         <v>00</v>
@@ -26296,7 +26302,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="53" spans="1:84">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>DEC2HEX(128*(A32&gt;0)+64*(A31&gt;0)+32*(A30&gt;0)+16*(A29&gt;0)+8*(A28&gt;0)+4*(A27&gt;0)+2*(A26&gt;0)+1*(A25&gt;0),2)</f>
         <v>00</v>
@@ -26634,7 +26640,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="54" spans="1:84">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>DEC2HEX(128*(A40&gt;0)+64*(A39&gt;0)+32*(A38&gt;0)+16*(A37&gt;0)+8*(A36&gt;0)+4*(A35&gt;0)+2*(A34&gt;0)+1*(A33&gt;0),2)</f>
         <v>00</v>
@@ -26972,7 +26978,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="55" spans="1:84">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>DEC2HEX(128*(A48&gt;0)+64*(A47&gt;0)+32*(A46&gt;0)+16*(A45&gt;0)+8*(A44&gt;0)+4*(A43&gt;0)+2*(A42&gt;0)+1*(A41&gt;0),2)</f>
         <v>00</v>
@@ -27617,14 +27623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="62" customWidth="1"/>
     <col min="2" max="7" width="3.7109375" style="62" customWidth="1"/>
@@ -27640,7 +27646,7 @@
     <col min="40" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
@@ -27677,7 +27683,7 @@
       <c r="AL1" s="65"/>
       <c r="AM1" s="65"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66">
@@ -27726,7 +27732,7 @@
       <c r="AL2" s="66"/>
       <c r="AM2" s="65"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="66">
         <v>1</v>
@@ -27785,7 +27791,7 @@
       <c r="AL3" s="66"/>
       <c r="AM3" s="65"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66">
@@ -27846,7 +27852,7 @@
       <c r="AL4" s="66"/>
       <c r="AM4" s="65"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -27911,7 +27917,7 @@
       </c>
       <c r="AM5" s="65"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66">
@@ -27976,7 +27982,7 @@
       </c>
       <c r="AM6" s="65"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="66">
         <v>1</v>
@@ -28043,7 +28049,7 @@
       <c r="AL7" s="66"/>
       <c r="AM7" s="65"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66">
@@ -28104,7 +28110,7 @@
       <c r="AL8" s="66"/>
       <c r="AM8" s="64"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="66">
         <v>1</v>
@@ -28165,7 +28171,7 @@
       <c r="AL9" s="66"/>
       <c r="AM9" s="64"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -28202,7 +28208,7 @@
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="63" t="str">
         <f>DEC2HEX(128*(B9&gt;0)+64*(B8&gt;0)+32*(B7&gt;0)+16*(B6&gt;0)+8*(B5&gt;0)+4*(B4&gt;0)+2*(B3&gt;0)+1*(B2&gt;0),2)</f>
         <v>AA</v>
@@ -28304,7 +28310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -28341,7 +28347,7 @@
       <c r="AL14" s="65"/>
       <c r="AM14" s="65"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -28384,7 +28390,7 @@
       <c r="AL15" s="66"/>
       <c r="AM15" s="65"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -28437,7 +28443,7 @@
       <c r="AL16" s="66"/>
       <c r="AM16" s="65"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="66">
         <v>1</v>
@@ -28510,7 +28516,7 @@
       </c>
       <c r="AM17" s="65"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66">
@@ -28573,7 +28579,7 @@
       </c>
       <c r="AM18" s="65"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -28624,7 +28630,7 @@
       </c>
       <c r="AM19" s="65"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="64"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -28677,7 +28683,7 @@
       </c>
       <c r="AM20" s="65"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66">
@@ -28736,7 +28742,7 @@
       <c r="AL21" s="66"/>
       <c r="AM21" s="64"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -28779,7 +28785,7 @@
       <c r="AL22" s="66"/>
       <c r="AM22" s="64"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -28816,7 +28822,7 @@
       <c r="AL23" s="64"/>
       <c r="AM23" s="64"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="63" t="str">
         <f>DEC2HEX(128*(B22&gt;0)+64*(B21&gt;0)+32*(B20&gt;0)+16*(B19&gt;0)+8*(B18&gt;0)+4*(B17&gt;0)+2*(B16&gt;0)+1*(B15&gt;0),2)</f>
         <v>04</v>
@@ -29004,21 +29010,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>166</v>
       </c>
@@ -29026,7 +29032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -29040,7 +29046,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -29054,7 +29060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -29065,7 +29071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>167</v>
       </c>
@@ -29079,7 +29085,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L6">
         <v>2</v>
       </c>
@@ -29090,7 +29096,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7">
         <v>3</v>
       </c>
@@ -29101,22 +29107,22 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11">
         <v>7</v>
       </c>
@@ -29134,14 +29140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -29152,7 +29158,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -29175,8 +29181,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -29189,8 +29195,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
@@ -29201,8 +29207,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -29223,8 +29229,8 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="105"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -29245,8 +29251,8 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="105"/>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
@@ -29259,8 +29265,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="105"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -29281,8 +29287,8 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="105"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -29303,8 +29309,8 @@
       </c>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -29325,8 +29331,8 @@
       </c>
       <c r="H9" s="101"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -29339,8 +29345,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
       <c r="B12" s="1" t="s">
         <v>278</v>
       </c>
@@ -29351,8 +29357,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="105"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
       <c r="B13" s="1" t="s">
         <v>279</v>
       </c>
@@ -29371,10 +29377,10 @@
       <c r="G13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H13" s="118"/>
+      <c r="H13" s="104"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="105"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
       <c r="B14" s="1" t="s">
         <v>280</v>
       </c>
@@ -29393,10 +29399,10 @@
       <c r="G14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="105"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="105"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
       <c r="B15" s="1" t="s">
         <v>281</v>
       </c>
@@ -29407,8 +29413,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="105"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
       <c r="B16" s="1" t="s">
         <v>282</v>
       </c>
@@ -29419,8 +29425,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="105"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
       <c r="B17" s="1" t="s">
         <v>283</v>
       </c>
@@ -29431,52 +29437,52 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="105" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="105"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="105"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="105"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="A23" s="105"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
       <c r="B23" s="99" t="s">
         <v>208</v>
       </c>
@@ -29491,8 +29497,8 @@
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="A24" s="105"/>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
       <c r="B24" s="99" t="s">
         <v>209</v>
       </c>
@@ -29509,8 +29515,8 @@
       <c r="G24" s="99"/>
       <c r="H24" s="99"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="105"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
       <c r="B25" s="99" t="s">
         <v>28</v>
       </c>
@@ -29527,8 +29533,8 @@
       <c r="G25" s="99"/>
       <c r="H25" s="99"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="105"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="107"/>
       <c r="B26" s="99" t="s">
         <v>29</v>
       </c>
@@ -29547,8 +29553,8 @@
       <c r="G26" s="99"/>
       <c r="H26" s="99"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="105" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="102" t="s">
@@ -29569,8 +29575,8 @@
       </c>
       <c r="H28" s="102"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="105"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="107"/>
       <c r="B29" s="102" t="s">
         <v>22</v>
       </c>
@@ -29589,8 +29595,8 @@
       </c>
       <c r="H29" s="102"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="105"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
       <c r="B30" s="102" t="s">
         <v>302</v>
       </c>
@@ -29609,8 +29615,8 @@
       </c>
       <c r="H30" s="102"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="105"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="107"/>
       <c r="B31" s="102" t="s">
         <v>303</v>
       </c>
@@ -29629,8 +29635,8 @@
       </c>
       <c r="H31" s="102"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="105"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="107"/>
       <c r="B32" s="100" t="s">
         <v>268</v>
       </c>
@@ -29651,8 +29657,8 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="105"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="107"/>
       <c r="B33" s="1" t="s">
         <v>253</v>
       </c>
@@ -29673,8 +29679,8 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="105" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="107" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="100" t="s">
@@ -29697,8 +29703,8 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="105"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="107"/>
       <c r="B36" s="1" t="s">
         <v>259</v>
       </c>
@@ -29719,8 +29725,8 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="105"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
       <c r="B37" s="1" t="s">
         <v>260</v>
       </c>
@@ -29741,8 +29747,8 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="105"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="107"/>
       <c r="B38" s="1" t="